--- a/胡宁黄岩中学成绩记录表.xlsx
+++ b/胡宁黄岩中学成绩记录表.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\记录\浙江黄岩中学\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SVN相关\Zhejiang-Huangyan-Middle-School\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{D52E4638-06AE-49B7-A598-09484FB0AE0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CD317A-26BF-4A75-A203-B16B7CE778D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="784" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="784" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="提示" sheetId="16" r:id="rId1"/>
     <sheet name="摘要" sheetId="2" r:id="rId2"/>
     <sheet name="20201009考试" sheetId="3" r:id="rId3"/>
-    <sheet name="2 月" sheetId="4" r:id="rId4"/>
-    <sheet name="3 月" sheetId="5" r:id="rId5"/>
-    <sheet name="4 月" sheetId="6" r:id="rId6"/>
-    <sheet name="5 月" sheetId="7" r:id="rId7"/>
+    <sheet name="20201122考试" sheetId="4" r:id="rId4"/>
+    <sheet name="20201226考试" sheetId="5" r:id="rId5"/>
+    <sheet name="20210201考试" sheetId="6" r:id="rId6"/>
+    <sheet name="20210407考试" sheetId="7" r:id="rId7"/>
     <sheet name="6 月" sheetId="8" r:id="rId8"/>
     <sheet name="7 月" sheetId="9" r:id="rId9"/>
     <sheet name="8 月" sheetId="10" r:id="rId10"/>
@@ -35,32 +35,33 @@
     <definedName name="ColumnTitle14">#REF!</definedName>
     <definedName name="ColumnTitle2">支出摘要[[#Headers],[学科]]</definedName>
     <definedName name="ColumnTitle3">#REF!</definedName>
-    <definedName name="ColumnTitle4">G20201209[[#Headers],[日期]]</definedName>
-    <definedName name="ColumnTitle5">ExpMar[[#Headers],[日期]]</definedName>
-    <definedName name="ColumnTitle6">ExpApr[[#Headers],[日期]]</definedName>
-    <definedName name="ColumnTitle7">ExpMay[[#Headers],[日期]]</definedName>
+    <definedName name="ColumnTitle4">#REF!</definedName>
+    <definedName name="ColumnTitle5">#REF!</definedName>
+    <definedName name="ColumnTitle6">#REF!</definedName>
+    <definedName name="ColumnTitle7">#REF!</definedName>
     <definedName name="ColumnTitle8">ExpJun[[#Headers],[日期]]</definedName>
     <definedName name="ColumnTitle9">ExpJul[[#Headers],[日期]]</definedName>
     <definedName name="ExpenseCategories">支出摘要[学科]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="11">'10 月'!$2:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="12">'11 月'!$2:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">'2 月'!$2:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">#REF!</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">'3 月'!$2:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">'4 月'!$2:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="6">'5 月'!$2:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'20201122考试'!$2:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">'20201226考试'!$2:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">'20210201考试'!$2:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">'20210407考试'!$2:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="7">'6 月'!$2:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="8">'7 月'!$2:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="9">'8 月'!$2:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="10">'9 月'!$2:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">摘要!$4:$4</definedName>
+    <definedName name="第二次月考">摘要!$C$2</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="94">
   <si>
     <t>模板提示</t>
   </si>
@@ -98,18 +99,6 @@
     <t>总计</t>
   </si>
   <si>
-    <t>2 月</t>
-  </si>
-  <si>
-    <t>3 月</t>
-  </si>
-  <si>
-    <t>4 月</t>
-  </si>
-  <si>
-    <t>5 月</t>
-  </si>
-  <si>
     <t>6 月</t>
   </si>
   <si>
@@ -162,15 +151,6 @@
   </si>
   <si>
     <t>补给</t>
-  </si>
-  <si>
-    <t>3 月支出</t>
-  </si>
-  <si>
-    <t>4 月支出</t>
-  </si>
-  <si>
-    <t>5 月支出</t>
   </si>
   <si>
     <t>6 月支出</t>
@@ -415,18 +395,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>3 月</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 月</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 月</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>6 月</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -538,15 +506,7 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>2 月支出</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>第一次月考</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇总</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -575,6 +535,105 @@
   </si>
   <si>
     <t>日期：2020/10/09</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2020/11/22</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二次月考</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>20201122考试</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>20201122</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>考试</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三次月考</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2020/12/26</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>20201226考试</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>20201226</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>考试</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2021/02/01</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四次考(期末)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>20210201考试</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>20210201</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>考试</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2021/04/07</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五次考(高一下第一次月考)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>20210407考试</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -795,7 +854,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="5" applyFont="1">
@@ -838,14 +897,9 @@
     <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -873,10 +927,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
@@ -893,7 +951,129 @@
     <cellStyle name="提示文本缩进" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="已访问的超链接" xfId="7" builtinId="9" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="180">
+  <dxfs count="164">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1402,6 +1582,324 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1414,158 +1912,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -1575,12 +1921,17 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1596,8 +1947,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -1607,12 +1956,17 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1628,8 +1982,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
@@ -1640,12 +1992,18 @@
         </patternFill>
       </fill>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
     </dxf>
     <dxf>
       <font>
@@ -1661,8 +2019,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -1672,12 +2028,17 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1693,11 +2054,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+        <scheme val="none"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1705,202 +2063,51 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -2762,12 +2969,6 @@
         <name val="Microsoft YaHei UI"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2797,12 +2998,6 @@
         <name val="Microsoft YaHei UI"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2971,20 +3166,23 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3000,20 +3198,25 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3029,28 +3232,61 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3066,26 +3302,23 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3101,60 +3334,25 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3170,26 +3368,61 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3205,20 +3438,23 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3234,16 +3470,12 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3256,6 +3488,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3271,601 +3504,97 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -3992,18 +3721,18 @@
       </border>
     </dxf>
   </dxfs>
-  <tableStyles count="2" defaultTableStyle="摘要表" defaultPivotStyle="PivotStyleLight16">
+  <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="styleCustomSlicer" pivot="0" table="0" count="10" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="179"/>
-      <tableStyleElement type="headerRow" dxfId="178"/>
+      <tableStyleElement type="wholeTable" dxfId="163"/>
+      <tableStyleElement type="headerRow" dxfId="162"/>
     </tableStyle>
     <tableStyle name="摘要表" pivot="0" count="6" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="wholeTable" dxfId="177"/>
-      <tableStyleElement type="headerRow" dxfId="176"/>
-      <tableStyleElement type="totalRow" dxfId="175"/>
-      <tableStyleElement type="firstColumn" dxfId="174"/>
-      <tableStyleElement type="lastColumn" dxfId="173"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="172"/>
+      <tableStyleElement type="wholeTable" dxfId="161"/>
+      <tableStyleElement type="headerRow" dxfId="160"/>
+      <tableStyleElement type="totalRow" dxfId="159"/>
+      <tableStyleElement type="firstColumn" dxfId="158"/>
+      <tableStyleElement type="lastColumn" dxfId="157"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="156"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -4339,16 +4068,16 @@
                   <c:v>20201009考试</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2 月</c:v>
+                  <c:v>20201122考试</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3 月</c:v>
+                  <c:v>20201226考试</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4 月</c:v>
+                  <c:v>20210201考试</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5 月</c:v>
+                  <c:v>20210407考试</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>6 月</c:v>
@@ -4391,16 +4120,16 @@
                   <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -4473,16 +4202,16 @@
                   <c:v>20201009考试</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2 月</c:v>
+                  <c:v>20201122考试</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3 月</c:v>
+                  <c:v>20201226考试</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4 月</c:v>
+                  <c:v>20210201考试</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5 月</c:v>
+                  <c:v>20210407考试</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>6 月</c:v>
@@ -4525,16 +4254,16 @@
                   <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -4607,16 +4336,16 @@
                   <c:v>20201009考试</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2 月</c:v>
+                  <c:v>20201122考试</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3 月</c:v>
+                  <c:v>20201226考试</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4 月</c:v>
+                  <c:v>20210201考试</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5 月</c:v>
+                  <c:v>20210407考试</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>6 月</c:v>
@@ -4659,16 +4388,16 @@
                   <c:v>95.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>76.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -4741,16 +4470,16 @@
                   <c:v>20201009考试</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2 月</c:v>
+                  <c:v>20201122考试</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3 月</c:v>
+                  <c:v>20201226考试</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4 月</c:v>
+                  <c:v>20210201考试</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5 月</c:v>
+                  <c:v>20210407考试</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>6 月</c:v>
@@ -4793,16 +4522,16 @@
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -4875,16 +4604,16 @@
                   <c:v>20201009考试</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2 月</c:v>
+                  <c:v>20201122考试</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3 月</c:v>
+                  <c:v>20201226考试</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4 月</c:v>
+                  <c:v>20210201考试</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5 月</c:v>
+                  <c:v>20210407考试</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>6 月</c:v>
@@ -4927,16 +4656,16 @@
                   <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -4999,16 +4728,16 @@
                   <c:v>20201009考试</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2 月</c:v>
+                  <c:v>20201122考试</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3 月</c:v>
+                  <c:v>20201226考试</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4 月</c:v>
+                  <c:v>20210201考试</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5 月</c:v>
+                  <c:v>20210407考试</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>6 月</c:v>
@@ -5051,16 +4780,16 @@
                   <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -5123,16 +4852,16 @@
                   <c:v>20201009考试</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2 月</c:v>
+                  <c:v>20201122考试</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3 月</c:v>
+                  <c:v>20201226考试</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4 月</c:v>
+                  <c:v>20210201考试</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5 月</c:v>
+                  <c:v>20210407考试</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>6 月</c:v>
@@ -5175,16 +4904,16 @@
                   <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -5247,16 +4976,16 @@
                   <c:v>20201009考试</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2 月</c:v>
+                  <c:v>20201122考试</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3 月</c:v>
+                  <c:v>20201226考试</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4 月</c:v>
+                  <c:v>20210201考试</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5 月</c:v>
+                  <c:v>20210407考试</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>6 月</c:v>
@@ -5299,16 +5028,16 @@
                   <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -5371,16 +5100,16 @@
                   <c:v>20201009考试</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2 月</c:v>
+                  <c:v>20201122考试</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3 月</c:v>
+                  <c:v>20201226考试</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4 月</c:v>
+                  <c:v>20210201考试</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5 月</c:v>
+                  <c:v>20210407考试</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>6 月</c:v>
@@ -5423,16 +5152,16 @@
                   <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -5652,50 +5381,50 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="支出摘要" displayName="支出摘要" ref="A4:O14" totalsRowCount="1" headerRowDxfId="46" dataDxfId="44" totalsRowDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="支出摘要" displayName="支出摘要" ref="A4:O14" totalsRowCount="1" headerRowDxfId="155" dataDxfId="154" totalsRowDxfId="153">
   <autoFilter ref="A4:O13" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="学科" totalsRowLabel="汇总" dataDxfId="43" totalsRowDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="20201009考试" totalsRowFunction="sum" dataDxfId="0" totalsRowDxfId="14">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="学科" totalsRowLabel="汇总" dataDxfId="41" totalsRowDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="20201009考试" totalsRowFunction="sum" dataDxfId="40" totalsRowDxfId="20">
       <calculatedColumnFormula>SUMIFS(G20201009[成绩],G20201009[学科],支出摘要[学科])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="2 月" totalsRowFunction="sum" dataDxfId="42" totalsRowDxfId="13">
-      <calculatedColumnFormula>SUMIFS(G20201209[金额],G20201209[类别],支出摘要[学科])</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="20201122考试" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="19">
+      <calculatedColumnFormula>SUMIFS(G20201122[成绩],G20201122[学科],支出摘要[学科])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="3 月" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="12">
-      <calculatedColumnFormula>SUMIFS(ExpMar[金额],ExpMar[类别],支出摘要[学科])</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="20201226考试" totalsRowFunction="sum" dataDxfId="38" totalsRowDxfId="18">
+      <calculatedColumnFormula>SUMIFS(G20201226[成绩],G20201226[学科],支出摘要[学科])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="4 月" totalsRowFunction="sum" dataDxfId="40" totalsRowDxfId="11">
-      <calculatedColumnFormula>SUMIFS(ExpApr[金额],ExpApr[类别],支出摘要[学科])</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="20210201考试" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="17">
+      <calculatedColumnFormula>SUMIFS(G20210201[成绩],G20210201[学科],支出摘要[学科])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="5 月" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="10">
-      <calculatedColumnFormula>SUMIFS(ExpMay[金额],ExpMay[类别],支出摘要[学科])</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="20210407考试" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="16">
+      <calculatedColumnFormula>SUMIFS(G20210407[成绩],G20210407[学科],支出摘要[学科])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="6 月" totalsRowFunction="sum" dataDxfId="38" totalsRowDxfId="9">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="6 月" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="15">
       <calculatedColumnFormula>SUMIFS(ExpJun[金额],ExpJun[类别],支出摘要[学科])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="7 月" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="8">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="7 月" totalsRowFunction="sum" dataDxfId="36" totalsRowDxfId="14">
       <calculatedColumnFormula>SUMIFS(ExpJul[金额],ExpJul[类别],支出摘要[学科])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="8 月" totalsRowFunction="sum" dataDxfId="36" totalsRowDxfId="7">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="8 月" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="13">
       <calculatedColumnFormula>SUMIFS(ExpAug[金额],ExpAug[类别],支出摘要[学科])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="9 月" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="6">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="9 月" totalsRowFunction="sum" dataDxfId="34" totalsRowDxfId="12">
       <calculatedColumnFormula>SUMIFS(ExpSep[金额],ExpSep[类别],支出摘要[学科])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="10 月" totalsRowFunction="sum" dataDxfId="34" totalsRowDxfId="5">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="10 月" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="11">
       <calculatedColumnFormula>SUMIFS(ExpOct[金额],ExpOct[类别],支出摘要[学科])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="11 月" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="4">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="11 月" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="10">
       <calculatedColumnFormula>SUMIFS(ExpNov[金额],ExpNov[类别],支出摘要[学科])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="12 月" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="3">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="12 月" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="9">
       <calculatedColumnFormula>SUMIFS(exp,#REF!,支出摘要[学科])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="总计" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="2">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="总计" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="8">
       <calculatedColumnFormula>SUM(支出摘要[[#This Row],[20201009考试]:[12 月]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="趋势" dataDxfId="32" totalsRowDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="趋势" dataDxfId="29" totalsRowDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="摘要表" showFirstColumn="0" showLastColumn="1" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -5707,14 +5436,14 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="ExpSep" displayName="ExpSep" ref="A2:E9" totalsRowCount="1" headerRowDxfId="85" dataDxfId="84" totalsRowDxfId="83">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="ExpSep" displayName="ExpSep" ref="A2:E9" totalsRowCount="1" headerRowDxfId="86" dataDxfId="85" totalsRowDxfId="84">
   <autoFilter ref="A2:E8" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="日期" totalsRowLabel="汇总" dataDxfId="82" totalsRowDxfId="81"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="PO#" dataDxfId="80" totalsRowDxfId="79"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="金额" totalsRowFunction="sum" dataDxfId="78" totalsRowDxfId="77"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="类别" dataDxfId="76" totalsRowDxfId="75"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="描述" dataDxfId="74" totalsRowDxfId="73"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="日期" totalsRowLabel="汇总" dataDxfId="83" totalsRowDxfId="82"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="PO#" dataDxfId="81" totalsRowDxfId="80"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="金额" totalsRowFunction="sum" dataDxfId="79" totalsRowDxfId="78"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="类别" dataDxfId="77" totalsRowDxfId="76"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="描述" dataDxfId="75" totalsRowDxfId="74"/>
   </tableColumns>
   <tableStyleInfo name="摘要表" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -5726,14 +5455,14 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="ExpOct" displayName="ExpOct" ref="A2:E9" totalsRowCount="1" headerRowDxfId="72" dataDxfId="71" totalsRowDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="ExpOct" displayName="ExpOct" ref="A2:E9" totalsRowCount="1" headerRowDxfId="73" dataDxfId="72" totalsRowDxfId="71">
   <autoFilter ref="A2:E8" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="日期" totalsRowLabel="汇总" dataDxfId="69" totalsRowDxfId="68"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="PO#" dataDxfId="67" totalsRowDxfId="66"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="金额" totalsRowFunction="sum" dataDxfId="65" totalsRowDxfId="64"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="类别" dataDxfId="63" totalsRowDxfId="62"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="描述" dataDxfId="61" totalsRowDxfId="60"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="日期" totalsRowLabel="汇总" dataDxfId="70" totalsRowDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="PO#" dataDxfId="68" totalsRowDxfId="67"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="金额" totalsRowFunction="sum" dataDxfId="66" totalsRowDxfId="65"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="类别" dataDxfId="64" totalsRowDxfId="63"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="描述" dataDxfId="62" totalsRowDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="摘要表" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -5745,14 +5474,14 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="ExpNov" displayName="ExpNov" ref="A2:E9" totalsRowCount="1" headerRowDxfId="59" dataDxfId="58" totalsRowDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="ExpNov" displayName="ExpNov" ref="A2:E9" totalsRowCount="1" headerRowDxfId="60" dataDxfId="59" totalsRowDxfId="58">
   <autoFilter ref="A2:E8" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="日期" totalsRowLabel="汇总" dataDxfId="56" totalsRowDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="PO#" dataDxfId="54" totalsRowDxfId="53"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="金额" totalsRowFunction="sum" dataDxfId="52" totalsRowDxfId="51"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="类别" dataDxfId="50" totalsRowDxfId="49"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="描述" dataDxfId="48" totalsRowDxfId="47"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="日期" totalsRowLabel="汇总" dataDxfId="57" totalsRowDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="PO#" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="金额" totalsRowFunction="sum" dataDxfId="53" totalsRowDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="类别" dataDxfId="51" totalsRowDxfId="50"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="描述" dataDxfId="49" totalsRowDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="摘要表" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -5764,12 +5493,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{6D77D3BE-EE13-4138-AFED-C87E0A200D21}" name="G20201009" displayName="G20201009" ref="A2:C12" totalsRowCount="1" headerRowDxfId="24" dataDxfId="23" totalsRowDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{6D77D3BE-EE13-4138-AFED-C87E0A200D21}" name="G20201009" displayName="G20201009" ref="A2:C12" totalsRowCount="1" headerRowDxfId="152" dataDxfId="151" totalsRowDxfId="150">
   <autoFilter ref="A2:C11" xr:uid="{CEC36953-3146-4FFE-BF85-2D17AABEC3C8}"/>
   <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{511B64D7-9BF0-4351-9AB2-561631539142}" name="学科" totalsRowLabel="汇总" dataDxfId="20" totalsRowDxfId="21" dataCellStyle="表格详细信息"/>
-    <tableColumn id="3" xr3:uid="{3140EA8D-08D2-4F4F-A103-5B06A7DDB3AB}" name="成绩" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{FAE8C61F-0FF8-4188-AA7D-5F7A56DFA269}" name="名次" totalsRowLabel="383" dataDxfId="16" totalsRowDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{511B64D7-9BF0-4351-9AB2-561631539142}" name="学科" totalsRowLabel="汇总" dataDxfId="149" totalsRowDxfId="148" dataCellStyle="表格详细信息"/>
+    <tableColumn id="3" xr3:uid="{3140EA8D-08D2-4F4F-A103-5B06A7DDB3AB}" name="成绩" totalsRowFunction="sum" dataDxfId="147" totalsRowDxfId="146"/>
+    <tableColumn id="5" xr3:uid="{FAE8C61F-0FF8-4188-AA7D-5F7A56DFA269}" name="名次" totalsRowLabel="383" dataDxfId="145" totalsRowDxfId="144"/>
   </tableColumns>
   <tableStyleInfo name="摘要表" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -5781,14 +5510,12 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="G20201209" displayName="G20201209" ref="A2:E9" totalsRowCount="1" headerRowDxfId="171" dataDxfId="170" totalsRowDxfId="169">
-  <autoFilter ref="A2:E8" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="日期" totalsRowLabel="汇总" dataDxfId="168" totalsRowDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="PO#" dataDxfId="167" totalsRowDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="金额" totalsRowFunction="sum" dataDxfId="166" totalsRowDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="类别" dataDxfId="165" totalsRowDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="描述" dataDxfId="164" totalsRowDxfId="27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29E0DEC8-35CD-49DD-9980-DE0CE93A62F2}" name="G20201122" displayName="G20201122" ref="A2:C12" totalsRowCount="1" headerRowDxfId="143" dataDxfId="142" totalsRowDxfId="141">
+  <autoFilter ref="A2:C11" xr:uid="{D23E8BE5-C1ED-4120-85E3-87CD5F873CAD}"/>
+  <tableColumns count="3">
+    <tableColumn id="2" xr3:uid="{7036831C-7D94-449E-A874-1FF30C6F6559}" name="学科" totalsRowLabel="汇总" dataDxfId="140" totalsRowDxfId="139" dataCellStyle="表格详细信息"/>
+    <tableColumn id="3" xr3:uid="{1F09854C-4986-466D-BAF2-E15A93886BBF}" name="成绩" totalsRowFunction="sum" dataDxfId="138" totalsRowDxfId="137"/>
+    <tableColumn id="5" xr3:uid="{8FC5B33D-CDE6-46C0-9E45-A246909E922C}" name="名次" dataDxfId="136" totalsRowDxfId="135"/>
   </tableColumns>
   <tableStyleInfo name="摘要表" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -5800,14 +5527,12 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="ExpMar" displayName="ExpMar" ref="A2:E9" totalsRowCount="1" headerRowDxfId="163" dataDxfId="162" totalsRowDxfId="161">
-  <autoFilter ref="A2:E8" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="日期" totalsRowLabel="汇总" dataDxfId="160" totalsRowDxfId="159"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="PO#" dataDxfId="158" totalsRowDxfId="157"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="金额" totalsRowFunction="sum" dataDxfId="156" totalsRowDxfId="155"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="类别" dataDxfId="154" totalsRowDxfId="153"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="描述" dataDxfId="152" totalsRowDxfId="151"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F4631236-6710-41B0-A691-59BB1C4D887C}" name="G20201226" displayName="G20201226" ref="A2:C12" totalsRowCount="1" headerRowDxfId="134" dataDxfId="133" totalsRowDxfId="132">
+  <autoFilter ref="A2:C11" xr:uid="{1559AFAA-18D1-493F-8508-E1652BF9C371}"/>
+  <tableColumns count="3">
+    <tableColumn id="2" xr3:uid="{DAC30ADF-E7C9-4912-81C9-A26775D46A9C}" name="学科" totalsRowLabel="汇总" dataDxfId="131" totalsRowDxfId="130" dataCellStyle="表格详细信息"/>
+    <tableColumn id="3" xr3:uid="{A8BC6C90-6FF2-4EDE-83F3-AA7135812534}" name="成绩" totalsRowFunction="sum" dataDxfId="129" totalsRowDxfId="128"/>
+    <tableColumn id="5" xr3:uid="{73B9B4B3-8FA7-4141-80A8-A7E739B8B97F}" name="名次" dataDxfId="127" totalsRowDxfId="126"/>
   </tableColumns>
   <tableStyleInfo name="摘要表" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -5819,14 +5544,12 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="ExpApr" displayName="ExpApr" ref="A2:E9" totalsRowCount="1" headerRowDxfId="150" dataDxfId="149" totalsRowDxfId="148">
-  <autoFilter ref="A2:E8" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="日期" totalsRowLabel="汇总" dataDxfId="147" totalsRowDxfId="146"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="PO#" dataDxfId="145" totalsRowDxfId="144"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="金额" totalsRowFunction="sum" dataDxfId="143" totalsRowDxfId="142"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="类别" dataDxfId="141" totalsRowDxfId="140"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="描述" dataDxfId="139" totalsRowDxfId="138"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8DDF2ED6-17B6-49E2-A9A2-FB12D117C043}" name="G20210201" displayName="G20210201" ref="A2:C12" totalsRowCount="1" headerRowDxfId="47" dataDxfId="46" totalsRowDxfId="45">
+  <autoFilter ref="A2:C11" xr:uid="{5F924DC2-E033-4279-8E3C-853821B4D77D}"/>
+  <tableColumns count="3">
+    <tableColumn id="2" xr3:uid="{BCD79509-756D-4B62-82AC-453E8FAE0F0B}" name="学科" totalsRowLabel="汇总" dataDxfId="44" totalsRowDxfId="5" dataCellStyle="表格详细信息"/>
+    <tableColumn id="3" xr3:uid="{21978B54-EE56-42C2-9CF4-9A3878E92FC0}" name="成绩" totalsRowFunction="sum" dataDxfId="43" totalsRowDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{D5BD6513-953E-4019-91AA-941478AA3B32}" name="名次" dataDxfId="42" totalsRowDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="摘要表" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -5838,14 +5561,12 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="ExpMay" displayName="ExpMay" ref="A2:E9" totalsRowCount="1" headerRowDxfId="137" dataDxfId="136" totalsRowDxfId="135">
-  <autoFilter ref="A2:E8" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="日期" totalsRowLabel="汇总" dataDxfId="134" totalsRowDxfId="133"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="PO#" dataDxfId="132" totalsRowDxfId="131"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="金额" totalsRowFunction="sum" dataDxfId="130" totalsRowDxfId="129"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="类别" dataDxfId="128" totalsRowDxfId="127"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="描述" dataDxfId="126" totalsRowDxfId="125"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0CF312D2-B8D7-445C-83A1-191E392BE247}" name="G20210407" displayName="G20210407" ref="A2:C12" totalsRowCount="1" headerRowDxfId="27" dataDxfId="26" totalsRowDxfId="25">
+  <autoFilter ref="A2:C11" xr:uid="{EF79F026-E83F-45FF-B230-27F00A5DD00B}"/>
+  <tableColumns count="3">
+    <tableColumn id="2" xr3:uid="{045FEDB9-118A-45A6-91C1-00C2C9970A90}" name="学科" totalsRowLabel="汇总" dataDxfId="24" totalsRowDxfId="2" dataCellStyle="表格详细信息"/>
+    <tableColumn id="3" xr3:uid="{BD096444-2BA2-442D-8BE1-A0579D5A4B06}" name="成绩" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{9D8FB202-83CF-42DE-880F-2EEC6FC96934}" name="名次" dataDxfId="22" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="摘要表" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -5857,14 +5578,14 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="ExpJun" displayName="ExpJun" ref="A2:E9" totalsRowCount="1" headerRowDxfId="124" dataDxfId="123" totalsRowDxfId="122">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="ExpJun" displayName="ExpJun" ref="A2:E9" totalsRowCount="1" headerRowDxfId="125" dataDxfId="124" totalsRowDxfId="123">
   <autoFilter ref="A2:E8" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="日期" totalsRowLabel="汇总" dataDxfId="121" totalsRowDxfId="120"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="PO#" dataDxfId="119" totalsRowDxfId="118"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="金额" totalsRowFunction="sum" dataDxfId="117" totalsRowDxfId="116"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="类别" dataDxfId="115" totalsRowDxfId="114"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="描述" dataDxfId="113" totalsRowDxfId="112"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="日期" totalsRowLabel="汇总" dataDxfId="122" totalsRowDxfId="121"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="PO#" dataDxfId="120" totalsRowDxfId="119"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="金额" totalsRowFunction="sum" dataDxfId="118" totalsRowDxfId="117"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="类别" dataDxfId="116" totalsRowDxfId="115"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="描述" dataDxfId="114" totalsRowDxfId="113"/>
   </tableColumns>
   <tableStyleInfo name="摘要表" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -5876,14 +5597,14 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="ExpJul" displayName="ExpJul" ref="A2:E9" totalsRowCount="1" headerRowDxfId="111" dataDxfId="110" totalsRowDxfId="109">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="ExpJul" displayName="ExpJul" ref="A2:E9" totalsRowCount="1" headerRowDxfId="112" dataDxfId="111" totalsRowDxfId="110">
   <autoFilter ref="A2:E8" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="日期" totalsRowLabel="汇总" dataDxfId="108" totalsRowDxfId="107"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="PO#" dataDxfId="106" totalsRowDxfId="105"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="金额" totalsRowFunction="sum" dataDxfId="104" totalsRowDxfId="103"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="类别" dataDxfId="102" totalsRowDxfId="101"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="描述" dataDxfId="100" totalsRowDxfId="99"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="日期" totalsRowLabel="汇总" dataDxfId="109" totalsRowDxfId="108"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="PO#" dataDxfId="107" totalsRowDxfId="106"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="金额" totalsRowFunction="sum" dataDxfId="105" totalsRowDxfId="104"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="类别" dataDxfId="103" totalsRowDxfId="102"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="描述" dataDxfId="101" totalsRowDxfId="100"/>
   </tableColumns>
   <tableStyleInfo name="摘要表" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -5895,14 +5616,14 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="ExpAug" displayName="ExpAug" ref="A2:E9" totalsRowCount="1" headerRowDxfId="98" dataDxfId="97" totalsRowDxfId="96">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="ExpAug" displayName="ExpAug" ref="A2:E9" totalsRowCount="1" headerRowDxfId="99" dataDxfId="98" totalsRowDxfId="97">
   <autoFilter ref="A2:E8" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="日期" totalsRowLabel="汇总" dataDxfId="95" totalsRowDxfId="94"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="PO#" dataDxfId="93" totalsRowDxfId="92"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="金额" totalsRowFunction="sum" dataDxfId="91" totalsRowDxfId="90"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="类别" dataDxfId="89" totalsRowDxfId="88"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="描述" dataDxfId="87" totalsRowDxfId="86"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="日期" totalsRowLabel="汇总" dataDxfId="96" totalsRowDxfId="95"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="PO#" dataDxfId="94" totalsRowDxfId="93"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="金额" totalsRowFunction="sum" dataDxfId="92" totalsRowDxfId="91"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="类别" dataDxfId="90" totalsRowDxfId="89"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="描述" dataDxfId="88" totalsRowDxfId="87"/>
   </tableColumns>
   <tableStyleInfo name="摘要表" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -6168,12 +5889,12 @@
     </row>
     <row r="3" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -6212,7 +5933,7 @@
     </row>
     <row r="11" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -6290,60 +6011,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
+      <c r="A1" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="30"/>
       <c r="D1" s="12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="D2" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <f ca="1">DATE(YEAR(TODAY()),8,8)</f>
-        <v>44051</v>
+        <v>44416</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="17"/>
+        <v>23</v>
+      </c>
+      <c r="C3" s="16"/>
       <c r="D3" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
         <f ca="1">DATE(YEAR(TODAY()),8,9)</f>
-        <v>44052</v>
+        <v>44417</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="17"/>
+        <v>24</v>
+      </c>
+      <c r="C4" s="16"/>
       <c r="D4" s="9" t="s">
         <v>7</v>
       </c>
@@ -6352,7 +6073,7 @@
     <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13"/>
       <c r="B5" s="9"/>
-      <c r="C5" s="17"/>
+      <c r="C5" s="16"/>
       <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
@@ -6361,7 +6082,7 @@
     <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13"/>
       <c r="B6" s="9"/>
-      <c r="C6" s="17"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="9" t="s">
         <v>8</v>
       </c>
@@ -6370,7 +6091,7 @@
     <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13"/>
       <c r="B7" s="9"/>
-      <c r="C7" s="17"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="9" t="s">
         <v>9</v>
       </c>
@@ -6379,7 +6100,7 @@
     <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13"/>
       <c r="B8" s="9"/>
-      <c r="C8" s="17"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="9" t="s">
         <v>10</v>
       </c>
@@ -6387,7 +6108,7 @@
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="15">
@@ -6458,60 +6179,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
+      <c r="A1" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="30"/>
       <c r="D1" s="12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>29</v>
-      </c>
       <c r="D2" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <f ca="1">DATE(YEAR(TODAY()),9,9)</f>
-        <v>44083</v>
+        <v>44448</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="17"/>
+        <v>23</v>
+      </c>
+      <c r="C3" s="16"/>
       <c r="D3" s="9" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
         <f ca="1">DATE(YEAR(TODAY()),9,15)</f>
-        <v>44089</v>
+        <v>44454</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="17"/>
+        <v>24</v>
+      </c>
+      <c r="C4" s="16"/>
       <c r="D4" s="9" t="s">
         <v>7</v>
       </c>
@@ -6520,7 +6241,7 @@
     <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13"/>
       <c r="B5" s="9"/>
-      <c r="C5" s="17"/>
+      <c r="C5" s="16"/>
       <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
@@ -6529,7 +6250,7 @@
     <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13"/>
       <c r="B6" s="9"/>
-      <c r="C6" s="17"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="9" t="s">
         <v>8</v>
       </c>
@@ -6538,7 +6259,7 @@
     <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13"/>
       <c r="B7" s="9"/>
-      <c r="C7" s="17"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="9" t="s">
         <v>9</v>
       </c>
@@ -6547,7 +6268,7 @@
     <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13"/>
       <c r="B8" s="9"/>
-      <c r="C8" s="17"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="9" t="s">
         <v>10</v>
       </c>
@@ -6555,7 +6276,7 @@
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="15">
@@ -6626,60 +6347,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
+      <c r="A1" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="30"/>
       <c r="D1" s="12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="D2" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <f ca="1">DATE(YEAR(TODAY()),10,10)</f>
-        <v>44114</v>
+        <v>44479</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="17"/>
+        <v>23</v>
+      </c>
+      <c r="C3" s="16"/>
       <c r="D3" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
         <f ca="1">DATE(YEAR(TODAY()),10,21)</f>
-        <v>44125</v>
+        <v>44490</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="17"/>
+        <v>24</v>
+      </c>
+      <c r="C4" s="16"/>
       <c r="D4" s="9" t="s">
         <v>7</v>
       </c>
@@ -6688,7 +6409,7 @@
     <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13"/>
       <c r="B5" s="9"/>
-      <c r="C5" s="17"/>
+      <c r="C5" s="16"/>
       <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
@@ -6697,7 +6418,7 @@
     <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13"/>
       <c r="B6" s="9"/>
-      <c r="C6" s="17"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="9" t="s">
         <v>8</v>
       </c>
@@ -6706,7 +6427,7 @@
     <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13"/>
       <c r="B7" s="9"/>
-      <c r="C7" s="17"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="9" t="s">
         <v>9</v>
       </c>
@@ -6715,7 +6436,7 @@
     <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13"/>
       <c r="B8" s="9"/>
-      <c r="C8" s="17"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="9" t="s">
         <v>10</v>
       </c>
@@ -6723,7 +6444,7 @@
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="15">
@@ -6795,60 +6516,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="12" t="s">
-        <v>49</v>
-      </c>
       <c r="E1" s="12" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="D2" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <f ca="1">DATE(YEAR(TODAY()),11,14)</f>
-        <v>44149</v>
+        <v>44514</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="17"/>
+        <v>23</v>
+      </c>
+      <c r="C3" s="16"/>
       <c r="D3" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
         <f ca="1">DATE(YEAR(TODAY()),11,21)</f>
-        <v>44156</v>
+        <v>44521</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="17"/>
+        <v>24</v>
+      </c>
+      <c r="C4" s="16"/>
       <c r="D4" s="9" t="s">
         <v>7</v>
       </c>
@@ -6857,7 +6578,7 @@
     <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13"/>
       <c r="B5" s="9"/>
-      <c r="C5" s="17"/>
+      <c r="C5" s="16"/>
       <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
@@ -6866,7 +6587,7 @@
     <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13"/>
       <c r="B6" s="9"/>
-      <c r="C6" s="17"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="9" t="s">
         <v>8</v>
       </c>
@@ -6875,7 +6596,7 @@
     <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13"/>
       <c r="B7" s="9"/>
-      <c r="C7" s="17"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="9" t="s">
         <v>9</v>
       </c>
@@ -6884,7 +6605,7 @@
     <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13"/>
       <c r="B8" s="9"/>
-      <c r="C8" s="17"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="9" t="s">
         <v>10</v>
       </c>
@@ -6892,7 +6613,7 @@
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="15">
@@ -6951,8 +6672,8 @@
   </sheetPr>
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6977,672 +6698,672 @@
   <sheetData>
     <row r="1" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A1" s="7" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="224.1" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:15" s="18" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="F4" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="12" t="s">
+      <c r="H4" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="224.1" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:15" s="21" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="O4" s="20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="23">
+      <c r="B5" s="20">
         <f>SUMIFS(G20201009[成绩],G20201009[学科],支出摘要[学科])</f>
         <v>101</v>
       </c>
-      <c r="C5" s="23">
-        <f>SUMIFS(G20201209[金额],G20201209[类别],支出摘要[学科])</f>
+      <c r="C5" s="20">
+        <f>SUMIFS(G20201122[成绩],G20201122[学科],支出摘要[学科])</f>
+        <v>85</v>
+      </c>
+      <c r="D5" s="20">
+        <f>SUMIFS(G20201226[成绩],G20201226[学科],支出摘要[学科])</f>
+        <v>102</v>
+      </c>
+      <c r="E5" s="20">
+        <f>SUMIFS(G20210201[成绩],G20210201[学科],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="D5" s="23">
-        <f>SUMIFS(ExpMar[金额],ExpMar[类别],支出摘要[学科])</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="23">
-        <f>SUMIFS(ExpApr[金额],ExpApr[类别],支出摘要[学科])</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="23">
-        <f>SUMIFS(ExpMay[金额],ExpMay[类别],支出摘要[学科])</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="23">
+      <c r="F5" s="20">
+        <f>SUMIFS(G20210407[成绩],G20210407[学科],支出摘要[学科])</f>
+        <v>90</v>
+      </c>
+      <c r="G5" s="20">
         <f>SUMIFS(ExpJun[金额],ExpJun[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="20">
         <f>SUMIFS(ExpJul[金额],ExpJul[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="20">
         <f>SUMIFS(ExpAug[金额],ExpAug[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="20">
         <f>SUMIFS(ExpSep[金额],ExpSep[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="20">
         <f>SUMIFS(ExpOct[金额],ExpOct[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="20">
         <f>SUMIFS(ExpNov[金额],ExpNov[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="M5" s="23" t="e">
+      <c r="M5" s="20" t="e">
         <f>SUMIFS(exp,#REF!,支出摘要[学科])</f>
         <v>#NAME?</v>
       </c>
-      <c r="N5" s="23">
+      <c r="N5" s="20">
         <f>SUM(支出摘要[[#This Row],[20201009考试]:[11 月]])</f>
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="23">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="20">
         <f>SUMIFS(G20201009[成绩],G20201009[学科],支出摘要[学科])</f>
         <v>98</v>
       </c>
-      <c r="C6" s="23">
-        <f>SUMIFS(G20201209[金额],G20201209[类别],支出摘要[学科])</f>
+      <c r="C6" s="20">
+        <f>SUMIFS(G20201122[成绩],G20201122[学科],支出摘要[学科])</f>
+        <v>90</v>
+      </c>
+      <c r="D6" s="20">
+        <f>SUMIFS(G20201226[成绩],G20201226[学科],支出摘要[学科])</f>
+        <v>89</v>
+      </c>
+      <c r="E6" s="20">
+        <f>SUMIFS(G20210201[成绩],G20210201[学科],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="D6" s="23">
-        <f>SUMIFS(ExpMar[金额],ExpMar[类别],支出摘要[学科])</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="23">
-        <f>SUMIFS(ExpApr[金额],ExpApr[类别],支出摘要[学科])</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="23">
-        <f>SUMIFS(ExpMay[金额],ExpMay[类别],支出摘要[学科])</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="23">
+      <c r="F6" s="20">
+        <f>SUMIFS(G20210407[成绩],G20210407[学科],支出摘要[学科])</f>
+        <v>108</v>
+      </c>
+      <c r="G6" s="20">
         <f>SUMIFS(ExpJun[金额],ExpJun[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="20">
         <f>SUMIFS(ExpJul[金额],ExpJul[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="20">
         <f>SUMIFS(ExpAug[金额],ExpAug[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="20">
         <f>SUMIFS(ExpSep[金额],ExpSep[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="20">
         <f>SUMIFS(ExpOct[金额],ExpOct[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="L6" s="23">
+      <c r="L6" s="20">
         <f>SUMIFS(ExpNov[金额],ExpNov[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="M6" s="23" t="e">
+      <c r="M6" s="20" t="e">
         <f>SUMIFS(exp,#REF!,支出摘要[学科])</f>
         <v>#NAME?</v>
       </c>
-      <c r="N6" s="23" t="e">
+      <c r="N6" s="20" t="e">
         <f>SUM(支出摘要[[#This Row],[20201009考试]:[12 月]])</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="23">
+    <row r="7" spans="1:15" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="20">
         <f>SUMIFS(G20201009[成绩],G20201009[学科],支出摘要[学科])</f>
         <v>95.5</v>
       </c>
-      <c r="C7" s="23">
-        <f>SUMIFS(G20201209[金额],G20201209[类别],支出摘要[学科])</f>
+      <c r="C7" s="20">
+        <f>SUMIFS(G20201122[成绩],G20201122[学科],支出摘要[学科])</f>
+        <v>91</v>
+      </c>
+      <c r="D7" s="20">
+        <f>SUMIFS(G20201226[成绩],G20201226[学科],支出摘要[学科])</f>
+        <v>91</v>
+      </c>
+      <c r="E7" s="20">
+        <f>SUMIFS(G20210201[成绩],G20210201[学科],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="D7" s="23">
-        <f>SUMIFS(ExpMar[金额],ExpMar[类别],支出摘要[学科])</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="23">
-        <f>SUMIFS(ExpApr[金额],ExpApr[类别],支出摘要[学科])</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="23">
-        <f>SUMIFS(ExpMay[金额],ExpMay[类别],支出摘要[学科])</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="23">
+      <c r="F7" s="20">
+        <f>SUMIFS(G20210407[成绩],G20210407[学科],支出摘要[学科])</f>
+        <v>76.5</v>
+      </c>
+      <c r="G7" s="20">
         <f>SUMIFS(ExpJun[金额],ExpJun[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="20">
         <f>SUMIFS(ExpJul[金额],ExpJul[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="20">
         <f>SUMIFS(ExpAug[金额],ExpAug[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="20">
         <f>SUMIFS(ExpSep[金额],ExpSep[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="20">
         <f>SUMIFS(ExpOct[金额],ExpOct[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="L7" s="23">
+      <c r="L7" s="20">
         <f>SUMIFS(ExpNov[金额],ExpNov[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="M7" s="23" t="e">
+      <c r="M7" s="20" t="e">
         <f>SUMIFS(exp,#REF!,支出摘要[学科])</f>
         <v>#NAME?</v>
       </c>
-      <c r="N7" s="23" t="e">
+      <c r="N7" s="20" t="e">
         <f>SUM(支出摘要[[#This Row],[20201009考试]:[12 月]])</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="23">
+    <row r="8" spans="1:15" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="20">
         <f>SUMIFS(G20201009[成绩],G20201009[学科],支出摘要[学科])</f>
         <v>70</v>
       </c>
-      <c r="C8" s="23">
-        <f>SUMIFS(G20201209[金额],G20201209[类别],支出摘要[学科])</f>
+      <c r="C8" s="20">
+        <f>SUMIFS(G20201122[成绩],G20201122[学科],支出摘要[学科])</f>
+        <v>64</v>
+      </c>
+      <c r="D8" s="20">
+        <f>SUMIFS(G20201226[成绩],G20201226[学科],支出摘要[学科])</f>
+        <v>69</v>
+      </c>
+      <c r="E8" s="20">
+        <f>SUMIFS(G20210201[成绩],G20210201[学科],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="D8" s="23">
-        <f>SUMIFS(ExpMar[金额],ExpMar[类别],支出摘要[学科])</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="23">
-        <f>SUMIFS(ExpApr[金额],ExpApr[类别],支出摘要[学科])</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="23">
-        <f>SUMIFS(ExpMay[金额],ExpMay[类别],支出摘要[学科])</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="23">
+      <c r="F8" s="20">
+        <f>SUMIFS(G20210407[成绩],G20210407[学科],支出摘要[学科])</f>
+        <v>78</v>
+      </c>
+      <c r="G8" s="20">
         <f>SUMIFS(ExpJun[金额],ExpJun[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="20">
         <f>SUMIFS(ExpJul[金额],ExpJul[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="20">
         <f>SUMIFS(ExpAug[金额],ExpAug[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="20">
         <f>SUMIFS(ExpSep[金额],ExpSep[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="20">
         <f>SUMIFS(ExpOct[金额],ExpOct[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="L8" s="23">
+      <c r="L8" s="20">
         <f>SUMIFS(ExpNov[金额],ExpNov[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="M8" s="23" t="e">
+      <c r="M8" s="20" t="e">
         <f>SUMIFS(exp,#REF!,支出摘要[学科])</f>
         <v>#NAME?</v>
       </c>
-      <c r="N8" s="23" t="e">
+      <c r="N8" s="20" t="e">
         <f>SUM(支出摘要[[#This Row],[20201009考试]:[12 月]])</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="23">
+    <row r="9" spans="1:15" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="20">
         <f>SUMIFS(G20201009[成绩],G20201009[学科],支出摘要[学科])</f>
         <v>78</v>
       </c>
-      <c r="C9" s="23">
-        <f>SUMIFS(G20201209[金额],G20201209[类别],支出摘要[学科])</f>
+      <c r="C9" s="20">
+        <f>SUMIFS(G20201122[成绩],G20201122[学科],支出摘要[学科])</f>
+        <v>64</v>
+      </c>
+      <c r="D9" s="20">
+        <f>SUMIFS(G20201226[成绩],G20201226[学科],支出摘要[学科])</f>
+        <v>56</v>
+      </c>
+      <c r="E9" s="20">
+        <f>SUMIFS(G20210201[成绩],G20210201[学科],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="D9" s="23">
-        <f>SUMIFS(ExpMar[金额],ExpMar[类别],支出摘要[学科])</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="23">
-        <f>SUMIFS(ExpApr[金额],ExpApr[类别],支出摘要[学科])</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="23">
-        <f>SUMIFS(ExpMay[金额],ExpMay[类别],支出摘要[学科])</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="23">
+      <c r="F9" s="20">
+        <f>SUMIFS(G20210407[成绩],G20210407[学科],支出摘要[学科])</f>
+        <v>70</v>
+      </c>
+      <c r="G9" s="20">
         <f>SUMIFS(ExpJun[金额],ExpJun[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="20">
         <f>SUMIFS(ExpJul[金额],ExpJul[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="20">
         <f>SUMIFS(ExpAug[金额],ExpAug[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="20">
         <f>SUMIFS(ExpSep[金额],ExpSep[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="K9" s="23">
+      <c r="K9" s="20">
         <f>SUMIFS(ExpOct[金额],ExpOct[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="L9" s="23">
+      <c r="L9" s="20">
         <f>SUMIFS(ExpNov[金额],ExpNov[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="M9" s="23" t="e">
+      <c r="M9" s="20" t="e">
         <f>SUMIFS(exp,#REF!,支出摘要[学科])</f>
         <v>#NAME?</v>
       </c>
-      <c r="N9" s="23" t="e">
+      <c r="N9" s="20" t="e">
         <f>SUM(支出摘要[[#This Row],[20201009考试]:[12 月]])</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" s="23">
+    <row r="10" spans="1:15" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="20">
         <f>SUMIFS(G20201009[成绩],G20201009[学科],支出摘要[学科])</f>
         <v>64</v>
       </c>
-      <c r="C10" s="23">
-        <f>SUMIFS(G20201209[金额],G20201209[类别],支出摘要[学科])</f>
+      <c r="C10" s="20">
+        <f>SUMIFS(G20201122[成绩],G20201122[学科],支出摘要[学科])</f>
+        <v>65</v>
+      </c>
+      <c r="D10" s="20">
+        <f>SUMIFS(G20201226[成绩],G20201226[学科],支出摘要[学科])</f>
+        <v>57</v>
+      </c>
+      <c r="E10" s="20">
+        <f>SUMIFS(G20210201[成绩],G20210201[学科],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="D10" s="23">
-        <f>SUMIFS(ExpMar[金额],ExpMar[类别],支出摘要[学科])</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="23">
-        <f>SUMIFS(ExpApr[金额],ExpApr[类别],支出摘要[学科])</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="23">
-        <f>SUMIFS(ExpMay[金额],ExpMay[类别],支出摘要[学科])</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="23">
+      <c r="F10" s="20">
+        <f>SUMIFS(G20210407[成绩],G20210407[学科],支出摘要[学科])</f>
+        <v>69</v>
+      </c>
+      <c r="G10" s="20">
         <f>SUMIFS(ExpJun[金额],ExpJun[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="20">
         <f>SUMIFS(ExpJul[金额],ExpJul[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="20">
         <f>SUMIFS(ExpAug[金额],ExpAug[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="20">
         <f>SUMIFS(ExpSep[金额],ExpSep[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="20">
         <f>SUMIFS(ExpOct[金额],ExpOct[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="L10" s="23">
+      <c r="L10" s="20">
         <f>SUMIFS(ExpNov[金额],ExpNov[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="M10" s="23" t="e">
+      <c r="M10" s="20" t="e">
         <f>SUMIFS(exp,#REF!,支出摘要[学科])</f>
         <v>#NAME?</v>
       </c>
-      <c r="N10" s="23" t="e">
+      <c r="N10" s="20" t="e">
         <f>SUM(支出摘要[[#This Row],[20201009考试]:[12 月]])</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="23">
+    <row r="11" spans="1:15" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="20">
         <f>SUMIFS(G20201009[成绩],G20201009[学科],支出摘要[学科])</f>
         <v>68</v>
       </c>
-      <c r="C11" s="23">
-        <f>SUMIFS(G20201209[金额],G20201209[类别],支出摘要[学科])</f>
+      <c r="C11" s="20">
+        <f>SUMIFS(G20201122[成绩],G20201122[学科],支出摘要[学科])</f>
+        <v>53</v>
+      </c>
+      <c r="D11" s="20">
+        <f>SUMIFS(G20201226[成绩],G20201226[学科],支出摘要[学科])</f>
+        <v>53</v>
+      </c>
+      <c r="E11" s="20">
+        <f>SUMIFS(G20210201[成绩],G20210201[学科],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="D11" s="23">
-        <f>SUMIFS(ExpMar[金额],ExpMar[类别],支出摘要[学科])</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="23">
-        <f>SUMIFS(ExpApr[金额],ExpApr[类别],支出摘要[学科])</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="23">
-        <f>SUMIFS(ExpMay[金额],ExpMay[类别],支出摘要[学科])</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="23">
+      <c r="F11" s="20">
+        <f>SUMIFS(G20210407[成绩],G20210407[学科],支出摘要[学科])</f>
+        <v>51</v>
+      </c>
+      <c r="G11" s="20">
         <f>SUMIFS(ExpJun[金额],ExpJun[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="20">
         <f>SUMIFS(ExpJul[金额],ExpJul[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="20">
         <f>SUMIFS(ExpAug[金额],ExpAug[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="20">
         <f>SUMIFS(ExpSep[金额],ExpSep[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="K11" s="23">
+      <c r="K11" s="20">
         <f>SUMIFS(ExpOct[金额],ExpOct[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="L11" s="23">
+      <c r="L11" s="20">
         <f>SUMIFS(ExpNov[金额],ExpNov[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="M11" s="23" t="e">
+      <c r="M11" s="20" t="e">
         <f>SUMIFS(exp,#REF!,支出摘要[学科])</f>
         <v>#NAME?</v>
       </c>
-      <c r="N11" s="23" t="e">
+      <c r="N11" s="20" t="e">
         <f>SUM(支出摘要[[#This Row],[20201009考试]:[12 月]])</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="23">
+    <row r="12" spans="1:15" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="20">
         <f>SUMIFS(G20201009[成绩],G20201009[学科],支出摘要[学科])</f>
         <v>69</v>
       </c>
-      <c r="C12" s="23">
-        <f>SUMIFS(G20201209[金额],G20201209[类别],支出摘要[学科])</f>
+      <c r="C12" s="20">
+        <f>SUMIFS(G20201122[成绩],G20201122[学科],支出摘要[学科])</f>
+        <v>63</v>
+      </c>
+      <c r="D12" s="20">
+        <f>SUMIFS(G20201226[成绩],G20201226[学科],支出摘要[学科])</f>
+        <v>72</v>
+      </c>
+      <c r="E12" s="20">
+        <f>SUMIFS(G20210201[成绩],G20210201[学科],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="D12" s="23">
-        <f>SUMIFS(ExpMar[金额],ExpMar[类别],支出摘要[学科])</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="23">
-        <f>SUMIFS(ExpApr[金额],ExpApr[类别],支出摘要[学科])</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="23">
-        <f>SUMIFS(ExpMay[金额],ExpMay[类别],支出摘要[学科])</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="23">
+      <c r="F12" s="20">
+        <f>SUMIFS(G20210407[成绩],G20210407[学科],支出摘要[学科])</f>
+        <v>78</v>
+      </c>
+      <c r="G12" s="20">
         <f>SUMIFS(ExpJun[金额],ExpJun[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="20">
         <f>SUMIFS(ExpJul[金额],ExpJul[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="20">
         <f>SUMIFS(ExpAug[金额],ExpAug[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="20">
         <f>SUMIFS(ExpSep[金额],ExpSep[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="K12" s="23">
+      <c r="K12" s="20">
         <f>SUMIFS(ExpOct[金额],ExpOct[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="L12" s="23">
+      <c r="L12" s="20">
         <f>SUMIFS(ExpNov[金额],ExpNov[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="M12" s="23" t="e">
+      <c r="M12" s="20" t="e">
         <f>SUMIFS(exp,#REF!,支出摘要[学科])</f>
         <v>#NAME?</v>
       </c>
-      <c r="N12" s="23" t="e">
+      <c r="N12" s="20" t="e">
         <f>SUM(支出摘要[[#This Row],[20201009考试]:[12 月]])</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13" s="23">
+    <row r="13" spans="1:15" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="20">
         <f>SUMIFS(G20201009[成绩],G20201009[学科],支出摘要[学科])</f>
         <v>83</v>
       </c>
-      <c r="C13" s="23">
-        <f>SUMIFS(G20201209[金额],G20201209[类别],支出摘要[学科])</f>
+      <c r="C13" s="20">
+        <f>SUMIFS(G20201122[成绩],G20201122[学科],支出摘要[学科])</f>
+        <v>68</v>
+      </c>
+      <c r="D13" s="20">
+        <f>SUMIFS(G20201226[成绩],G20201226[学科],支出摘要[学科])</f>
+        <v>82</v>
+      </c>
+      <c r="E13" s="20">
+        <f>SUMIFS(G20210201[成绩],G20210201[学科],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="D13" s="23">
-        <f>SUMIFS(ExpMar[金额],ExpMar[类别],支出摘要[学科])</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="23">
-        <f>SUMIFS(ExpApr[金额],ExpApr[类别],支出摘要[学科])</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="23">
-        <f>SUMIFS(ExpMay[金额],ExpMay[类别],支出摘要[学科])</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="23">
+      <c r="F13" s="20">
+        <f>SUMIFS(G20210407[成绩],G20210407[学科],支出摘要[学科])</f>
+        <v>76</v>
+      </c>
+      <c r="G13" s="20">
         <f>SUMIFS(ExpJun[金额],ExpJun[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="20">
         <f>SUMIFS(ExpJul[金额],ExpJul[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="20">
         <f>SUMIFS(ExpAug[金额],ExpAug[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J13" s="20">
         <f>SUMIFS(ExpSep[金额],ExpSep[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="K13" s="23">
+      <c r="K13" s="20">
         <f>SUMIFS(ExpOct[金额],ExpOct[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="L13" s="23">
+      <c r="L13" s="20">
         <f>SUMIFS(ExpNov[金额],ExpNov[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="M13" s="23" t="e">
+      <c r="M13" s="20" t="e">
         <f>SUMIFS(exp,#REF!,支出摘要[学科])</f>
         <v>#NAME?</v>
       </c>
-      <c r="N13" s="23" t="e">
+      <c r="N13" s="20" t="e">
         <f>SUM(支出摘要[[#This Row],[20201009考试]:[12 月]])</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="25">
+    <row r="14" spans="1:15" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="22">
         <f>SUBTOTAL(109,支出摘要[20201009考试])</f>
         <v>726.5</v>
       </c>
-      <c r="C14" s="25">
-        <f>SUBTOTAL(109,支出摘要[2 月])</f>
+      <c r="C14" s="22">
+        <f>SUBTOTAL(109,支出摘要[20201122考试])</f>
+        <v>643</v>
+      </c>
+      <c r="D14" s="22">
+        <f>SUBTOTAL(109,支出摘要[20201226考试])</f>
+        <v>671</v>
+      </c>
+      <c r="E14" s="22">
+        <f>SUBTOTAL(109,支出摘要[20210201考试])</f>
         <v>0</v>
       </c>
-      <c r="D14" s="25">
-        <f>SUBTOTAL(109,支出摘要[3 月])</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="25">
-        <f>SUBTOTAL(109,支出摘要[4 月])</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="25">
-        <f>SUBTOTAL(109,支出摘要[5 月])</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="25">
+      <c r="F14" s="22">
+        <f>SUBTOTAL(109,支出摘要[20210407考试])</f>
+        <v>696.5</v>
+      </c>
+      <c r="G14" s="22">
         <f>SUBTOTAL(109,支出摘要[6 月])</f>
         <v>0</v>
       </c>
-      <c r="H14" s="25">
+      <c r="H14" s="22">
         <f>SUBTOTAL(109,支出摘要[7 月])</f>
         <v>0</v>
       </c>
-      <c r="I14" s="25">
+      <c r="I14" s="22">
         <f>SUBTOTAL(109,支出摘要[8 月])</f>
         <v>0</v>
       </c>
-      <c r="J14" s="25">
+      <c r="J14" s="22">
         <f>SUBTOTAL(109,支出摘要[9 月])</f>
         <v>0</v>
       </c>
-      <c r="K14" s="25">
+      <c r="K14" s="22">
         <f>SUBTOTAL(109,支出摘要[10 月])</f>
         <v>0</v>
       </c>
-      <c r="L14" s="25">
+      <c r="L14" s="22">
         <f>SUBTOTAL(109,支出摘要[11 月])</f>
         <v>0</v>
       </c>
-      <c r="M14" s="25" t="e">
+      <c r="M14" s="22" t="e">
         <f>SUBTOTAL(109,支出摘要[12 月])</f>
         <v>#NAME?</v>
       </c>
-      <c r="N14" s="25" t="e">
+      <c r="N14" s="22" t="e">
         <f>SUBTOTAL(109,支出摘要[总计])</f>
         <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
-  <dataConsolidate/>
+  <dataConsolidate link="1"/>
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="24">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="记录宁在黄中成绩" sqref="A1" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
@@ -7672,10 +7393,8 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="B2" location="'20201009考试'!A1" tooltip="选择以导航到20201009考试" display="20201009考试" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="C2" location="'2 月'!A1" tooltip="选择以导航到 2 月" display="2 月" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="D2" location="'3 月'!A1" tooltip="选择以导航到 3 月" display="3 月" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="E2" location="'4 月'!A1" tooltip="选择以导航到 4 月" display="4 月" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="F2" location="'5 月'!A1" tooltip="选择以导航到 5 月" display="5 月" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="C2" location="'20201122考试'!Print_Titles" tooltip="选择以导航到 2 月" display="20201122考试" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="D2" location="'20201226考试'!Print_Titles" tooltip="选择以导航到 3 月" display="20201226考试" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
     <hyperlink ref="G2" location="'6 月'!A1" tooltip="选择以导航到 6 月" display="6 月" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
     <hyperlink ref="H2" location="'7 月'!A1" tooltip="选择以导航到 7 月" display="7 月" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
     <hyperlink ref="I2" location="'8 月'!A1" tooltip="选择以导航到 8 月" display="8 月" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
@@ -7684,6 +7403,7 @@
     <hyperlink ref="L2" location="'11 月'!A1" tooltip="选择以导航到 11 月" display="11 月" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
     <hyperlink ref="N2" location="提示!A1" tooltip="选择以导航到提示" display="提示" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
     <hyperlink ref="M2" location="'12 月'!A1" tooltip="选择以导航到 12 月" display="12 月" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="E2" location="'20210201考试'!Print_Titles" display="20210201考试" xr:uid="{95D51674-34B5-4796-85DA-6653F63C320C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7776,8 +7496,8 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7791,137 +7511,137 @@
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A1" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="19"/>
+        <v>74</v>
+      </c>
+      <c r="B1" s="30"/>
       <c r="C1" s="12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="19"/>
-    </row>
-    <row r="2" spans="1:5" s="21" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="30"/>
+    </row>
+    <row r="2" spans="1:5" s="18" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="20">
+        <v>101</v>
+      </c>
+      <c r="C3" s="19">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="20">
+        <v>98</v>
+      </c>
+      <c r="C4" s="19">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="20">
+        <v>95.5</v>
+      </c>
+      <c r="C5" s="19">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="20">
+        <v>70</v>
+      </c>
+      <c r="C6" s="19">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="20">
+        <v>78</v>
+      </c>
+      <c r="C7" s="19">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="20">
+        <v>64</v>
+      </c>
+      <c r="C8" s="19">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="20">
+        <v>68</v>
+      </c>
+      <c r="C9" s="19">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="20">
+        <v>69</v>
+      </c>
+      <c r="C10" s="19">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="20">
         <v>83</v>
       </c>
-      <c r="C2" s="26" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="23">
-        <v>101</v>
-      </c>
-      <c r="C3" s="22">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="23">
-        <v>98</v>
-      </c>
-      <c r="C4" s="22">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="23">
-        <v>95.5</v>
-      </c>
-      <c r="C5" s="22">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="23">
-        <v>70</v>
-      </c>
-      <c r="C6" s="22">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="23">
-        <v>78</v>
-      </c>
-      <c r="C7" s="22">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="23">
-        <v>64</v>
-      </c>
-      <c r="C8" s="22">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="23">
-        <v>68</v>
-      </c>
-      <c r="C9" s="22">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="23">
-        <v>69</v>
-      </c>
-      <c r="C10" s="22">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="23">
-        <v>83</v>
-      </c>
-      <c r="C11" s="22">
+      <c r="C11" s="19">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="27">
+    <row r="12" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="24">
         <f>SUBTOTAL(109,G20201009[成绩])</f>
         <v>726.5</v>
       </c>
-      <c r="C12" s="21" t="s">
-        <v>87</v>
+      <c r="C12" s="18" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -7964,167 +7684,156 @@
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="15.5546875" style="1" customWidth="1"/>
-    <col min="4" max="5" width="30.5546875" style="1" customWidth="1"/>
+    <col min="1" max="2" width="15.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="11" t="s">
+      <c r="A1" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="13">
-        <f ca="1">DATE(YEAR(TODAY()),2,3)</f>
-        <v>43864</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="17">
-        <v>33</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13">
-        <f ca="1">DATE(YEAR(TODAY()),2,4)</f>
-        <v>43865</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="17">
-        <v>238</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="17">
-        <v>342</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="17">
-        <v>110</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="13"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="17">
-        <v>84</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="17">
+      <c r="D1" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="30"/>
+    </row>
+    <row r="2" spans="1:5" s="18" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="15">
-        <f>SUBTOTAL(109,G20201209[金额])</f>
-        <v>861</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
+      <c r="B3" s="20">
+        <v>85</v>
+      </c>
+      <c r="C3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="20">
+        <v>90</v>
+      </c>
+      <c r="C4" s="19"/>
+    </row>
+    <row r="5" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="20">
+        <v>91</v>
+      </c>
+      <c r="C5" s="19"/>
+    </row>
+    <row r="6" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="20">
+        <v>64</v>
+      </c>
+      <c r="C6" s="19"/>
+    </row>
+    <row r="7" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="20">
+        <v>64</v>
+      </c>
+      <c r="C7" s="19"/>
+    </row>
+    <row r="8" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="20">
+        <v>65</v>
+      </c>
+      <c r="C8" s="19"/>
+    </row>
+    <row r="9" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="20">
+        <v>53</v>
+      </c>
+      <c r="C9" s="19"/>
+    </row>
+    <row r="10" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="20">
+        <v>63</v>
+      </c>
+      <c r="C10" s="19"/>
+    </row>
+    <row r="11" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="20">
+        <v>68</v>
+      </c>
+      <c r="C11" s="19"/>
+    </row>
+    <row r="12" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="24">
+        <f>SUBTOTAL(109,G20201122[成绩])</f>
+        <v>643</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <dataValidations count="11">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="应从下拉列表中选择开支，以便“摘要”工作表中包含该开支" sqref="D3:D8" xr:uid="{00000000-0002-0000-0300-000000000000}">
+  <dataValidations count="7">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="应从下拉列表中选择开支，以便“摘要”工作表中包含该开支" sqref="A3:A11" xr:uid="{8BE7B733-6D6C-4A7C-A3B3-CFFD085B82C6}">
       <formula1>ExpenseCategories</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="此工作表中的表上列出了详细开支的大纲。单元格 D1 和 E1 中分别是“摘要”工作表和“提示”工作表的导航超链接" sqref="A1:C1" xr:uid="{00000000-0002-0000-0300-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="“摘要”工作表的导航超链接" sqref="D1" xr:uid="{00000000-0002-0000-0300-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="“提示”工作表的导航超链接" sqref="E1" xr:uid="{00000000-0002-0000-0300-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此列中输入支出日期" sqref="A2" xr:uid="{00000000-0002-0000-0300-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此列中输入 PO#" sqref="B2" xr:uid="{00000000-0002-0000-0300-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此列中输入支出金额" sqref="C2" xr:uid="{00000000-0002-0000-0300-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="由“摘要”工作表中“支出摘要”表的“支出”列自动填充的支出类别列表。按 Alt+向下键可浏览列表。按 Enter 可选择类别" sqref="D2" xr:uid="{00000000-0002-0000-0300-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此列中输入支出描述" sqref="E2" xr:uid="{00000000-0002-0000-0300-000008000000}"/>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="金额验证" error="金额应为数字。" sqref="C3:C8" xr:uid="{00000000-0002-0000-0300-000009000000}">
-      <formula1>ISNUMBER($C3)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="需输入 2 月的日期，以便将此支出添加到“摘要”表" sqref="A3:A8" xr:uid="{00000000-0002-0000-0300-00000A000000}">
-      <formula1>MONTH($A3)=2</formula1>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="“摘要”工作表的导航超链接" sqref="C1" xr:uid="{D8CAE513-AFDC-4760-A0B4-6A220F9269A5}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="此工作表中的表上列出了详细成绩的大纲。单元格 D1 是“摘要”工作表工作表的导航超链接" sqref="A1:B1 D1:E1" xr:uid="{C3807E64-D13D-4F28-AAC1-FE095B5DBCAD}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此列中输入名次" sqref="C2" xr:uid="{B02B38DE-1548-406A-97D4-4777FCBF8A9B}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="由“摘要”工作表中“摘要”表的“学科”列自动填充的学科类别列表。按 Alt+向下键可浏览列表。按 Enter 可选择类别" sqref="A2" xr:uid="{D6918EB7-4F76-44F3-9673-0B86D7489557}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此列中输入成绩" sqref="B2" xr:uid="{7957D2C4-7C46-4148-B8BE-0EE40AAAD21E}"/>
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="金额验证" error="金额应为数字。" sqref="B3:B11" xr:uid="{35EAAA2B-AB94-4B7A-B5CA-4C54BDBEE829}">
+      <formula1>ISNUMBER($B3)</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D1" location="摘要!A1" tooltip="选择以查看摘要" display="摘要" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="E1" location="提示!A1" tooltip="选择以导航到“提示”工作表" display="提示" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="C1" location="摘要!A1" tooltip="选择以查看摘要" display="摘要" xr:uid="{434E9734-EB3E-4D7B-9D1F-8B8EF00F058E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8144,10 +7853,10 @@
     <tabColor theme="4" tint="0.39997558519241921"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8159,152 +7868,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="11" t="s">
+      <c r="A1" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>32</v>
-      </c>
+      <c r="D1" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="30"/>
+    </row>
+    <row r="2" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="13">
-        <f ca="1">DATE(YEAR(TODAY()),3,5)</f>
-        <v>43895</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="17">
-        <v>33</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>33</v>
-      </c>
+      <c r="A3" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="20">
+        <v>102</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13">
-        <f ca="1">DATE(YEAR(TODAY()),3,6)</f>
-        <v>43896</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="17">
-        <v>238</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="9"/>
+      <c r="A4" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="20">
+        <v>89</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="17">
-        <v>55</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="9"/>
+      <c r="A5" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="20">
+        <v>91</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="17">
-        <v>110</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="9"/>
+      <c r="A6" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="20">
+        <v>69</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="13"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="17">
-        <v>84</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="9"/>
+      <c r="A7" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="20">
+        <v>56</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="17">
-        <v>54</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="9"/>
+      <c r="A8" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="20">
+        <v>57</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="15">
-        <f>SUBTOTAL(109,ExpMar[金额])</f>
-        <v>574</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
+      <c r="A9" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="20">
+        <v>53</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+    </row>
+    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="20">
+        <v>72</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+    </row>
+    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="20">
+        <v>82</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+    </row>
+    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="24">
+        <f>SUBTOTAL(109,G20201226[成绩])</f>
+        <v>671</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <dataValidations count="11">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="应从下拉列表中选择开支，以便“摘要”工作表中包含该开支" sqref="D3:D8" xr:uid="{00000000-0002-0000-0400-000000000000}">
+  <dataValidations count="7">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="应从下拉列表中选择开支，以便“摘要”工作表中包含该开支" sqref="A3:A11" xr:uid="{E28D980A-9328-43CF-81FA-435E2C94F23E}">
       <formula1>ExpenseCategories</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="此工作表中的表上列出了详细开支的大纲。单元格 D1 和 E1 中分别是“摘要”工作表和“提示”工作表的导航超链接" sqref="A1:C1" xr:uid="{00000000-0002-0000-0400-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="“摘要”工作表的导航超链接" sqref="D1" xr:uid="{00000000-0002-0000-0400-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="“提示”工作表的导航超链接" sqref="E1" xr:uid="{00000000-0002-0000-0400-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此列中输入支出日期" sqref="A2" xr:uid="{00000000-0002-0000-0400-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此列中输入 PO#" sqref="B2" xr:uid="{00000000-0002-0000-0400-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此列中输入支出金额" sqref="C2" xr:uid="{00000000-0002-0000-0400-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="由“摘要”工作表中“支出摘要”表的“支出”列自动填充的支出类别列表。按 Alt+向下键可浏览列表。按 Enter 可选择类别" sqref="D2" xr:uid="{00000000-0002-0000-0400-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此列中输入支出描述" sqref="E2" xr:uid="{00000000-0002-0000-0400-000008000000}"/>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="金额验证" error="金额应为数字。" sqref="C3:C8" xr:uid="{00000000-0002-0000-0400-000009000000}">
-      <formula1>ISNUMBER($C3)</formula1>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="“摘要”工作表的导航超链接" sqref="C1" xr:uid="{2A59E22E-D865-4DD8-8EF2-815DA1AC0376}"/>
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="金额验证" error="金额应为数字。" sqref="B3:B11" xr:uid="{A507F60F-CEBC-4C3D-8EB1-70A0BD4D8B85}">
+      <formula1>ISNUMBER($B3)</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="需输入 3 月的日期，以便将此支出添加到“摘要”表" sqref="A3:A8" xr:uid="{00000000-0002-0000-0400-00000A000000}">
-      <formula1>MONTH($A3)=3</formula1>
-    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此列中输入成绩" sqref="B2" xr:uid="{D11EC2B9-6D14-4A4C-A575-D8CE01479876}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="由“摘要”工作表中“摘要”表的“学科”列自动填充的学科类别列表。按 Alt+向下键可浏览列表。按 Enter 可选择类别" sqref="A2" xr:uid="{2DC43841-AD39-47FD-AE89-6BFDDC92F2C7}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此列中输入名次" sqref="C2" xr:uid="{4A056C93-3C3F-437A-9ED5-FBEA1FFFAB67}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="此工作表中的表上列出了详细成绩的大纲。单元格 D1 是“摘要”工作表工作表的导航超链接" sqref="A1:B1 D1:E1" xr:uid="{8B3B45BC-3DE1-42F8-AE7D-8AD33A25691A}"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D1" location="摘要!A1" tooltip="选择以查看摘要" display="摘要" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="E1" location="提示!A1" tooltip="选择以导航到“提示”工作表" display="提示" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="C1" location="摘要!A1" tooltip="选择以查看摘要" display="摘要" xr:uid="{5D16A6DB-1EE4-4114-B7E8-A32B7D7C9058}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8324,10 +8044,10 @@
     <tabColor theme="4" tint="0.59999389629810485"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8339,152 +8059,159 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="11" t="s">
+      <c r="A1" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>32</v>
-      </c>
+      <c r="D1" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="28"/>
+    </row>
+    <row r="2" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="13">
-        <f ca="1">DATE(YEAR(TODAY()),4,4)</f>
-        <v>43925</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="17">
-        <v>45</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>33</v>
-      </c>
+      <c r="A3" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="20">
+        <v>0</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13">
-        <f ca="1">DATE(YEAR(TODAY()),4,8)</f>
-        <v>43929</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="17">
-        <v>123</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="9"/>
+      <c r="A4" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="20">
+        <v>0</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="17">
-        <v>342</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="9"/>
+      <c r="A5" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="20">
+        <v>0</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="17">
-        <v>125</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="9"/>
+      <c r="A6" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="20">
+        <v>0</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="13"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="17">
-        <v>84</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="9"/>
+      <c r="A7" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="20">
+        <v>0</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="17">
-        <v>98</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="9"/>
+      <c r="A8" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="20">
+        <v>0</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="15">
-        <f>SUBTOTAL(109,ExpApr[金额])</f>
-        <v>817</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
+      <c r="A9" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="20">
+        <v>0</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+    </row>
+    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="20">
+        <v>0</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+    </row>
+    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="20">
+        <v>0</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+    </row>
+    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="24">
+        <f>SUBTOTAL(109,G20210201[成绩])</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <dataValidations count="11">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="应从下拉列表中选择开支，以便“摘要”工作表中包含该开支" sqref="D3:D8" xr:uid="{00000000-0002-0000-0500-000000000000}">
+  <dataValidations count="7">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="应从下拉列表中选择开支，以便“摘要”工作表中包含该开支" sqref="A3:A11" xr:uid="{D6146EEF-6C85-427A-80B8-1398642BCB76}">
       <formula1>ExpenseCategories</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="此工作表中的表上列出了详细开支的大纲。单元格 D1 和 E1 中分别是“摘要”工作表和“提示”工作表的导航超链接" sqref="A1:C1" xr:uid="{00000000-0002-0000-0500-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="“摘要”工作表的导航超链接" sqref="D1" xr:uid="{00000000-0002-0000-0500-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="“提示”工作表的导航超链接" sqref="E1" xr:uid="{00000000-0002-0000-0500-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此列中输入支出日期" sqref="A2" xr:uid="{00000000-0002-0000-0500-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此列中输入 PO#" sqref="B2" xr:uid="{00000000-0002-0000-0500-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此列中输入支出金额" sqref="C2" xr:uid="{00000000-0002-0000-0500-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="由“摘要”工作表中“支出摘要”表的“支出”列自动填充的支出类别列表。按 Alt+向下键可浏览列表。按 Enter 可选择类别" sqref="D2" xr:uid="{00000000-0002-0000-0500-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此列中输入支出描述" sqref="E2" xr:uid="{00000000-0002-0000-0500-000008000000}"/>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="金额验证" error="金额应为数字。" sqref="C3:C8" xr:uid="{00000000-0002-0000-0500-000009000000}">
-      <formula1>ISNUMBER($C3)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="需输入 4 月的日期，以便将此支出添加到“摘要”表" sqref="A3:A8" xr:uid="{00000000-0002-0000-0500-00000A000000}">
-      <formula1>MONTH($A3)=4</formula1>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="“摘要”工作表的导航超链接" sqref="C1" xr:uid="{BFF4A32F-A2ED-4655-BB12-98BFF72AFAB7}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="此工作表中的表上列出了详细成绩的大纲。单元格 D1 是“摘要”工作表工作表的导航超链接" sqref="A1:B1 D1:E1" xr:uid="{C5EADCF6-9B4C-4FFF-AB3C-F39FAA877E2F}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此列中输入名次" sqref="C2" xr:uid="{6B3ECD6F-121F-424E-8FDC-43F764266474}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="由“摘要”工作表中“摘要”表的“学科”列自动填充的学科类别列表。按 Alt+向下键可浏览列表。按 Enter 可选择类别" sqref="A2" xr:uid="{C21964F8-473E-4844-BEC4-CA727897987A}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此列中输入成绩" sqref="B2" xr:uid="{51F95536-1BB1-4DBF-A79D-45CD160C8E1A}"/>
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="金额验证" error="金额应为数字。" sqref="B3:B11" xr:uid="{EE2FB801-1788-42EE-B814-87422DB217F6}">
+      <formula1>ISNUMBER($B3)</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D1" location="摘要!A1" tooltip="选择以查看摘要" display="摘要" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="E1" location="提示!A1" tooltip="选择以导航到“提示”工作表" display="提示" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="C1" location="摘要!A1" tooltip="选择以查看摘要" display="摘要" xr:uid="{61C9B14A-C15F-433C-9FE5-87F12532CB1E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8504,167 +8231,174 @@
     <tabColor theme="4" tint="0.79998168889431442"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="42.5546875" style="1" customWidth="1"/>
     <col min="2" max="3" width="15.5546875" style="1" customWidth="1"/>
     <col min="4" max="5" width="30.5546875" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="11" t="s">
+      <c r="A1" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>32</v>
-      </c>
+      <c r="D1" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="28"/>
+    </row>
+    <row r="2" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="13">
-        <f ca="1">DATE(YEAR(TODAY()),5,3)</f>
-        <v>43954</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="17">
-        <v>33</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>33</v>
-      </c>
+      <c r="A3" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="20">
+        <v>90</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13">
-        <f ca="1">DATE(YEAR(TODAY()),5,8)</f>
-        <v>43959</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="17">
-        <v>111</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="9"/>
+      <c r="A4" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="20">
+        <v>108</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="17">
-        <v>342</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="9"/>
+      <c r="A5" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="20">
+        <v>76.5</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="17">
-        <v>333</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="9"/>
+      <c r="A6" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="20">
+        <v>78</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="13"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="17">
-        <v>125</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="9"/>
+      <c r="A7" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="20">
+        <v>70</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="17">
-        <v>33</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="9"/>
+      <c r="A8" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="20">
+        <v>69</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15">
-        <f>SUBTOTAL(109,ExpMay[金额])</f>
-        <v>977</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="10"/>
+      <c r="A9" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="20">
+        <v>51</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+    </row>
+    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="20">
+        <v>78</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+    </row>
+    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="20">
+        <v>76</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+    </row>
+    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="24">
+        <f>SUBTOTAL(109,G20210407[成绩])</f>
+        <v>696.5</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <dataValidations count="11">
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="金额验证" error="金额应为数字。" sqref="C3:C8" xr:uid="{00000000-0002-0000-0600-000000000000}">
-      <formula1>ISNUMBER($C3)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="需输入 5 月的日期，以便将此支出添加到“摘要”表" sqref="A3:A8" xr:uid="{00000000-0002-0000-0600-000001000000}">
-      <formula1>MONTH($A3)=5</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="应从下拉列表中选择开支，以便“摘要”工作表中包含该开支" sqref="D3:D8" xr:uid="{00000000-0002-0000-0600-000002000000}">
+  <dataValidations count="7">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="应从下拉列表中选择开支，以便“摘要”工作表中包含该开支" sqref="A3:A11" xr:uid="{F57BACAE-CE8C-4722-A99C-623F2DF8EECA}">
       <formula1>ExpenseCategories</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="此工作表中的表上列出了详细开支的大纲。单元格 D1 和 E1 中分别是“摘要”工作表和“提示”工作表的导航超链接" sqref="A1:C1" xr:uid="{00000000-0002-0000-0600-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="“摘要”工作表的导航超链接" sqref="D1" xr:uid="{00000000-0002-0000-0600-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="“提示”工作表的导航超链接" sqref="E1" xr:uid="{00000000-0002-0000-0600-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此列中输入支出日期" sqref="A2" xr:uid="{00000000-0002-0000-0600-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此列中输入 PO#" sqref="B2" xr:uid="{00000000-0002-0000-0600-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此列中输入支出金额" sqref="C2" xr:uid="{00000000-0002-0000-0600-000008000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="由“摘要”工作表中“支出摘要”表的“支出”列自动填充的支出类别列表。按 Alt+向下键可浏览列表。按 Enter 可选择类别" sqref="D2" xr:uid="{00000000-0002-0000-0600-000009000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此列中输入支出描述" sqref="E2" xr:uid="{00000000-0002-0000-0600-00000A000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="“摘要”工作表的导航超链接" sqref="C1" xr:uid="{AFF4CA92-0DD0-4F3C-92A2-3A69780357B1}"/>
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="金额验证" error="金额应为数字。" sqref="B3:B11" xr:uid="{506209B6-6656-43D1-92EC-23A071CFBECC}">
+      <formula1>ISNUMBER($B3)</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此列中输入成绩" sqref="B2" xr:uid="{74BAA196-79EE-4332-9D9E-1B780CD39434}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="由“摘要”工作表中“摘要”表的“学科”列自动填充的学科类别列表。按 Alt+向下键可浏览列表。按 Enter 可选择类别" sqref="A2" xr:uid="{7AB9E411-3BD1-467F-8AC3-81B86D7DC35F}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此列中输入名次" sqref="C2" xr:uid="{E64F2421-B52A-4B18-BAB8-4D7C2D108D4B}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="此工作表中的表上列出了详细成绩的大纲。单元格 D1 是“摘要”工作表工作表的导航超链接" sqref="A1:B1 D1:E1" xr:uid="{9F0ED8D1-4482-48D7-84A8-7876FDDC6C6A}"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D1" location="摘要!A1" tooltip="选择以查看摘要" display="摘要" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="E1" location="提示!A1" tooltip="选择以导航到“提示”工作表" display="提示" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="C1" location="摘要!A1" tooltip="选择以查看摘要" display="摘要" xr:uid="{C5807D0F-C42F-42B1-8C80-412BE91642BB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8699,62 +8433,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
+      <c r="A1" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="30"/>
       <c r="D1" s="12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>29</v>
-      </c>
       <c r="D2" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <f ca="1">DATE(YEAR(TODAY()),6,7)</f>
-        <v>43989</v>
+        <v>44354</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="17">
+        <v>23</v>
+      </c>
+      <c r="C3" s="16">
         <v>201</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
         <f ca="1">DATE(YEAR(TODAY()),6,8)</f>
-        <v>43990</v>
+        <v>44355</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="17">
+        <v>24</v>
+      </c>
+      <c r="C4" s="16">
         <v>98</v>
       </c>
       <c r="D4" s="9" t="s">
@@ -8765,7 +8499,7 @@
     <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13"/>
       <c r="B5" s="9"/>
-      <c r="C5" s="17">
+      <c r="C5" s="16">
         <v>342</v>
       </c>
       <c r="D5" s="9" t="s">
@@ -8776,7 +8510,7 @@
     <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13"/>
       <c r="B6" s="9"/>
-      <c r="C6" s="17">
+      <c r="C6" s="16">
         <v>122</v>
       </c>
       <c r="D6" s="9" t="s">
@@ -8787,7 +8521,7 @@
     <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13"/>
       <c r="B7" s="9"/>
-      <c r="C7" s="17">
+      <c r="C7" s="16">
         <v>187</v>
       </c>
       <c r="D7" s="9" t="s">
@@ -8798,7 +8532,7 @@
     <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13"/>
       <c r="B8" s="9"/>
-      <c r="C8" s="17">
+      <c r="C8" s="16">
         <v>99</v>
       </c>
       <c r="D8" s="9" t="s">
@@ -8808,7 +8542,7 @@
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="15">
@@ -8879,60 +8613,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
+      <c r="A1" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="30"/>
       <c r="D1" s="12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="D2" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <f ca="1">DATE(YEAR(TODAY()),7,9)</f>
-        <v>44021</v>
+        <v>44386</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="17"/>
+        <v>23</v>
+      </c>
+      <c r="C3" s="16"/>
       <c r="D3" s="9" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
         <f ca="1">DATE(YEAR(TODAY()),7,14)</f>
-        <v>44026</v>
+        <v>44391</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="17"/>
+        <v>24</v>
+      </c>
+      <c r="C4" s="16"/>
       <c r="D4" s="9" t="s">
         <v>7</v>
       </c>
@@ -8941,7 +8675,7 @@
     <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13"/>
       <c r="B5" s="9"/>
-      <c r="C5" s="17"/>
+      <c r="C5" s="16"/>
       <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
@@ -8950,7 +8684,7 @@
     <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13"/>
       <c r="B6" s="9"/>
-      <c r="C6" s="17"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="9" t="s">
         <v>8</v>
       </c>
@@ -8959,7 +8693,7 @@
     <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13"/>
       <c r="B7" s="9"/>
-      <c r="C7" s="17"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="9" t="s">
         <v>9</v>
       </c>
@@ -8968,7 +8702,7 @@
     <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13"/>
       <c r="B8" s="9"/>
-      <c r="C8" s="17"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="9" t="s">
         <v>10</v>
       </c>
@@ -8976,7 +8710,7 @@
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="15">

--- a/胡宁黄岩中学成绩记录表.xlsx
+++ b/胡宁黄岩中学成绩记录表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SVN相关\Zhejiang-Huangyan-Middle-School\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CD317A-26BF-4A75-A203-B16B7CE778D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DE8E56-D75F-4614-B9E2-1167DD43E8A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="784" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="784" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="提示" sheetId="16" r:id="rId1"/>
@@ -854,7 +854,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="5" applyFont="1">
@@ -935,6 +935,18 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
@@ -954,6 +966,42 @@
   <dxfs count="164">
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -974,6 +1022,18 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -995,6 +1055,19 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1015,6 +1088,20 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1027,6 +1114,1260 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="none"/>
@@ -1035,6 +2376,18 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1056,6 +2409,19 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1082,6 +2448,109 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
@@ -1106,6 +2575,360 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1142,6 +2965,19 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1175,6 +3011,19 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1208,6 +3057,19 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1241,6 +3103,19 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1274,6 +3149,19 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1307,6 +3195,19 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1340,6 +3241,19 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1373,6 +3287,19 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1406,6 +3333,19 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1439,6 +3379,19 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1472,6 +3425,19 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1505,6 +3471,19 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1538,6 +3517,19 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1567,1986 +3559,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -5384,47 +5396,47 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="支出摘要" displayName="支出摘要" ref="A4:O14" totalsRowCount="1" headerRowDxfId="155" dataDxfId="154" totalsRowDxfId="153">
   <autoFilter ref="A4:O13" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="学科" totalsRowLabel="汇总" dataDxfId="41" totalsRowDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="20201009考试" totalsRowFunction="sum" dataDxfId="40" totalsRowDxfId="20">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="学科" totalsRowLabel="汇总" dataDxfId="152" totalsRowDxfId="151"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="20201009考试" totalsRowFunction="sum" dataDxfId="150" totalsRowDxfId="149">
       <calculatedColumnFormula>SUMIFS(G20201009[成绩],G20201009[学科],支出摘要[学科])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="20201122考试" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="19">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="20201122考试" totalsRowFunction="sum" dataDxfId="148" totalsRowDxfId="147">
       <calculatedColumnFormula>SUMIFS(G20201122[成绩],G20201122[学科],支出摘要[学科])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="20201226考试" totalsRowFunction="sum" dataDxfId="38" totalsRowDxfId="18">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="20201226考试" totalsRowFunction="sum" dataDxfId="146" totalsRowDxfId="145">
       <calculatedColumnFormula>SUMIFS(G20201226[成绩],G20201226[学科],支出摘要[学科])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="20210201考试" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="17">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="20210201考试" totalsRowFunction="sum" dataDxfId="144" totalsRowDxfId="143">
       <calculatedColumnFormula>SUMIFS(G20210201[成绩],G20210201[学科],支出摘要[学科])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="20210407考试" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="16">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="20210407考试" totalsRowFunction="sum" dataDxfId="142" totalsRowDxfId="141">
       <calculatedColumnFormula>SUMIFS(G20210407[成绩],G20210407[学科],支出摘要[学科])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="6 月" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="15">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="6 月" totalsRowFunction="sum" dataDxfId="140" totalsRowDxfId="139">
       <calculatedColumnFormula>SUMIFS(ExpJun[金额],ExpJun[类别],支出摘要[学科])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="7 月" totalsRowFunction="sum" dataDxfId="36" totalsRowDxfId="14">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="7 月" totalsRowFunction="sum" dataDxfId="138" totalsRowDxfId="137">
       <calculatedColumnFormula>SUMIFS(ExpJul[金额],ExpJul[类别],支出摘要[学科])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="8 月" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="13">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="8 月" totalsRowFunction="sum" dataDxfId="136" totalsRowDxfId="135">
       <calculatedColumnFormula>SUMIFS(ExpAug[金额],ExpAug[类别],支出摘要[学科])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="9 月" totalsRowFunction="sum" dataDxfId="34" totalsRowDxfId="12">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="9 月" totalsRowFunction="sum" dataDxfId="134" totalsRowDxfId="133">
       <calculatedColumnFormula>SUMIFS(ExpSep[金额],ExpSep[类别],支出摘要[学科])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="10 月" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="11">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="10 月" totalsRowFunction="sum" dataDxfId="132" totalsRowDxfId="131">
       <calculatedColumnFormula>SUMIFS(ExpOct[金额],ExpOct[类别],支出摘要[学科])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="11 月" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="10">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="11 月" totalsRowFunction="sum" dataDxfId="130" totalsRowDxfId="129">
       <calculatedColumnFormula>SUMIFS(ExpNov[金额],ExpNov[类别],支出摘要[学科])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="12 月" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="9">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="12 月" totalsRowFunction="sum" dataDxfId="128" totalsRowDxfId="127">
       <calculatedColumnFormula>SUMIFS(exp,#REF!,支出摘要[学科])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="总计" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="8">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="总计" totalsRowFunction="sum" dataDxfId="126" totalsRowDxfId="125">
       <calculatedColumnFormula>SUM(支出摘要[[#This Row],[20201009考试]:[12 月]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="趋势" dataDxfId="29" totalsRowDxfId="7"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="趋势" dataDxfId="124" totalsRowDxfId="123"/>
   </tableColumns>
   <tableStyleInfo name="摘要表" showFirstColumn="0" showLastColumn="1" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -5436,14 +5448,14 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="ExpSep" displayName="ExpSep" ref="A2:E9" totalsRowCount="1" headerRowDxfId="86" dataDxfId="85" totalsRowDxfId="84">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="ExpSep" displayName="ExpSep" ref="A2:E9" totalsRowCount="1" headerRowDxfId="47" dataDxfId="46" totalsRowDxfId="45">
   <autoFilter ref="A2:E8" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="日期" totalsRowLabel="汇总" dataDxfId="83" totalsRowDxfId="82"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="PO#" dataDxfId="81" totalsRowDxfId="80"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="金额" totalsRowFunction="sum" dataDxfId="79" totalsRowDxfId="78"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="类别" dataDxfId="77" totalsRowDxfId="76"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="描述" dataDxfId="75" totalsRowDxfId="74"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="日期" totalsRowLabel="汇总" dataDxfId="44" totalsRowDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="PO#" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="金额" totalsRowFunction="sum" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="类别" dataDxfId="38" totalsRowDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="描述" dataDxfId="36" totalsRowDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="摘要表" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -5455,14 +5467,14 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="ExpOct" displayName="ExpOct" ref="A2:E9" totalsRowCount="1" headerRowDxfId="73" dataDxfId="72" totalsRowDxfId="71">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="ExpOct" displayName="ExpOct" ref="A2:E9" totalsRowCount="1" headerRowDxfId="34" dataDxfId="33" totalsRowDxfId="32">
   <autoFilter ref="A2:E8" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="日期" totalsRowLabel="汇总" dataDxfId="70" totalsRowDxfId="69"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="PO#" dataDxfId="68" totalsRowDxfId="67"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="金额" totalsRowFunction="sum" dataDxfId="66" totalsRowDxfId="65"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="类别" dataDxfId="64" totalsRowDxfId="63"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="描述" dataDxfId="62" totalsRowDxfId="61"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="日期" totalsRowLabel="汇总" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="PO#" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="金额" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="类别" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="描述" dataDxfId="23" totalsRowDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="摘要表" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -5474,14 +5486,14 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="ExpNov" displayName="ExpNov" ref="A2:E9" totalsRowCount="1" headerRowDxfId="60" dataDxfId="59" totalsRowDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="ExpNov" displayName="ExpNov" ref="A2:E9" totalsRowCount="1" headerRowDxfId="21" dataDxfId="20" totalsRowDxfId="19">
   <autoFilter ref="A2:E8" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="日期" totalsRowLabel="汇总" dataDxfId="57" totalsRowDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="PO#" dataDxfId="55" totalsRowDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="金额" totalsRowFunction="sum" dataDxfId="53" totalsRowDxfId="52"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="类别" dataDxfId="51" totalsRowDxfId="50"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="描述" dataDxfId="49" totalsRowDxfId="48"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="日期" totalsRowLabel="汇总" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="PO#" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="金额" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="类别" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="描述" dataDxfId="10" totalsRowDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="摘要表" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -5493,12 +5505,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{6D77D3BE-EE13-4138-AFED-C87E0A200D21}" name="G20201009" displayName="G20201009" ref="A2:C12" totalsRowCount="1" headerRowDxfId="152" dataDxfId="151" totalsRowDxfId="150">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{6D77D3BE-EE13-4138-AFED-C87E0A200D21}" name="G20201009" displayName="G20201009" ref="A2:C12" totalsRowCount="1" headerRowDxfId="2" dataDxfId="0" totalsRowDxfId="1">
   <autoFilter ref="A2:C11" xr:uid="{CEC36953-3146-4FFE-BF85-2D17AABEC3C8}"/>
   <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{511B64D7-9BF0-4351-9AB2-561631539142}" name="学科" totalsRowLabel="汇总" dataDxfId="149" totalsRowDxfId="148" dataCellStyle="表格详细信息"/>
-    <tableColumn id="3" xr3:uid="{3140EA8D-08D2-4F4F-A103-5B06A7DDB3AB}" name="成绩" totalsRowFunction="sum" dataDxfId="147" totalsRowDxfId="146"/>
-    <tableColumn id="5" xr3:uid="{FAE8C61F-0FF8-4188-AA7D-5F7A56DFA269}" name="名次" totalsRowLabel="383" dataDxfId="145" totalsRowDxfId="144"/>
+    <tableColumn id="2" xr3:uid="{511B64D7-9BF0-4351-9AB2-561631539142}" name="学科" totalsRowLabel="汇总" dataDxfId="8" totalsRowDxfId="7" dataCellStyle="表格详细信息"/>
+    <tableColumn id="3" xr3:uid="{3140EA8D-08D2-4F4F-A103-5B06A7DDB3AB}" name="成绩" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{FAE8C61F-0FF8-4188-AA7D-5F7A56DFA269}" name="名次" totalsRowLabel="383" dataDxfId="4" totalsRowDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="摘要表" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -5510,12 +5522,12 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29E0DEC8-35CD-49DD-9980-DE0CE93A62F2}" name="G20201122" displayName="G20201122" ref="A2:C12" totalsRowCount="1" headerRowDxfId="143" dataDxfId="142" totalsRowDxfId="141">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29E0DEC8-35CD-49DD-9980-DE0CE93A62F2}" name="G20201122" displayName="G20201122" ref="A2:C12" totalsRowCount="1" headerRowDxfId="122" dataDxfId="121" totalsRowDxfId="120">
   <autoFilter ref="A2:C11" xr:uid="{D23E8BE5-C1ED-4120-85E3-87CD5F873CAD}"/>
   <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{7036831C-7D94-449E-A874-1FF30C6F6559}" name="学科" totalsRowLabel="汇总" dataDxfId="140" totalsRowDxfId="139" dataCellStyle="表格详细信息"/>
-    <tableColumn id="3" xr3:uid="{1F09854C-4986-466D-BAF2-E15A93886BBF}" name="成绩" totalsRowFunction="sum" dataDxfId="138" totalsRowDxfId="137"/>
-    <tableColumn id="5" xr3:uid="{8FC5B33D-CDE6-46C0-9E45-A246909E922C}" name="名次" dataDxfId="136" totalsRowDxfId="135"/>
+    <tableColumn id="2" xr3:uid="{7036831C-7D94-449E-A874-1FF30C6F6559}" name="学科" totalsRowLabel="汇总" dataDxfId="119" totalsRowDxfId="118" dataCellStyle="表格详细信息"/>
+    <tableColumn id="3" xr3:uid="{1F09854C-4986-466D-BAF2-E15A93886BBF}" name="成绩" totalsRowFunction="sum" dataDxfId="117" totalsRowDxfId="116"/>
+    <tableColumn id="5" xr3:uid="{8FC5B33D-CDE6-46C0-9E45-A246909E922C}" name="名次" dataDxfId="115" totalsRowDxfId="114"/>
   </tableColumns>
   <tableStyleInfo name="摘要表" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -5527,12 +5539,12 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F4631236-6710-41B0-A691-59BB1C4D887C}" name="G20201226" displayName="G20201226" ref="A2:C12" totalsRowCount="1" headerRowDxfId="134" dataDxfId="133" totalsRowDxfId="132">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F4631236-6710-41B0-A691-59BB1C4D887C}" name="G20201226" displayName="G20201226" ref="A2:C12" totalsRowCount="1" headerRowDxfId="113" dataDxfId="112" totalsRowDxfId="111">
   <autoFilter ref="A2:C11" xr:uid="{1559AFAA-18D1-493F-8508-E1652BF9C371}"/>
   <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{DAC30ADF-E7C9-4912-81C9-A26775D46A9C}" name="学科" totalsRowLabel="汇总" dataDxfId="131" totalsRowDxfId="130" dataCellStyle="表格详细信息"/>
-    <tableColumn id="3" xr3:uid="{A8BC6C90-6FF2-4EDE-83F3-AA7135812534}" name="成绩" totalsRowFunction="sum" dataDxfId="129" totalsRowDxfId="128"/>
-    <tableColumn id="5" xr3:uid="{73B9B4B3-8FA7-4141-80A8-A7E739B8B97F}" name="名次" dataDxfId="127" totalsRowDxfId="126"/>
+    <tableColumn id="2" xr3:uid="{DAC30ADF-E7C9-4912-81C9-A26775D46A9C}" name="学科" totalsRowLabel="汇总" dataDxfId="110" totalsRowDxfId="109" dataCellStyle="表格详细信息"/>
+    <tableColumn id="3" xr3:uid="{A8BC6C90-6FF2-4EDE-83F3-AA7135812534}" name="成绩" totalsRowFunction="sum" dataDxfId="108" totalsRowDxfId="107"/>
+    <tableColumn id="5" xr3:uid="{73B9B4B3-8FA7-4141-80A8-A7E739B8B97F}" name="名次" dataDxfId="106" totalsRowDxfId="105"/>
   </tableColumns>
   <tableStyleInfo name="摘要表" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -5544,12 +5556,12 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8DDF2ED6-17B6-49E2-A9A2-FB12D117C043}" name="G20210201" displayName="G20210201" ref="A2:C12" totalsRowCount="1" headerRowDxfId="47" dataDxfId="46" totalsRowDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8DDF2ED6-17B6-49E2-A9A2-FB12D117C043}" name="G20210201" displayName="G20210201" ref="A2:C12" totalsRowCount="1" headerRowDxfId="104" dataDxfId="103" totalsRowDxfId="102">
   <autoFilter ref="A2:C11" xr:uid="{5F924DC2-E033-4279-8E3C-853821B4D77D}"/>
   <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{BCD79509-756D-4B62-82AC-453E8FAE0F0B}" name="学科" totalsRowLabel="汇总" dataDxfId="44" totalsRowDxfId="5" dataCellStyle="表格详细信息"/>
-    <tableColumn id="3" xr3:uid="{21978B54-EE56-42C2-9CF4-9A3878E92FC0}" name="成绩" totalsRowFunction="sum" dataDxfId="43" totalsRowDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{D5BD6513-953E-4019-91AA-941478AA3B32}" name="名次" dataDxfId="42" totalsRowDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{BCD79509-756D-4B62-82AC-453E8FAE0F0B}" name="学科" totalsRowLabel="汇总" dataDxfId="101" totalsRowDxfId="100" dataCellStyle="表格详细信息"/>
+    <tableColumn id="3" xr3:uid="{21978B54-EE56-42C2-9CF4-9A3878E92FC0}" name="成绩" totalsRowFunction="sum" dataDxfId="99" totalsRowDxfId="98"/>
+    <tableColumn id="5" xr3:uid="{D5BD6513-953E-4019-91AA-941478AA3B32}" name="名次" dataDxfId="97" totalsRowDxfId="96"/>
   </tableColumns>
   <tableStyleInfo name="摘要表" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -5561,12 +5573,12 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0CF312D2-B8D7-445C-83A1-191E392BE247}" name="G20210407" displayName="G20210407" ref="A2:C12" totalsRowCount="1" headerRowDxfId="27" dataDxfId="26" totalsRowDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0CF312D2-B8D7-445C-83A1-191E392BE247}" name="G20210407" displayName="G20210407" ref="A2:C12" totalsRowCount="1" headerRowDxfId="95" dataDxfId="94" totalsRowDxfId="93">
   <autoFilter ref="A2:C11" xr:uid="{EF79F026-E83F-45FF-B230-27F00A5DD00B}"/>
   <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{045FEDB9-118A-45A6-91C1-00C2C9970A90}" name="学科" totalsRowLabel="汇总" dataDxfId="24" totalsRowDxfId="2" dataCellStyle="表格详细信息"/>
-    <tableColumn id="3" xr3:uid="{BD096444-2BA2-442D-8BE1-A0579D5A4B06}" name="成绩" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{9D8FB202-83CF-42DE-880F-2EEC6FC96934}" name="名次" dataDxfId="22" totalsRowDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{045FEDB9-118A-45A6-91C1-00C2C9970A90}" name="学科" totalsRowLabel="汇总" dataDxfId="92" totalsRowDxfId="91" dataCellStyle="表格详细信息"/>
+    <tableColumn id="3" xr3:uid="{BD096444-2BA2-442D-8BE1-A0579D5A4B06}" name="成绩" totalsRowFunction="sum" dataDxfId="90" totalsRowDxfId="89"/>
+    <tableColumn id="5" xr3:uid="{9D8FB202-83CF-42DE-880F-2EEC6FC96934}" name="名次" dataDxfId="88" totalsRowDxfId="87"/>
   </tableColumns>
   <tableStyleInfo name="摘要表" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -5578,14 +5590,14 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="ExpJun" displayName="ExpJun" ref="A2:E9" totalsRowCount="1" headerRowDxfId="125" dataDxfId="124" totalsRowDxfId="123">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="ExpJun" displayName="ExpJun" ref="A2:E9" totalsRowCount="1" headerRowDxfId="86" dataDxfId="85" totalsRowDxfId="84">
   <autoFilter ref="A2:E8" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="日期" totalsRowLabel="汇总" dataDxfId="122" totalsRowDxfId="121"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="PO#" dataDxfId="120" totalsRowDxfId="119"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="金额" totalsRowFunction="sum" dataDxfId="118" totalsRowDxfId="117"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="类别" dataDxfId="116" totalsRowDxfId="115"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="描述" dataDxfId="114" totalsRowDxfId="113"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="日期" totalsRowLabel="汇总" dataDxfId="83" totalsRowDxfId="82"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="PO#" dataDxfId="81" totalsRowDxfId="80"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="金额" totalsRowFunction="sum" dataDxfId="79" totalsRowDxfId="78"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="类别" dataDxfId="77" totalsRowDxfId="76"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="描述" dataDxfId="75" totalsRowDxfId="74"/>
   </tableColumns>
   <tableStyleInfo name="摘要表" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -5597,14 +5609,14 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="ExpJul" displayName="ExpJul" ref="A2:E9" totalsRowCount="1" headerRowDxfId="112" dataDxfId="111" totalsRowDxfId="110">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="ExpJul" displayName="ExpJul" ref="A2:E9" totalsRowCount="1" headerRowDxfId="73" dataDxfId="72" totalsRowDxfId="71">
   <autoFilter ref="A2:E8" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="日期" totalsRowLabel="汇总" dataDxfId="109" totalsRowDxfId="108"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="PO#" dataDxfId="107" totalsRowDxfId="106"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="金额" totalsRowFunction="sum" dataDxfId="105" totalsRowDxfId="104"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="类别" dataDxfId="103" totalsRowDxfId="102"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="描述" dataDxfId="101" totalsRowDxfId="100"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="日期" totalsRowLabel="汇总" dataDxfId="70" totalsRowDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="PO#" dataDxfId="68" totalsRowDxfId="67"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="金额" totalsRowFunction="sum" dataDxfId="66" totalsRowDxfId="65"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="类别" dataDxfId="64" totalsRowDxfId="63"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="描述" dataDxfId="62" totalsRowDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="摘要表" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -5616,14 +5628,14 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="ExpAug" displayName="ExpAug" ref="A2:E9" totalsRowCount="1" headerRowDxfId="99" dataDxfId="98" totalsRowDxfId="97">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="ExpAug" displayName="ExpAug" ref="A2:E9" totalsRowCount="1" headerRowDxfId="60" dataDxfId="59" totalsRowDxfId="58">
   <autoFilter ref="A2:E8" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="日期" totalsRowLabel="汇总" dataDxfId="96" totalsRowDxfId="95"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="PO#" dataDxfId="94" totalsRowDxfId="93"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="金额" totalsRowFunction="sum" dataDxfId="92" totalsRowDxfId="91"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="类别" dataDxfId="90" totalsRowDxfId="89"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="描述" dataDxfId="88" totalsRowDxfId="87"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="日期" totalsRowLabel="汇总" dataDxfId="57" totalsRowDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="PO#" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="金额" totalsRowFunction="sum" dataDxfId="53" totalsRowDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="类别" dataDxfId="51" totalsRowDxfId="50"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="描述" dataDxfId="49" totalsRowDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="摘要表" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -6672,8 +6684,8 @@
   </sheetPr>
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6697,10 +6709,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="32"/>
       <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7364,6 +7376,9 @@
     </row>
   </sheetData>
   <dataConsolidate link="1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="24">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="记录宁在黄中成绩" sqref="A1" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
@@ -7418,6 +7433,22 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" last="1" negative="1" xr2:uid="{00000000-0003-0000-0100-000001000000}">
+          <x14:colorSeries theme="0" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="6" tint="-0.499984740745262"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="7" tint="-0.249977111117893"/>
+          <x14:colorFirst theme="5" tint="-0.249977111117893"/>
+          <x14:colorLast theme="7" tint="-0.499984740745262"/>
+          <x14:colorHigh theme="5" tint="-0.249977111117893"/>
+          <x14:colorLow theme="5" tint="-0.249977111117893"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>摘要!B14:M14</xm:f>
+              <xm:sqref>O14</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" last="1" negative="1" xr2:uid="{00000000-0003-0000-0100-000000000000}">
           <x14:colorSeries theme="4" tint="-0.499984740745262"/>
           <x14:colorNegative theme="6" tint="-0.499984740745262"/>
@@ -7466,22 +7497,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" last="1" negative="1" xr2:uid="{00000000-0003-0000-0100-000001000000}">
-          <x14:colorSeries theme="0" tint="-0.499984740745262"/>
-          <x14:colorNegative theme="6" tint="-0.499984740745262"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="7" tint="-0.249977111117893"/>
-          <x14:colorFirst theme="5" tint="-0.249977111117893"/>
-          <x14:colorLast theme="7" tint="-0.499984740745262"/>
-          <x14:colorHigh theme="5" tint="-0.249977111117893"/>
-          <x14:colorLow theme="5" tint="-0.249977111117893"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>摘要!B14:M14</xm:f>
-              <xm:sqref>O14</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>
@@ -7496,31 +7511,31 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="15.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="2" width="15.5546875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="30.5546875" style="35" customWidth="1"/>
+    <col min="4" max="4" width="27" style="35" customWidth="1"/>
+    <col min="5" max="5" width="16" style="35" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="30"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:5" s="18" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
@@ -7855,7 +7870,7 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D12" sqref="D12:E12"/>
     </sheetView>
   </sheetViews>

--- a/胡宁黄岩中学成绩记录表.xlsx
+++ b/胡宁黄岩中学成绩记录表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SVN相关\Zhejiang-Huangyan-Middle-School\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DE8E56-D75F-4614-B9E2-1167DD43E8A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423E58DC-7244-4EC4-9F2B-85ACF58B38B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="784" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="784" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="提示" sheetId="16" r:id="rId1"/>
@@ -20,8 +20,8 @@
     <sheet name="20201226考试" sheetId="5" r:id="rId5"/>
     <sheet name="20210201考试" sheetId="6" r:id="rId6"/>
     <sheet name="20210407考试" sheetId="7" r:id="rId7"/>
-    <sheet name="6 月" sheetId="8" r:id="rId8"/>
-    <sheet name="7 月" sheetId="9" r:id="rId9"/>
+    <sheet name="20210709考试" sheetId="8" r:id="rId8"/>
+    <sheet name="20211016考试" sheetId="9" r:id="rId9"/>
     <sheet name="8 月" sheetId="10" r:id="rId10"/>
     <sheet name="9 月" sheetId="11" r:id="rId11"/>
     <sheet name="10 月" sheetId="12" r:id="rId12"/>
@@ -39,8 +39,8 @@
     <definedName name="ColumnTitle5">#REF!</definedName>
     <definedName name="ColumnTitle6">#REF!</definedName>
     <definedName name="ColumnTitle7">#REF!</definedName>
-    <definedName name="ColumnTitle8">ExpJun[[#Headers],[日期]]</definedName>
-    <definedName name="ColumnTitle9">ExpJul[[#Headers],[日期]]</definedName>
+    <definedName name="ColumnTitle8">#REF!</definedName>
+    <definedName name="ColumnTitle9">#REF!</definedName>
     <definedName name="ExpenseCategories">支出摘要[学科]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="11">'10 月'!$2:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="12">'11 月'!$2:$2</definedName>
@@ -49,19 +49,28 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'20201226考试'!$2:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">'20210201考试'!$2:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="6">'20210407考试'!$2:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="7">'6 月'!$2:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="8">'7 月'!$2:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="7">'20210709考试'!$2:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="8">'20211016考试'!$2:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="9">'8 月'!$2:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="10">'9 月'!$2:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">摘要!$4:$4</definedName>
     <definedName name="第二次月考">摘要!$C$2</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="110">
   <si>
     <t>模板提示</t>
   </si>
@@ -99,12 +108,6 @@
     <t>总计</t>
   </si>
   <si>
-    <t>6 月</t>
-  </si>
-  <si>
-    <t>7 月</t>
-  </si>
-  <si>
     <t>8 月</t>
   </si>
   <si>
@@ -151,12 +154,6 @@
   </si>
   <si>
     <t>补给</t>
-  </si>
-  <si>
-    <t>6 月支出</t>
-  </si>
-  <si>
-    <t>7 月支出</t>
   </si>
   <si>
     <t>8 月支出</t>
@@ -314,10 +311,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>支出 1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>在</t>
     </r>
@@ -395,10 +388,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>6 月</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>7 月</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -634,6 +623,104 @@
   </si>
   <si>
     <t>20210407考试</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>20210709考试</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2021/07/09</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>高一下期末考</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息</t>
+  </si>
+  <si>
+    <t>信息</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术</t>
+  </si>
+  <si>
+    <t>技术</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用</t>
+  </si>
+  <si>
+    <t>通用</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>20210709</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>考试</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2021/10/16</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>高二第一次月考</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>50/2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0/0</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>497/15</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>689/37</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>316/14</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>229/14</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>24/1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>159/8</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>129/5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>20211016考试</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -854,7 +941,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="5" applyFont="1">
@@ -889,9 +976,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="11" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -934,7 +1018,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -944,8 +1032,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -963,41 +1054,18 @@
     <cellStyle name="提示文本缩进" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="已访问的超链接" xfId="7" builtinId="9" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="164">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
+  <dxfs count="156">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1019,1916 +1087,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2965,19 +1123,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -3011,19 +1156,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -3057,19 +1189,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -3103,19 +1222,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -3149,19 +1255,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -3195,19 +1288,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -3241,19 +1321,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -3287,19 +1354,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -3333,19 +1387,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -3379,19 +1420,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -3425,19 +1453,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -3471,19 +1486,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -3517,19 +1519,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -3559,6 +1548,1970 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3735,16 +3688,16 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="styleCustomSlicer" pivot="0" table="0" count="10" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="163"/>
-      <tableStyleElement type="headerRow" dxfId="162"/>
+      <tableStyleElement type="wholeTable" dxfId="155"/>
+      <tableStyleElement type="headerRow" dxfId="154"/>
     </tableStyle>
     <tableStyle name="摘要表" pivot="0" count="6" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="wholeTable" dxfId="161"/>
-      <tableStyleElement type="headerRow" dxfId="160"/>
-      <tableStyleElement type="totalRow" dxfId="159"/>
-      <tableStyleElement type="firstColumn" dxfId="158"/>
-      <tableStyleElement type="lastColumn" dxfId="157"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="156"/>
+      <tableStyleElement type="wholeTable" dxfId="153"/>
+      <tableStyleElement type="headerRow" dxfId="152"/>
+      <tableStyleElement type="totalRow" dxfId="151"/>
+      <tableStyleElement type="firstColumn" dxfId="150"/>
+      <tableStyleElement type="lastColumn" dxfId="149"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="148"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -4092,10 +4045,10 @@
                   <c:v>20210407考试</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6 月</c:v>
+                  <c:v>20210709考试</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7 月</c:v>
+                  <c:v>20211016考试</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8 月</c:v>
@@ -4144,10 +4097,10 @@
                   <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>85.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -4226,10 +4179,10 @@
                   <c:v>20210407考试</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6 月</c:v>
+                  <c:v>20210709考试</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7 月</c:v>
+                  <c:v>20211016考试</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8 月</c:v>
@@ -4278,10 +4231,10 @@
                   <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -4360,10 +4313,10 @@
                   <c:v>20210407考试</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6 月</c:v>
+                  <c:v>20210709考试</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7 月</c:v>
+                  <c:v>20211016考试</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8 月</c:v>
@@ -4412,10 +4365,10 @@
                   <c:v>76.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -4494,10 +4447,10 @@
                   <c:v>20210407考试</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6 月</c:v>
+                  <c:v>20210709考试</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7 月</c:v>
+                  <c:v>20211016考试</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8 月</c:v>
@@ -4546,10 +4499,10 @@
                   <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -4628,10 +4581,10 @@
                   <c:v>20210407考试</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6 月</c:v>
+                  <c:v>20210709考试</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7 月</c:v>
+                  <c:v>20211016考试</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8 月</c:v>
@@ -4752,10 +4705,10 @@
                   <c:v>20210407考试</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6 月</c:v>
+                  <c:v>20210709考试</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7 月</c:v>
+                  <c:v>20211016考试</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8 月</c:v>
@@ -4876,10 +4829,10 @@
                   <c:v>20210407考试</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6 月</c:v>
+                  <c:v>20210709考试</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7 月</c:v>
+                  <c:v>20211016考试</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8 月</c:v>
@@ -4928,7 +4881,7 @@
                   <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -5000,10 +4953,10 @@
                   <c:v>20210407考试</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6 月</c:v>
+                  <c:v>20210709考试</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7 月</c:v>
+                  <c:v>20211016考试</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8 月</c:v>
@@ -5124,10 +5077,10 @@
                   <c:v>20210407考试</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6 月</c:v>
+                  <c:v>20210709考试</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7 月</c:v>
+                  <c:v>20211016考试</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8 月</c:v>
@@ -5179,7 +5132,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -5393,50 +5346,50 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="支出摘要" displayName="支出摘要" ref="A4:O14" totalsRowCount="1" headerRowDxfId="155" dataDxfId="154" totalsRowDxfId="153">
-  <autoFilter ref="A4:O13" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="支出摘要" displayName="支出摘要" ref="A4:O17" totalsRowCount="1" headerRowDxfId="147" dataDxfId="146" totalsRowDxfId="145">
+  <autoFilter ref="A4:O16" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="学科" totalsRowLabel="汇总" dataDxfId="152" totalsRowDxfId="151"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="20201009考试" totalsRowFunction="sum" dataDxfId="150" totalsRowDxfId="149">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="学科" totalsRowLabel="汇总" dataDxfId="144" totalsRowDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="20201009考试" totalsRowFunction="sum" dataDxfId="143" totalsRowDxfId="14">
       <calculatedColumnFormula>SUMIFS(G20201009[成绩],G20201009[学科],支出摘要[学科])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="20201122考试" totalsRowFunction="sum" dataDxfId="148" totalsRowDxfId="147">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="20201122考试" totalsRowFunction="sum" dataDxfId="142" totalsRowDxfId="13">
       <calculatedColumnFormula>SUMIFS(G20201122[成绩],G20201122[学科],支出摘要[学科])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="20201226考试" totalsRowFunction="sum" dataDxfId="146" totalsRowDxfId="145">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="20201226考试" totalsRowFunction="sum" dataDxfId="141" totalsRowDxfId="12">
       <calculatedColumnFormula>SUMIFS(G20201226[成绩],G20201226[学科],支出摘要[学科])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="20210201考试" totalsRowFunction="sum" dataDxfId="144" totalsRowDxfId="143">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="20210201考试" totalsRowFunction="sum" dataDxfId="140" totalsRowDxfId="11">
       <calculatedColumnFormula>SUMIFS(G20210201[成绩],G20210201[学科],支出摘要[学科])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="20210407考试" totalsRowFunction="sum" dataDxfId="142" totalsRowDxfId="141">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="20210407考试" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="10">
       <calculatedColumnFormula>SUMIFS(G20210407[成绩],G20210407[学科],支出摘要[学科])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="6 月" totalsRowFunction="sum" dataDxfId="140" totalsRowDxfId="139">
-      <calculatedColumnFormula>SUMIFS(ExpJun[金额],ExpJun[类别],支出摘要[学科])</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="20210709考试" totalsRowFunction="sum" dataDxfId="139" totalsRowDxfId="9">
+      <calculatedColumnFormula>SUMIFS(#REF!,#REF!,支出摘要[学科])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="7 月" totalsRowFunction="sum" dataDxfId="138" totalsRowDxfId="137">
-      <calculatedColumnFormula>SUMIFS(ExpJul[金额],ExpJul[类别],支出摘要[学科])</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="20211016考试" totalsRowFunction="sum" dataDxfId="0" totalsRowDxfId="8">
+      <calculatedColumnFormula>SUMIFS(G20211016[成绩],G20211016[学科],支出摘要[学科])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="8 月" totalsRowFunction="sum" dataDxfId="136" totalsRowDxfId="135">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="8 月" totalsRowFunction="sum" dataDxfId="138" totalsRowDxfId="7">
       <calculatedColumnFormula>SUMIFS(ExpAug[金额],ExpAug[类别],支出摘要[学科])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="9 月" totalsRowFunction="sum" dataDxfId="134" totalsRowDxfId="133">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="9 月" totalsRowFunction="sum" dataDxfId="137" totalsRowDxfId="6">
       <calculatedColumnFormula>SUMIFS(ExpSep[金额],ExpSep[类别],支出摘要[学科])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="10 月" totalsRowFunction="sum" dataDxfId="132" totalsRowDxfId="131">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="10 月" totalsRowFunction="sum" dataDxfId="136" totalsRowDxfId="5">
       <calculatedColumnFormula>SUMIFS(ExpOct[金额],ExpOct[类别],支出摘要[学科])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="11 月" totalsRowFunction="sum" dataDxfId="130" totalsRowDxfId="129">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="11 月" totalsRowFunction="sum" dataDxfId="135" totalsRowDxfId="4">
       <calculatedColumnFormula>SUMIFS(ExpNov[金额],ExpNov[类别],支出摘要[学科])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="12 月" totalsRowFunction="sum" dataDxfId="128" totalsRowDxfId="127">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="12 月" totalsRowFunction="sum" dataDxfId="134" totalsRowDxfId="3">
       <calculatedColumnFormula>SUMIFS(exp,#REF!,支出摘要[学科])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="总计" totalsRowFunction="sum" dataDxfId="126" totalsRowDxfId="125">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="总计" totalsRowFunction="sum" dataDxfId="133" totalsRowDxfId="2">
       <calculatedColumnFormula>SUM(支出摘要[[#This Row],[20201009考试]:[12 月]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="趋势" dataDxfId="124" totalsRowDxfId="123"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="趋势" dataDxfId="132" totalsRowDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="摘要表" showFirstColumn="0" showLastColumn="1" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -5448,14 +5401,14 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="ExpSep" displayName="ExpSep" ref="A2:E9" totalsRowCount="1" headerRowDxfId="47" dataDxfId="46" totalsRowDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="ExpSep" displayName="ExpSep" ref="A2:E9" totalsRowCount="1" headerRowDxfId="67" dataDxfId="66" totalsRowDxfId="65">
   <autoFilter ref="A2:E8" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="日期" totalsRowLabel="汇总" dataDxfId="44" totalsRowDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="PO#" dataDxfId="42" totalsRowDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="金额" totalsRowFunction="sum" dataDxfId="40" totalsRowDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="类别" dataDxfId="38" totalsRowDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="描述" dataDxfId="36" totalsRowDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="日期" totalsRowLabel="汇总" dataDxfId="64" totalsRowDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="PO#" dataDxfId="62" totalsRowDxfId="61"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="金额" totalsRowFunction="sum" dataDxfId="60" totalsRowDxfId="59"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="类别" dataDxfId="58" totalsRowDxfId="57"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="描述" dataDxfId="56" totalsRowDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="摘要表" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -5467,14 +5420,14 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="ExpOct" displayName="ExpOct" ref="A2:E9" totalsRowCount="1" headerRowDxfId="34" dataDxfId="33" totalsRowDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="ExpOct" displayName="ExpOct" ref="A2:E9" totalsRowCount="1" headerRowDxfId="54" dataDxfId="53" totalsRowDxfId="52">
   <autoFilter ref="A2:E8" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="日期" totalsRowLabel="汇总" dataDxfId="31" totalsRowDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="PO#" dataDxfId="29" totalsRowDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="金额" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="类别" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="描述" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="日期" totalsRowLabel="汇总" dataDxfId="51" totalsRowDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="PO#" dataDxfId="49" totalsRowDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="金额" totalsRowFunction="sum" dataDxfId="47" totalsRowDxfId="46"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="类别" dataDxfId="45" totalsRowDxfId="44"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="描述" dataDxfId="43" totalsRowDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="摘要表" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -5486,14 +5439,14 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="ExpNov" displayName="ExpNov" ref="A2:E9" totalsRowCount="1" headerRowDxfId="21" dataDxfId="20" totalsRowDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="ExpNov" displayName="ExpNov" ref="A2:E9" totalsRowCount="1" headerRowDxfId="41" dataDxfId="40" totalsRowDxfId="39">
   <autoFilter ref="A2:E8" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="日期" totalsRowLabel="汇总" dataDxfId="18" totalsRowDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="PO#" dataDxfId="16" totalsRowDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="金额" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="类别" dataDxfId="12" totalsRowDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="描述" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="日期" totalsRowLabel="汇总" dataDxfId="38" totalsRowDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="PO#" dataDxfId="36" totalsRowDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="金额" totalsRowFunction="sum" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="类别" dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="描述" dataDxfId="30" totalsRowDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="摘要表" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -5505,12 +5458,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{6D77D3BE-EE13-4138-AFED-C87E0A200D21}" name="G20201009" displayName="G20201009" ref="A2:C12" totalsRowCount="1" headerRowDxfId="2" dataDxfId="0" totalsRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{6D77D3BE-EE13-4138-AFED-C87E0A200D21}" name="G20201009" displayName="G20201009" ref="A2:C12" totalsRowCount="1" headerRowDxfId="131" dataDxfId="130" totalsRowDxfId="129">
   <autoFilter ref="A2:C11" xr:uid="{CEC36953-3146-4FFE-BF85-2D17AABEC3C8}"/>
   <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{511B64D7-9BF0-4351-9AB2-561631539142}" name="学科" totalsRowLabel="汇总" dataDxfId="8" totalsRowDxfId="7" dataCellStyle="表格详细信息"/>
-    <tableColumn id="3" xr3:uid="{3140EA8D-08D2-4F4F-A103-5B06A7DDB3AB}" name="成绩" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{FAE8C61F-0FF8-4188-AA7D-5F7A56DFA269}" name="名次" totalsRowLabel="383" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{511B64D7-9BF0-4351-9AB2-561631539142}" name="学科" totalsRowLabel="汇总" dataDxfId="128" totalsRowDxfId="127" dataCellStyle="表格详细信息"/>
+    <tableColumn id="3" xr3:uid="{3140EA8D-08D2-4F4F-A103-5B06A7DDB3AB}" name="成绩" totalsRowFunction="sum" dataDxfId="126" totalsRowDxfId="125"/>
+    <tableColumn id="5" xr3:uid="{FAE8C61F-0FF8-4188-AA7D-5F7A56DFA269}" name="名次" totalsRowLabel="383" dataDxfId="124" totalsRowDxfId="123"/>
   </tableColumns>
   <tableStyleInfo name="摘要表" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -5590,14 +5543,12 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="ExpJun" displayName="ExpJun" ref="A2:E9" totalsRowCount="1" headerRowDxfId="86" dataDxfId="85" totalsRowDxfId="84">
-  <autoFilter ref="A2:E8" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="日期" totalsRowLabel="汇总" dataDxfId="83" totalsRowDxfId="82"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="PO#" dataDxfId="81" totalsRowDxfId="80"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="金额" totalsRowFunction="sum" dataDxfId="79" totalsRowDxfId="78"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="类别" dataDxfId="77" totalsRowDxfId="76"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="描述" dataDxfId="75" totalsRowDxfId="74"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4D5492DB-CA33-4C89-BC6B-9EAC87DC3D15}" name="G20210709" displayName="G20210709" ref="A2:C12" totalsRowCount="1" headerRowDxfId="86" dataDxfId="85" totalsRowDxfId="84">
+  <autoFilter ref="A2:C11" xr:uid="{4D5492DB-CA33-4C89-BC6B-9EAC87DC3D15}"/>
+  <tableColumns count="3">
+    <tableColumn id="2" xr3:uid="{51BD3892-8F3F-47D0-A5CD-789DE11C604A}" name="学科" totalsRowLabel="汇总" dataDxfId="83" totalsRowDxfId="28" dataCellStyle="表格详细信息"/>
+    <tableColumn id="3" xr3:uid="{24A4E4CE-7EEC-4A7C-9ACB-B6378DDB536E}" name="成绩" totalsRowFunction="sum" dataDxfId="82" totalsRowDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{7C956BD7-7795-4582-8361-3A179AE1706D}" name="名次" dataDxfId="81" totalsRowDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="摘要表" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -5609,14 +5560,12 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="ExpJul" displayName="ExpJul" ref="A2:E9" totalsRowCount="1" headerRowDxfId="73" dataDxfId="72" totalsRowDxfId="71">
-  <autoFilter ref="A2:E8" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="日期" totalsRowLabel="汇总" dataDxfId="70" totalsRowDxfId="69"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="PO#" dataDxfId="68" totalsRowDxfId="67"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="金额" totalsRowFunction="sum" dataDxfId="66" totalsRowDxfId="65"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="类别" dataDxfId="64" totalsRowDxfId="63"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="描述" dataDxfId="62" totalsRowDxfId="61"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C35136D0-8697-43FB-AC94-30343255651C}" name="G20211016" displayName="G20211016" ref="A2:C12" totalsRowCount="1" headerRowDxfId="24" dataDxfId="23" totalsRowDxfId="22">
+  <autoFilter ref="A2:C11" xr:uid="{C35136D0-8697-43FB-AC94-30343255651C}"/>
+  <tableColumns count="3">
+    <tableColumn id="2" xr3:uid="{610FE478-12B0-45BF-83BC-377FB8D56EC1}" name="学科" totalsRowLabel="汇总" dataDxfId="21" totalsRowDxfId="18" dataCellStyle="表格详细信息"/>
+    <tableColumn id="3" xr3:uid="{3FAAF25F-9B86-49F8-B87C-16E60521313E}" name="成绩" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{56A9C20C-83C9-4224-89F8-B140C51D6A40}" name="名次" totalsRowLabel="316/14" dataDxfId="19" totalsRowDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="摘要表" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -5628,14 +5577,14 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="ExpAug" displayName="ExpAug" ref="A2:E9" totalsRowCount="1" headerRowDxfId="60" dataDxfId="59" totalsRowDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="ExpAug" displayName="ExpAug" ref="A2:E9" totalsRowCount="1" headerRowDxfId="80" dataDxfId="79" totalsRowDxfId="78">
   <autoFilter ref="A2:E8" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="日期" totalsRowLabel="汇总" dataDxfId="57" totalsRowDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="PO#" dataDxfId="55" totalsRowDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="金额" totalsRowFunction="sum" dataDxfId="53" totalsRowDxfId="52"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="类别" dataDxfId="51" totalsRowDxfId="50"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="描述" dataDxfId="49" totalsRowDxfId="48"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="日期" totalsRowLabel="汇总" dataDxfId="77" totalsRowDxfId="76"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="PO#" dataDxfId="75" totalsRowDxfId="74"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="金额" totalsRowFunction="sum" dataDxfId="73" totalsRowDxfId="72"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="类别" dataDxfId="71" totalsRowDxfId="70"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="描述" dataDxfId="69" totalsRowDxfId="68"/>
   </tableColumns>
   <tableStyleInfo name="摘要表" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -5901,12 +5850,12 @@
     </row>
     <row r="3" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -5945,7 +5894,7 @@
     </row>
     <row r="11" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -6023,33 +5972,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="30"/>
+      <c r="A1" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="37"/>
       <c r="D1" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="E2" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -6058,14 +6007,14 @@
         <v>44416</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="16"/>
+        <v>21</v>
+      </c>
+      <c r="C3" s="15"/>
       <c r="D3" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -6074,9 +6023,9 @@
         <v>44417</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="16"/>
+        <v>22</v>
+      </c>
+      <c r="C4" s="15"/>
       <c r="D4" s="9" t="s">
         <v>7</v>
       </c>
@@ -6085,7 +6034,7 @@
     <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13"/>
       <c r="B5" s="9"/>
-      <c r="C5" s="16"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
@@ -6094,7 +6043,7 @@
     <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13"/>
       <c r="B6" s="9"/>
-      <c r="C6" s="16"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="9" t="s">
         <v>8</v>
       </c>
@@ -6103,7 +6052,7 @@
     <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13"/>
       <c r="B7" s="9"/>
-      <c r="C7" s="16"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="9" t="s">
         <v>9</v>
       </c>
@@ -6112,7 +6061,7 @@
     <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13"/>
       <c r="B8" s="9"/>
-      <c r="C8" s="16"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="9" t="s">
         <v>10</v>
       </c>
@@ -6120,10 +6069,10 @@
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B9" s="10"/>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <f>SUBTOTAL(109,ExpAug[金额])</f>
         <v>0</v>
       </c>
@@ -6191,33 +6140,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="30"/>
+      <c r="A1" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="37"/>
       <c r="D1" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>27</v>
-      </c>
       <c r="E2" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -6226,14 +6175,14 @@
         <v>44448</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="16"/>
+        <v>21</v>
+      </c>
+      <c r="C3" s="15"/>
       <c r="D3" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -6242,9 +6191,9 @@
         <v>44454</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="16"/>
+        <v>22</v>
+      </c>
+      <c r="C4" s="15"/>
       <c r="D4" s="9" t="s">
         <v>7</v>
       </c>
@@ -6253,7 +6202,7 @@
     <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13"/>
       <c r="B5" s="9"/>
-      <c r="C5" s="16"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
@@ -6262,7 +6211,7 @@
     <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13"/>
       <c r="B6" s="9"/>
-      <c r="C6" s="16"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="9" t="s">
         <v>8</v>
       </c>
@@ -6271,7 +6220,7 @@
     <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13"/>
       <c r="B7" s="9"/>
-      <c r="C7" s="16"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="9" t="s">
         <v>9</v>
       </c>
@@ -6280,7 +6229,7 @@
     <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13"/>
       <c r="B8" s="9"/>
-      <c r="C8" s="16"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="9" t="s">
         <v>10</v>
       </c>
@@ -6288,10 +6237,10 @@
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B9" s="10"/>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <f>SUBTOTAL(109,ExpSep[金额])</f>
         <v>0</v>
       </c>
@@ -6359,33 +6308,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="30"/>
+      <c r="A1" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="37"/>
       <c r="D1" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="E2" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -6394,14 +6343,14 @@
         <v>44479</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="16"/>
+        <v>21</v>
+      </c>
+      <c r="C3" s="15"/>
       <c r="D3" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -6410,9 +6359,9 @@
         <v>44490</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="16"/>
+        <v>22</v>
+      </c>
+      <c r="C4" s="15"/>
       <c r="D4" s="9" t="s">
         <v>7</v>
       </c>
@@ -6421,7 +6370,7 @@
     <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13"/>
       <c r="B5" s="9"/>
-      <c r="C5" s="16"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
@@ -6430,7 +6379,7 @@
     <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13"/>
       <c r="B6" s="9"/>
-      <c r="C6" s="16"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="9" t="s">
         <v>8</v>
       </c>
@@ -6439,7 +6388,7 @@
     <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13"/>
       <c r="B7" s="9"/>
-      <c r="C7" s="16"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="9" t="s">
         <v>9</v>
       </c>
@@ -6448,7 +6397,7 @@
     <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13"/>
       <c r="B8" s="9"/>
-      <c r="C8" s="16"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="9" t="s">
         <v>10</v>
       </c>
@@ -6456,10 +6405,10 @@
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B9" s="10"/>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <f>SUBTOTAL(109,ExpOct[金额])</f>
         <v>0</v>
       </c>
@@ -6528,33 +6477,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="30"/>
+      <c r="A1" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="37"/>
       <c r="D1" s="12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="E2" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -6563,14 +6512,14 @@
         <v>44514</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="16"/>
+        <v>21</v>
+      </c>
+      <c r="C3" s="15"/>
       <c r="D3" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -6579,9 +6528,9 @@
         <v>44521</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="16"/>
+        <v>22</v>
+      </c>
+      <c r="C4" s="15"/>
       <c r="D4" s="9" t="s">
         <v>7</v>
       </c>
@@ -6590,7 +6539,7 @@
     <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13"/>
       <c r="B5" s="9"/>
-      <c r="C5" s="16"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
@@ -6599,7 +6548,7 @@
     <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13"/>
       <c r="B6" s="9"/>
-      <c r="C6" s="16"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="9" t="s">
         <v>8</v>
       </c>
@@ -6608,7 +6557,7 @@
     <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13"/>
       <c r="B7" s="9"/>
-      <c r="C7" s="16"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="9" t="s">
         <v>9</v>
       </c>
@@ -6617,7 +6566,7 @@
     <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13"/>
       <c r="B8" s="9"/>
-      <c r="C8" s="16"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="9" t="s">
         <v>10</v>
       </c>
@@ -6625,10 +6574,10 @@
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B9" s="10"/>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <f>SUBTOTAL(109,ExpNov[金额])</f>
         <v>0</v>
       </c>
@@ -6682,10 +6631,10 @@
     <tabColor theme="4" tint="-0.499984740745262"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6709,667 +6658,838 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="32"/>
+      <c r="A1" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="33"/>
       <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>90</v>
+      <c r="B2" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>84</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="N2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="12" t="s">
+    </row>
+    <row r="3" spans="1:15" ht="224.1" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:15" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="12" t="s">
+      <c r="B4" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="224.1" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:15" s="18" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="O4" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="20">
+      <c r="B5" s="19">
         <f>SUMIFS(G20201009[成绩],G20201009[学科],支出摘要[学科])</f>
         <v>101</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="19">
         <f>SUMIFS(G20201122[成绩],G20201122[学科],支出摘要[学科])</f>
         <v>85</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="19">
         <f>SUMIFS(G20201226[成绩],G20201226[学科],支出摘要[学科])</f>
         <v>102</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="19">
         <f>SUMIFS(G20210201[成绩],G20210201[学科],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="19">
         <f>SUMIFS(G20210407[成绩],G20210407[学科],支出摘要[学科])</f>
         <v>90</v>
       </c>
-      <c r="G5" s="20">
-        <f>SUMIFS(ExpJun[金额],ExpJun[类别],支出摘要[学科])</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="20">
-        <f>SUMIFS(ExpJul[金额],ExpJul[类别],支出摘要[学科])</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="20">
+      <c r="G5" s="19">
+        <f>SUMIFS(G20210709[成绩],G20210709[学科],支出摘要[学科])</f>
+        <v>85.5</v>
+      </c>
+      <c r="H5" s="19">
+        <f>SUMIFS(G20211016[成绩],G20211016[学科],支出摘要[学科])</f>
+        <v>105</v>
+      </c>
+      <c r="I5" s="19">
         <f>SUMIFS(ExpAug[金额],ExpAug[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="19">
         <f>SUMIFS(ExpSep[金额],ExpSep[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="19">
         <f>SUMIFS(ExpOct[金额],ExpOct[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5" s="19">
         <f>SUMIFS(ExpNov[金额],ExpNov[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="M5" s="20" t="e">
+      <c r="M5" s="19" t="e">
         <f>SUMIFS(exp,#REF!,支出摘要[学科])</f>
         <v>#NAME?</v>
       </c>
-      <c r="N5" s="20">
+      <c r="N5" s="19">
         <f>SUM(支出摘要[[#This Row],[20201009考试]:[11 月]])</f>
-        <v>378</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="20">
+        <v>568.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="19">
         <f>SUMIFS(G20201009[成绩],G20201009[学科],支出摘要[学科])</f>
         <v>98</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="19">
         <f>SUMIFS(G20201122[成绩],G20201122[学科],支出摘要[学科])</f>
         <v>90</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="19">
         <f>SUMIFS(G20201226[成绩],G20201226[学科],支出摘要[学科])</f>
         <v>89</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="19">
         <f>SUMIFS(G20210201[成绩],G20210201[学科],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="19">
         <f>SUMIFS(G20210407[成绩],G20210407[学科],支出摘要[学科])</f>
         <v>108</v>
       </c>
-      <c r="G6" s="20">
-        <f>SUMIFS(ExpJun[金额],ExpJun[类别],支出摘要[学科])</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="20">
-        <f>SUMIFS(ExpJul[金额],ExpJul[类别],支出摘要[学科])</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="20">
+      <c r="G6" s="19">
+        <f>SUMIFS(G20210709[成绩],G20210709[学科],支出摘要[学科])</f>
+        <v>106</v>
+      </c>
+      <c r="H6" s="19">
+        <f>SUMIFS(G20211016[成绩],G20211016[学科],支出摘要[学科])</f>
+        <v>111</v>
+      </c>
+      <c r="I6" s="19">
         <f>SUMIFS(ExpAug[金额],ExpAug[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="19">
         <f>SUMIFS(ExpSep[金额],ExpSep[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="19">
         <f>SUMIFS(ExpOct[金额],ExpOct[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L6" s="19">
         <f>SUMIFS(ExpNov[金额],ExpNov[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="M6" s="20" t="e">
+      <c r="M6" s="19" t="e">
         <f>SUMIFS(exp,#REF!,支出摘要[学科])</f>
         <v>#NAME?</v>
       </c>
-      <c r="N6" s="20" t="e">
+      <c r="N6" s="19" t="e">
         <f>SUM(支出摘要[[#This Row],[20201009考试]:[12 月]])</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="20">
+    <row r="7" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="19">
         <f>SUMIFS(G20201009[成绩],G20201009[学科],支出摘要[学科])</f>
         <v>95.5</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="19">
         <f>SUMIFS(G20201122[成绩],G20201122[学科],支出摘要[学科])</f>
         <v>91</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="19">
         <f>SUMIFS(G20201226[成绩],G20201226[学科],支出摘要[学科])</f>
         <v>91</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="19">
         <f>SUMIFS(G20210201[成绩],G20210201[学科],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="19">
         <f>SUMIFS(G20210407[成绩],G20210407[学科],支出摘要[学科])</f>
         <v>76.5</v>
       </c>
-      <c r="G7" s="20">
-        <f>SUMIFS(ExpJun[金额],ExpJun[类别],支出摘要[学科])</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="20">
-        <f>SUMIFS(ExpJul[金额],ExpJul[类别],支出摘要[学科])</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="20">
+      <c r="G7" s="19">
+        <f>SUMIFS(G20210709[成绩],G20210709[学科],支出摘要[学科])</f>
+        <v>64</v>
+      </c>
+      <c r="H7" s="19">
+        <f>SUMIFS(G20211016[成绩],G20211016[学科],支出摘要[学科])</f>
+        <v>73</v>
+      </c>
+      <c r="I7" s="19">
         <f>SUMIFS(ExpAug[金额],ExpAug[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="19">
         <f>SUMIFS(ExpSep[金额],ExpSep[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="K7" s="20">
+      <c r="K7" s="19">
         <f>SUMIFS(ExpOct[金额],ExpOct[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="L7" s="20">
+      <c r="L7" s="19">
         <f>SUMIFS(ExpNov[金额],ExpNov[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="M7" s="20" t="e">
+      <c r="M7" s="19" t="e">
         <f>SUMIFS(exp,#REF!,支出摘要[学科])</f>
         <v>#NAME?</v>
       </c>
-      <c r="N7" s="20" t="e">
+      <c r="N7" s="19" t="e">
         <f>SUM(支出摘要[[#This Row],[20201009考试]:[12 月]])</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="20">
+    <row r="8" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="19">
         <f>SUMIFS(G20201009[成绩],G20201009[学科],支出摘要[学科])</f>
         <v>70</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="19">
         <f>SUMIFS(G20201122[成绩],G20201122[学科],支出摘要[学科])</f>
         <v>64</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="19">
         <f>SUMIFS(G20201226[成绩],G20201226[学科],支出摘要[学科])</f>
         <v>69</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="19">
         <f>SUMIFS(G20210201[成绩],G20210201[学科],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="19">
         <f>SUMIFS(G20210407[成绩],G20210407[学科],支出摘要[学科])</f>
         <v>78</v>
       </c>
-      <c r="G8" s="20">
-        <f>SUMIFS(ExpJun[金额],ExpJun[类别],支出摘要[学科])</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="20">
-        <f>SUMIFS(ExpJul[金额],ExpJul[类别],支出摘要[学科])</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="20">
+      <c r="G8" s="19">
+        <f>SUMIFS(G20210709[成绩],G20210709[学科],支出摘要[学科])</f>
+        <v>64</v>
+      </c>
+      <c r="H8" s="19">
+        <f>SUMIFS(G20211016[成绩],G20211016[学科],支出摘要[学科])</f>
+        <v>42</v>
+      </c>
+      <c r="I8" s="19">
         <f>SUMIFS(ExpAug[金额],ExpAug[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="19">
         <f>SUMIFS(ExpSep[金额],ExpSep[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="19">
         <f>SUMIFS(ExpOct[金额],ExpOct[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="L8" s="20">
+      <c r="L8" s="19">
         <f>SUMIFS(ExpNov[金额],ExpNov[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="M8" s="20" t="e">
+      <c r="M8" s="19" t="e">
         <f>SUMIFS(exp,#REF!,支出摘要[学科])</f>
         <v>#NAME?</v>
       </c>
-      <c r="N8" s="20" t="e">
+      <c r="N8" s="19" t="e">
         <f>SUM(支出摘要[[#This Row],[20201009考试]:[12 月]])</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="20">
+    <row r="9" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="19">
         <f>SUMIFS(G20201009[成绩],G20201009[学科],支出摘要[学科])</f>
         <v>78</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="19">
         <f>SUMIFS(G20201122[成绩],G20201122[学科],支出摘要[学科])</f>
         <v>64</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="19">
         <f>SUMIFS(G20201226[成绩],G20201226[学科],支出摘要[学科])</f>
         <v>56</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="19">
         <f>SUMIFS(G20210201[成绩],G20210201[学科],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="19">
         <f>SUMIFS(G20210407[成绩],G20210407[学科],支出摘要[学科])</f>
         <v>70</v>
       </c>
-      <c r="G9" s="20">
-        <f>SUMIFS(ExpJun[金额],ExpJun[类别],支出摘要[学科])</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="20">
-        <f>SUMIFS(ExpJul[金额],ExpJul[类别],支出摘要[学科])</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="20">
+      <c r="G9" s="19">
+        <f>SUMIFS(G20210709[成绩],G20210709[学科],支出摘要[学科])</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="19">
+        <f>SUMIFS(G20211016[成绩],G20211016[学科],支出摘要[学科])</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="19">
         <f>SUMIFS(ExpAug[金额],ExpAug[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="19">
         <f>SUMIFS(ExpSep[金额],ExpSep[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="K9" s="20">
+      <c r="K9" s="19">
         <f>SUMIFS(ExpOct[金额],ExpOct[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="L9" s="20">
+      <c r="L9" s="19">
         <f>SUMIFS(ExpNov[金额],ExpNov[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="M9" s="20" t="e">
+      <c r="M9" s="19" t="e">
         <f>SUMIFS(exp,#REF!,支出摘要[学科])</f>
         <v>#NAME?</v>
       </c>
-      <c r="N9" s="20" t="e">
+      <c r="N9" s="19" t="e">
         <f>SUM(支出摘要[[#This Row],[20201009考试]:[12 月]])</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="20">
+    <row r="10" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="19">
         <f>SUMIFS(G20201009[成绩],G20201009[学科],支出摘要[学科])</f>
         <v>64</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="19">
         <f>SUMIFS(G20201122[成绩],G20201122[学科],支出摘要[学科])</f>
         <v>65</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="19">
         <f>SUMIFS(G20201226[成绩],G20201226[学科],支出摘要[学科])</f>
         <v>57</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="19">
         <f>SUMIFS(G20210201[成绩],G20210201[学科],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="19">
         <f>SUMIFS(G20210407[成绩],G20210407[学科],支出摘要[学科])</f>
         <v>69</v>
       </c>
-      <c r="G10" s="20">
-        <f>SUMIFS(ExpJun[金额],ExpJun[类别],支出摘要[学科])</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="20">
-        <f>SUMIFS(ExpJul[金额],ExpJul[类别],支出摘要[学科])</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="20">
+      <c r="G10" s="19">
+        <f>SUMIFS(G20210709[成绩],G20210709[学科],支出摘要[学科])</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="19">
+        <f>SUMIFS(G20211016[成绩],G20211016[学科],支出摘要[学科])</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="19">
         <f>SUMIFS(ExpAug[金额],ExpAug[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10" s="19">
         <f>SUMIFS(ExpSep[金额],ExpSep[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="K10" s="20">
+      <c r="K10" s="19">
         <f>SUMIFS(ExpOct[金额],ExpOct[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="L10" s="20">
+      <c r="L10" s="19">
         <f>SUMIFS(ExpNov[金额],ExpNov[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="M10" s="20" t="e">
+      <c r="M10" s="19" t="e">
         <f>SUMIFS(exp,#REF!,支出摘要[学科])</f>
         <v>#NAME?</v>
       </c>
-      <c r="N10" s="20" t="e">
+      <c r="N10" s="19" t="e">
         <f>SUM(支出摘要[[#This Row],[20201009考试]:[12 月]])</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="20">
+    <row r="11" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="19">
         <f>SUMIFS(G20201009[成绩],G20201009[学科],支出摘要[学科])</f>
         <v>68</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="19">
         <f>SUMIFS(G20201122[成绩],G20201122[学科],支出摘要[学科])</f>
         <v>53</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="19">
         <f>SUMIFS(G20201226[成绩],G20201226[学科],支出摘要[学科])</f>
         <v>53</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="19">
         <f>SUMIFS(G20210201[成绩],G20210201[学科],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="19">
         <f>SUMIFS(G20210407[成绩],G20210407[学科],支出摘要[学科])</f>
         <v>51</v>
       </c>
-      <c r="G11" s="20">
-        <f>SUMIFS(ExpJun[金额],ExpJun[类别],支出摘要[学科])</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="20">
-        <f>SUMIFS(ExpJul[金额],ExpJul[类别],支出摘要[学科])</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="20">
+      <c r="G11" s="19">
+        <f>SUMIFS(G20210709[成绩],G20210709[学科],支出摘要[学科])</f>
+        <v>60</v>
+      </c>
+      <c r="H11" s="19">
+        <f>SUMIFS(G20211016[成绩],G20211016[学科],支出摘要[学科])</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="19">
         <f>SUMIFS(ExpAug[金额],ExpAug[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="19">
         <f>SUMIFS(ExpSep[金额],ExpSep[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="K11" s="20">
+      <c r="K11" s="19">
         <f>SUMIFS(ExpOct[金额],ExpOct[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="L11" s="20">
+      <c r="L11" s="19">
         <f>SUMIFS(ExpNov[金额],ExpNov[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="M11" s="20" t="e">
+      <c r="M11" s="19" t="e">
         <f>SUMIFS(exp,#REF!,支出摘要[学科])</f>
         <v>#NAME?</v>
       </c>
-      <c r="N11" s="20" t="e">
+      <c r="N11" s="19" t="e">
         <f>SUM(支出摘要[[#This Row],[20201009考试]:[12 月]])</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="20">
+    <row r="12" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="19">
         <f>SUMIFS(G20201009[成绩],G20201009[学科],支出摘要[学科])</f>
         <v>69</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="19">
         <f>SUMIFS(G20201122[成绩],G20201122[学科],支出摘要[学科])</f>
         <v>63</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="19">
         <f>SUMIFS(G20201226[成绩],G20201226[学科],支出摘要[学科])</f>
         <v>72</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="19">
         <f>SUMIFS(G20210201[成绩],G20210201[学科],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="19">
         <f>SUMIFS(G20210407[成绩],G20210407[学科],支出摘要[学科])</f>
         <v>78</v>
       </c>
-      <c r="G12" s="20">
-        <f>SUMIFS(ExpJun[金额],ExpJun[类别],支出摘要[学科])</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="20">
-        <f>SUMIFS(ExpJul[金额],ExpJul[类别],支出摘要[学科])</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="20">
+      <c r="G12" s="19">
+        <f>SUMIFS(G20210709[成绩],G20210709[学科],支出摘要[学科])</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="19">
+        <f>SUMIFS(G20211016[成绩],G20211016[学科],支出摘要[学科])</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="19">
         <f>SUMIFS(ExpAug[金额],ExpAug[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12" s="19">
         <f>SUMIFS(ExpSep[金额],ExpSep[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="K12" s="20">
+      <c r="K12" s="19">
         <f>SUMIFS(ExpOct[金额],ExpOct[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="L12" s="20">
+      <c r="L12" s="19">
         <f>SUMIFS(ExpNov[金额],ExpNov[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="M12" s="20" t="e">
+      <c r="M12" s="19" t="e">
         <f>SUMIFS(exp,#REF!,支出摘要[学科])</f>
         <v>#NAME?</v>
       </c>
-      <c r="N12" s="20" t="e">
+      <c r="N12" s="19" t="e">
         <f>SUM(支出摘要[[#This Row],[20201009考试]:[12 月]])</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="20">
+    <row r="13" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="19">
         <f>SUMIFS(G20201009[成绩],G20201009[学科],支出摘要[学科])</f>
         <v>83</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="19">
         <f>SUMIFS(G20201122[成绩],G20201122[学科],支出摘要[学科])</f>
         <v>68</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="19">
         <f>SUMIFS(G20201226[成绩],G20201226[学科],支出摘要[学科])</f>
         <v>82</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="19">
         <f>SUMIFS(G20210201[成绩],G20210201[学科],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="19">
         <f>SUMIFS(G20210407[成绩],G20210407[学科],支出摘要[学科])</f>
         <v>76</v>
       </c>
-      <c r="G13" s="20">
-        <f>SUMIFS(ExpJun[金额],ExpJun[类别],支出摘要[学科])</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="20">
-        <f>SUMIFS(ExpJul[金额],ExpJul[类别],支出摘要[学科])</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="20">
+      <c r="G13" s="19">
+        <f>SUMIFS(G20210709[成绩],G20210709[学科],支出摘要[学科])</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="19">
+        <f>SUMIFS(G20211016[成绩],G20211016[学科],支出摘要[学科])</f>
+        <v>86</v>
+      </c>
+      <c r="I13" s="19">
         <f>SUMIFS(ExpAug[金额],ExpAug[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="J13" s="20">
+      <c r="J13" s="19">
         <f>SUMIFS(ExpSep[金额],ExpSep[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="K13" s="20">
+      <c r="K13" s="19">
         <f>SUMIFS(ExpOct[金额],ExpOct[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="L13" s="20">
+      <c r="L13" s="19">
         <f>SUMIFS(ExpNov[金额],ExpNov[类别],支出摘要[学科])</f>
         <v>0</v>
       </c>
-      <c r="M13" s="20" t="e">
+      <c r="M13" s="19" t="e">
         <f>SUMIFS(exp,#REF!,支出摘要[学科])</f>
         <v>#NAME?</v>
       </c>
-      <c r="N13" s="20" t="e">
+      <c r="N13" s="19" t="e">
         <f>SUM(支出摘要[[#This Row],[20201009考试]:[12 月]])</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="22">
+    <row r="14" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="19">
+        <f>SUMIFS(G20201009[成绩],G20201009[学科],支出摘要[学科])</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="19">
+        <f>SUMIFS(G20201122[成绩],G20201122[学科],支出摘要[学科])</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="19">
+        <f>SUMIFS(G20201226[成绩],G20201226[学科],支出摘要[学科])</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="19">
+        <f>SUMIFS(G20210201[成绩],G20210201[学科],支出摘要[学科])</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="19">
+        <f>SUMIFS(G20210407[成绩],G20210407[学科],支出摘要[学科])</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="19">
+        <f>SUMIFS(G20210709[成绩],G20210709[学科],支出摘要[学科])</f>
+        <v>35</v>
+      </c>
+      <c r="H14" s="19">
+        <f>SUMIFS(G20211016[成绩],G20211016[学科],支出摘要[学科])</f>
+        <v>35.5</v>
+      </c>
+      <c r="I14" s="19">
+        <f>SUMIFS(ExpAug[金额],ExpAug[类别],支出摘要[学科])</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="19">
+        <f>SUMIFS(ExpSep[金额],ExpSep[类别],支出摘要[学科])</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="19">
+        <f>SUMIFS(ExpOct[金额],ExpOct[类别],支出摘要[学科])</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="19">
+        <f>SUMIFS(ExpNov[金额],ExpNov[类别],支出摘要[学科])</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="19" t="e">
+        <f>SUMIFS(exp,#REF!,支出摘要[学科])</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N14" s="19" t="e">
+        <f>SUM(支出摘要[[#This Row],[20201009考试]:[12 月]])</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="19">
+        <f>SUMIFS(G20201009[成绩],G20201009[学科],支出摘要[学科])</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="19">
+        <f>SUMIFS(G20201122[成绩],G20201122[学科],支出摘要[学科])</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="19">
+        <f>SUMIFS(G20201226[成绩],G20201226[学科],支出摘要[学科])</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="19">
+        <f>SUMIFS(G20210201[成绩],G20210201[学科],支出摘要[学科])</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="19">
+        <f>SUMIFS(G20210407[成绩],G20210407[学科],支出摘要[学科])</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="19">
+        <f>SUMIFS(G20210709[成绩],G20210709[学科],支出摘要[学科])</f>
+        <v>66</v>
+      </c>
+      <c r="H15" s="19">
+        <f>SUMIFS(G20211016[成绩],G20211016[学科],支出摘要[学科])</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="19">
+        <f>SUMIFS(ExpAug[金额],ExpAug[类别],支出摘要[学科])</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="19">
+        <f>SUMIFS(ExpSep[金额],ExpSep[类别],支出摘要[学科])</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="19">
+        <f>SUMIFS(ExpOct[金额],ExpOct[类别],支出摘要[学科])</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="19">
+        <f>SUMIFS(ExpNov[金额],ExpNov[类别],支出摘要[学科])</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="19" t="e">
+        <f>SUMIFS(exp,#REF!,支出摘要[学科])</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N15" s="19" t="e">
+        <f>SUM(支出摘要[[#This Row],[20201009考试]:[12 月]])</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="19">
+        <f>SUMIFS(G20201009[成绩],G20201009[学科],支出摘要[学科])</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="19">
+        <f>SUMIFS(G20201122[成绩],G20201122[学科],支出摘要[学科])</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="19">
+        <f>SUMIFS(G20201226[成绩],G20201226[学科],支出摘要[学科])</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="19">
+        <f>SUMIFS(G20210201[成绩],G20210201[学科],支出摘要[学科])</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="19">
+        <f>SUMIFS(G20210407[成绩],G20210407[学科],支出摘要[学科])</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="19">
+        <f>SUMIFS(G20210709[成绩],G20210709[学科],支出摘要[学科])</f>
+        <v>31</v>
+      </c>
+      <c r="H16" s="19">
+        <f>SUMIFS(G20211016[成绩],G20211016[学科],支出摘要[学科])</f>
+        <v>28</v>
+      </c>
+      <c r="I16" s="19">
+        <f>SUMIFS(ExpAug[金额],ExpAug[类别],支出摘要[学科])</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="19">
+        <f>SUMIFS(ExpSep[金额],ExpSep[类别],支出摘要[学科])</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="19">
+        <f>SUMIFS(ExpOct[金额],ExpOct[类别],支出摘要[学科])</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="19">
+        <f>SUMIFS(ExpNov[金额],ExpNov[类别],支出摘要[学科])</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="19" t="e">
+        <f>SUMIFS(exp,#REF!,支出摘要[学科])</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N16" s="19" t="e">
+        <f>SUM(支出摘要[[#This Row],[20201009考试]:[12 月]])</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="21">
         <f>SUBTOTAL(109,支出摘要[20201009考试])</f>
         <v>726.5</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C17" s="21">
         <f>SUBTOTAL(109,支出摘要[20201122考试])</f>
         <v>643</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D17" s="21">
         <f>SUBTOTAL(109,支出摘要[20201226考试])</f>
         <v>671</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E17" s="21">
         <f>SUBTOTAL(109,支出摘要[20210201考试])</f>
         <v>0</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F17" s="21">
         <f>SUBTOTAL(109,支出摘要[20210407考试])</f>
         <v>696.5</v>
       </c>
-      <c r="G14" s="22">
-        <f>SUBTOTAL(109,支出摘要[6 月])</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="22">
-        <f>SUBTOTAL(109,支出摘要[7 月])</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="22">
+      <c r="G17" s="21">
+        <f>SUBTOTAL(109,支出摘要[20210709考试])</f>
+        <v>511.5</v>
+      </c>
+      <c r="H17" s="21">
+        <f>SUBTOTAL(109,支出摘要[20211016考试])</f>
+        <v>480.5</v>
+      </c>
+      <c r="I17" s="21">
         <f>SUBTOTAL(109,支出摘要[8 月])</f>
         <v>0</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J17" s="21">
         <f>SUBTOTAL(109,支出摘要[9 月])</f>
         <v>0</v>
       </c>
-      <c r="K14" s="22">
+      <c r="K17" s="21">
         <f>SUBTOTAL(109,支出摘要[10 月])</f>
         <v>0</v>
       </c>
-      <c r="L14" s="22">
+      <c r="L17" s="21">
         <f>SUBTOTAL(109,支出摘要[11 月])</f>
         <v>0</v>
       </c>
-      <c r="M14" s="22" t="e">
+      <c r="M17" s="21" t="e">
         <f>SUBTOTAL(109,支出摘要[12 月])</f>
         <v>#NAME?</v>
       </c>
-      <c r="N14" s="22" t="e">
+      <c r="N17" s="21" t="e">
         <f>SUBTOTAL(109,支出摘要[总计])</f>
         <v>#NAME?</v>
       </c>
@@ -7410,7 +7530,7 @@
     <hyperlink ref="B2" location="'20201009考试'!A1" tooltip="选择以导航到20201009考试" display="20201009考试" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="C2" location="'20201122考试'!Print_Titles" tooltip="选择以导航到 2 月" display="20201122考试" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
     <hyperlink ref="D2" location="'20201226考试'!Print_Titles" tooltip="选择以导航到 3 月" display="20201226考试" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="G2" location="'6 月'!A1" tooltip="选择以导航到 6 月" display="6 月" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="G2" location="'20210709考试'!Print_Titles" tooltip="选择以导航到 6 月" display="20210709考试" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
     <hyperlink ref="H2" location="'7 月'!A1" tooltip="选择以导航到 7 月" display="7 月" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
     <hyperlink ref="I2" location="'8 月'!A1" tooltip="选择以导航到 8 月" display="8 月" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
     <hyperlink ref="J2" location="'9 月'!A1" tooltip="选择以导航到 9 月" display="9 月" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
@@ -7444,8 +7564,8 @@
           <x14:colorLow theme="5" tint="-0.249977111117893"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>摘要!B14:M14</xm:f>
-              <xm:sqref>O14</xm:sqref>
+              <xm:f>摘要!B17:M17</xm:f>
+              <xm:sqref>O17</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -7495,6 +7615,18 @@
               <xm:f>摘要!B13:M13</xm:f>
               <xm:sqref>O13</xm:sqref>
             </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>摘要!B14:M14</xm:f>
+              <xm:sqref>O14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>摘要!B15:M15</xm:f>
+              <xm:sqref>O15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>摘要!B16:M16</xm:f>
+              <xm:sqref>O16</xm:sqref>
+            </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
       </x14:sparklineGroups>
@@ -7511,152 +7643,152 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="15.5546875" style="35" customWidth="1"/>
-    <col min="3" max="3" width="30.5546875" style="35" customWidth="1"/>
-    <col min="4" max="4" width="27" style="35" customWidth="1"/>
-    <col min="5" max="5" width="16" style="35" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="35"/>
+    <col min="1" max="2" width="15.5546875" style="30" customWidth="1"/>
+    <col min="3" max="3" width="30.5546875" style="30" customWidth="1"/>
+    <col min="4" max="4" width="27" style="30" customWidth="1"/>
+    <col min="5" max="5" width="16" style="30" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="34"/>
+      <c r="A1" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="35"/>
       <c r="C1" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="35"/>
+    </row>
+    <row r="2" spans="1:5" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="19">
+        <v>101</v>
+      </c>
+      <c r="C3" s="18">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="19">
+        <v>98</v>
+      </c>
+      <c r="C4" s="18">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="19">
+        <v>95.5</v>
+      </c>
+      <c r="C5" s="18">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="19">
+        <v>70</v>
+      </c>
+      <c r="C6" s="18">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="19">
         <v>78</v>
       </c>
-      <c r="E1" s="34"/>
-    </row>
-    <row r="2" spans="1:5" s="18" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="20">
-        <v>101</v>
-      </c>
-      <c r="C3" s="19">
+      <c r="C7" s="18">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="19">
+        <v>64</v>
+      </c>
+      <c r="C8" s="18">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="19">
+        <v>68</v>
+      </c>
+      <c r="C9" s="18">
         <v>510</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="20">
-        <v>98</v>
-      </c>
-      <c r="C4" s="19">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="20">
-        <v>95.5</v>
-      </c>
-      <c r="C5" s="19">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="20">
-        <v>70</v>
-      </c>
-      <c r="C6" s="19">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+    <row r="10" spans="1:5" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="20">
-        <v>78</v>
-      </c>
-      <c r="C7" s="19">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
+      <c r="B10" s="19">
+        <v>69</v>
+      </c>
+      <c r="C10" s="18">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="20">
-        <v>64</v>
-      </c>
-      <c r="C8" s="19">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="20">
-        <v>68</v>
-      </c>
-      <c r="C9" s="19">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="20">
-        <v>69</v>
-      </c>
-      <c r="C10" s="19">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="20">
+      <c r="B11" s="19">
         <v>83</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="18">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="24">
+    <row r="12" spans="1:5" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="23">
         <f>SUBTOTAL(109,G20201009[成绩])</f>
         <v>726.5</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>75</v>
+      <c r="C12" s="17" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -7715,115 +7847,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="30"/>
+      <c r="A1" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="37"/>
       <c r="C1" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="30"/>
-    </row>
-    <row r="2" spans="1:5" s="18" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="37"/>
+    </row>
+    <row r="2" spans="1:5" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="19">
+        <v>85</v>
+      </c>
+      <c r="C3" s="18"/>
+    </row>
+    <row r="4" spans="1:5" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="19">
+        <v>90</v>
+      </c>
+      <c r="C4" s="18"/>
+    </row>
+    <row r="5" spans="1:5" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="19">
+        <v>91</v>
+      </c>
+      <c r="C5" s="18"/>
+    </row>
+    <row r="6" spans="1:5" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="19">
+        <v>64</v>
+      </c>
+      <c r="C6" s="18"/>
+    </row>
+    <row r="7" spans="1:5" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="19">
+        <v>64</v>
+      </c>
+      <c r="C7" s="18"/>
+    </row>
+    <row r="8" spans="1:5" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="19">
+        <v>65</v>
+      </c>
+      <c r="C8" s="18"/>
+    </row>
+    <row r="9" spans="1:5" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="19">
         <v>53</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="20">
-        <v>85</v>
-      </c>
-      <c r="C3" s="19"/>
-    </row>
-    <row r="4" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="20">
-        <v>90</v>
-      </c>
-      <c r="C4" s="19"/>
-    </row>
-    <row r="5" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="20">
-        <v>91</v>
-      </c>
-      <c r="C5" s="19"/>
-    </row>
-    <row r="6" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="20">
+      <c r="C9" s="18"/>
+    </row>
+    <row r="10" spans="1:5" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="19">
+        <v>63</v>
+      </c>
+      <c r="C10" s="18"/>
+    </row>
+    <row r="11" spans="1:5" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="19"/>
-    </row>
-    <row r="7" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="20">
-        <v>64</v>
-      </c>
-      <c r="C7" s="19"/>
-    </row>
-    <row r="8" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="20">
-        <v>65</v>
-      </c>
-      <c r="C8" s="19"/>
-    </row>
-    <row r="9" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="20">
-        <v>53</v>
-      </c>
-      <c r="C9" s="19"/>
-    </row>
-    <row r="10" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
+      <c r="B11" s="19">
         <v>68</v>
       </c>
-      <c r="B10" s="20">
-        <v>63</v>
-      </c>
-      <c r="C10" s="19"/>
-    </row>
-    <row r="11" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="20">
-        <v>68</v>
-      </c>
-      <c r="C11" s="19"/>
-    </row>
-    <row r="12" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="24">
+      <c r="C11" s="18"/>
+    </row>
+    <row r="12" spans="1:5" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="23">
         <f>SUBTOTAL(109,G20201122[成绩])</f>
         <v>643</v>
       </c>
@@ -7883,141 +8015,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="30"/>
+      <c r="A1" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="37"/>
       <c r="C1" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="30"/>
+        <v>24</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="19">
+        <v>102</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+    </row>
+    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="19">
+        <v>89</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="19">
+        <v>91</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="19">
+        <v>69</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="19">
+        <v>56</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="19">
+        <v>57</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="19">
         <v>53</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="23" t="s">
+      <c r="C9" s="18"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="19">
         <v>72</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-    </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="20">
-        <v>102</v>
-      </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-    </row>
-    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="20">
-        <v>89</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-    </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="20">
-        <v>91</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-    </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="20">
-        <v>69</v>
-      </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-    </row>
-    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="20">
-        <v>56</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-    </row>
-    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="19" t="s">
+      <c r="C10" s="18"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="20">
-        <v>57</v>
-      </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-    </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="20">
-        <v>53</v>
-      </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-    </row>
-    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="20">
-        <v>72</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-    </row>
-    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="20">
+      <c r="B11" s="19">
         <v>82</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="24">
+      <c r="A12" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="23">
         <f>SUBTOTAL(109,G20201226[成绩])</f>
         <v>671</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8074,141 +8206,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="28"/>
+      <c r="A1" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="27"/>
       <c r="C1" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="28"/>
+        <v>24</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="A2" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="19">
+        <v>0</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+    </row>
+    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="19">
+        <v>0</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="19">
+        <v>0</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="20">
-        <v>0</v>
-      </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-    </row>
-    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="19" t="s">
+      <c r="B6" s="19">
+        <v>0</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="20">
-        <v>0</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-    </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="19" t="s">
+      <c r="B7" s="19">
+        <v>0</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="20">
-        <v>0</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-    </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="19" t="s">
+      <c r="B8" s="19">
+        <v>0</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="20">
-        <v>0</v>
-      </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-    </row>
-    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="19" t="s">
+      <c r="B9" s="19">
+        <v>0</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="20">
-        <v>0</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-    </row>
-    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="19" t="s">
+      <c r="B10" s="19">
+        <v>0</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="20">
-        <v>0</v>
-      </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-    </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="20">
-        <v>0</v>
-      </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-    </row>
-    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="20">
-        <v>0</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-    </row>
-    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="20">
-        <v>0</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
+      <c r="B11" s="19">
+        <v>0</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="24">
+      <c r="A12" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="23">
         <f>SUBTOTAL(109,G20210201[成绩])</f>
         <v>0</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -8249,7 +8381,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8261,141 +8393,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="28"/>
+      <c r="A1" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="27"/>
       <c r="C1" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="28"/>
+        <v>24</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="A2" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="19">
+        <v>90</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+    </row>
+    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="19">
+        <v>108</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="19">
+        <v>76.5</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="20">
-        <v>90</v>
-      </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-    </row>
-    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="19" t="s">
+      <c r="B6" s="19">
+        <v>78</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="20">
-        <v>108</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-    </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="19" t="s">
+      <c r="B7" s="19">
+        <v>70</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="20">
-        <v>76.5</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-    </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="19" t="s">
+      <c r="B8" s="19">
+        <v>69</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B9" s="19">
+        <v>51</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="19">
         <v>78</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-    </row>
-    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="20">
-        <v>70</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-    </row>
-    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="19" t="s">
+      <c r="C10" s="18"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="20">
-        <v>69</v>
-      </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-    </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="20">
-        <v>51</v>
-      </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-    </row>
-    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="20">
-        <v>78</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-    </row>
-    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="20">
+      <c r="B11" s="19">
         <v>76</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="24">
+      <c r="A12" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="23">
         <f>SUBTOTAL(109,G20210407[成绩])</f>
         <v>696.5</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -8433,167 +8565,174 @@
     <tabColor theme="5" tint="-0.499984740745262"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="42.5546875" style="1" customWidth="1"/>
     <col min="2" max="3" width="15.5546875" style="1" customWidth="1"/>
     <col min="4" max="5" width="30.5546875" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="A1" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="29"/>
+    </row>
+    <row r="2" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="13">
-        <f ca="1">DATE(YEAR(TODAY()),6,7)</f>
-        <v>44354</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="16">
-        <v>201</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>29</v>
-      </c>
+      <c r="A3" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="19">
+        <v>85.5</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13">
-        <f ca="1">DATE(YEAR(TODAY()),6,8)</f>
-        <v>44355</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="16">
-        <v>98</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="9"/>
+      <c r="A4" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="19">
+        <v>106</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="16">
-        <v>342</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="9"/>
+      <c r="A5" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="19">
+        <v>64</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="16">
-        <v>122</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="9"/>
+      <c r="A6" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="19">
+        <v>64</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
     </row>
     <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="13"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="16">
-        <v>187</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="9"/>
+      <c r="A7" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="19">
+        <v>60</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
     </row>
     <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="16">
-        <v>99</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="9"/>
+      <c r="A8" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="19">
+        <v>66</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="15">
-        <f>SUBTOTAL(109,ExpJun[金额])</f>
-        <v>1049</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
+      <c r="A9" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="19">
+        <v>35</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="19">
+        <v>31</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="19">
+        <v>0</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="23">
+        <f>SUBTOTAL(109,G20210709[成绩])</f>
+        <v>511.5</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <dataValidations count="11">
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="金额验证" error="金额应为数字。" sqref="C3:C8" xr:uid="{00000000-0002-0000-0700-000000000000}">
-      <formula1>ISNUMBER($C3)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="需输入 6 月的日期，以便将此支出添加到“摘要”表" sqref="A3:A8" xr:uid="{00000000-0002-0000-0700-000001000000}">
-      <formula1>MONTH($A3)=6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="应从下拉列表中选择开支，以便“摘要”工作表中包含该开支" sqref="D3:D8" xr:uid="{00000000-0002-0000-0700-000002000000}">
+  <dataValidations count="7">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="应从下拉列表中选择开支，以便“摘要”工作表中包含该开支" sqref="A3:A11" xr:uid="{177F730A-C709-4A50-86A8-523E7A8A4C8C}">
       <formula1>ExpenseCategories</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="此工作表中的表上列出了详细开支的大纲。单元格 D1 和 E1 中分别是“摘要”工作表和“提示”工作表的导航超链接" sqref="A1:C1" xr:uid="{00000000-0002-0000-0700-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="“摘要”工作表的导航超链接" sqref="D1" xr:uid="{00000000-0002-0000-0700-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="“提示”工作表的导航超链接" sqref="E1" xr:uid="{00000000-0002-0000-0700-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此列中输入支出日期" sqref="A2" xr:uid="{00000000-0002-0000-0700-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此列中输入 PO#" sqref="B2" xr:uid="{00000000-0002-0000-0700-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此列中输入支出金额" sqref="C2" xr:uid="{00000000-0002-0000-0700-000008000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="由“摘要”工作表中“支出摘要”表的“支出”列自动填充的支出类别列表。按 Alt+向下键可浏览列表。按 Enter 可选择类别" sqref="D2" xr:uid="{00000000-0002-0000-0700-000009000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此列中输入支出描述" sqref="E2" xr:uid="{00000000-0002-0000-0700-00000A000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="“摘要”工作表的导航超链接" sqref="C1" xr:uid="{15CD35A4-68FA-4C14-AF2A-FEE095B886C3}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="此工作表中的表上列出了详细成绩的大纲。单元格 D1 是“摘要”工作表工作表的导航超链接" sqref="A1:B1 D1:E1" xr:uid="{EA245622-63B0-4250-9C86-91EC860AFFD4}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此列中输入名次" sqref="C2" xr:uid="{AB0E889A-7BDD-49DB-BF6F-0A21BD01A6E2}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="由“摘要”工作表中“摘要”表的“学科”列自动填充的学科类别列表。按 Alt+向下键可浏览列表。按 Enter 可选择类别" sqref="A2" xr:uid="{2B59187F-7A00-419A-982A-3B1BFB3DFDD1}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此列中输入成绩" sqref="B2" xr:uid="{D9BC9269-12BB-4C1A-A81C-30053BAF4507}"/>
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="金额验证" error="金额应为数字。" sqref="B3:B11" xr:uid="{1054B168-54AB-47C5-B4CD-CE4231F09D70}">
+      <formula1>ISNUMBER($B3)</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D1" location="摘要!A1" tooltip="选择以查看摘要" display="摘要" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-    <hyperlink ref="E1" location="提示!A1" tooltip="选择以导航到“提示”工作表" display="提示" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+    <hyperlink ref="C1" location="摘要!A1" tooltip="选择以查看摘要" display="摘要" xr:uid="{6F4D1273-C52E-4B25-96B6-6AD61B20177E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8613,15 +8752,15 @@
     <tabColor theme="5" tint="-0.249977111117893"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="42.5546875" style="1" customWidth="1"/>
     <col min="2" max="3" width="15.5546875" style="1" customWidth="1"/>
     <col min="4" max="5" width="30.5546875" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9.109375" style="1"/>
@@ -8629,139 +8768,178 @@
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A1" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="32"/>
+    </row>
+    <row r="2" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="19">
+        <v>105</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+    </row>
+    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="19">
+        <v>111</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="19">
+        <v>73</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="19">
+        <v>42</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="19">
+        <v>0</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="19">
+        <v>0</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="19">
+        <v>35.5</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="19">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="13">
-        <f ca="1">DATE(YEAR(TODAY()),7,9)</f>
-        <v>44386</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13">
-        <f ca="1">DATE(YEAR(TODAY()),7,14)</f>
-        <v>44391</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="13"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="15">
-        <f>SUBTOTAL(109,ExpJul[金额])</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
+      <c r="C10" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="19">
+        <v>86</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="23">
+        <f>SUBTOTAL(109,G20211016[成绩])</f>
+        <v>480.5</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <dataValidations count="11">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="应从下拉列表中选择开支，以便“摘要”工作表中包含该开支" sqref="D3:D8" xr:uid="{00000000-0002-0000-0800-000000000000}">
+  <dataValidations count="7">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="应从下拉列表中选择开支，以便“摘要”工作表中包含该开支" sqref="A3:A11" xr:uid="{88120A77-393C-4F79-AF6C-35D8889EBA1E}">
       <formula1>ExpenseCategories</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="此工作表中的表上列出了详细开支的大纲。单元格 D1 和 E1 中分别是“摘要”工作表和“提示”工作表的导航超链接" sqref="A1:C1" xr:uid="{00000000-0002-0000-0800-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="“摘要”工作表的导航超链接" sqref="D1" xr:uid="{00000000-0002-0000-0800-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="“提示”工作表的导航超链接" sqref="E1" xr:uid="{00000000-0002-0000-0800-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此列中输入支出日期" sqref="A2" xr:uid="{00000000-0002-0000-0800-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此列中输入 PO#" sqref="B2" xr:uid="{00000000-0002-0000-0800-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此列中输入支出金额" sqref="C2" xr:uid="{00000000-0002-0000-0800-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="由“摘要”工作表中“支出摘要”表的“支出”列自动填充的支出类别列表。按 Alt+向下键可浏览列表。按 Enter 可选择类别" sqref="D2" xr:uid="{00000000-0002-0000-0800-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此列中输入支出描述" sqref="E2" xr:uid="{00000000-0002-0000-0800-000008000000}"/>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="金额验证" error="金额应为数字。" sqref="C3:C8" xr:uid="{00000000-0002-0000-0800-000009000000}">
-      <formula1>ISNUMBER($C3)</formula1>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="“摘要”工作表的导航超链接" sqref="C1" xr:uid="{1AD2AFDE-E6F3-46BA-8583-B1A4F4C83BB4}"/>
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="金额验证" error="金额应为数字。" sqref="B3:B11" xr:uid="{7E89B213-1F9D-4903-8B31-BBCB4A762985}">
+      <formula1>ISNUMBER($B3)</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="需输入 7 月的日期，以便将此支出添加到“摘要”表" sqref="A3:A8" xr:uid="{00000000-0002-0000-0800-00000A000000}">
-      <formula1>MONTH($A3)=7</formula1>
-    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此列中输入成绩" sqref="B2" xr:uid="{A9DBB41D-BC63-40DC-A108-29FC7C0F2567}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="由“摘要”工作表中“摘要”表的“学科”列自动填充的学科类别列表。按 Alt+向下键可浏览列表。按 Enter 可选择类别" sqref="A2" xr:uid="{A740E03D-E517-474D-8272-2AEE7CB8C047}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此列中输入名次" sqref="C2" xr:uid="{64E54B11-2A72-44AC-B1BE-9F6FDE579D0E}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="此工作表中的表上列出了详细成绩的大纲。单元格 D1 是“摘要”工作表工作表的导航超链接" sqref="A1:B1 D1:E1" xr:uid="{245BA5E5-5988-49C1-9A79-610F0D45094F}"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D1" location="摘要!A1" tooltip="选择以查看摘要" display="摘要" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
-    <hyperlink ref="E1" location="提示!A1" tooltip="选择以导航到“提示”工作表" display="提示" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="C1" location="摘要!A1" tooltip="选择以查看摘要" display="摘要" xr:uid="{C0AD5F99-0B5F-411D-8607-C83F457AE033}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/胡宁黄岩中学成绩记录表.xlsx
+++ b/胡宁黄岩中学成绩记录表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SVN相关\Zhejiang-Huangyan-Middle-School\trunk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\其它\Zhejiang-Huangyan-Middle-School\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423E58DC-7244-4EC4-9F2B-85ACF58B38B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C16EF6-68F7-42B3-ABE0-892A1B8B6693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="784" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="784" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="提示" sheetId="16" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="112">
   <si>
     <t>模板提示</t>
   </si>
@@ -721,6 +721,14 @@
   </si>
   <si>
     <t>20211016考试</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>t</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>列1</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1023,6 +1031,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1035,9 +1046,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
@@ -1054,7 +1062,928 @@
     <cellStyle name="提示文本缩进" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="已访问的超链接" xfId="7" builtinId="9" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="156">
+  <dxfs count="158">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1087,6 +2016,904 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1123,6 +2950,19 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1156,6 +2996,19 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1189,6 +3042,19 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1222,6 +3088,19 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1255,6 +3134,19 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1288,6 +3180,19 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1321,6 +3226,19 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1354,6 +3272,19 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1387,6 +3318,19 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1420,6 +3364,19 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1453,6 +3410,19 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1486,6 +3456,19 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1519,6 +3502,19 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1548,1970 +3544,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3688,16 +3720,16 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="styleCustomSlicer" pivot="0" table="0" count="10" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="wholeTable" dxfId="157"/>
+      <tableStyleElement type="headerRow" dxfId="156"/>
+    </tableStyle>
+    <tableStyle name="摘要表" pivot="0" count="6" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="155"/>
       <tableStyleElement type="headerRow" dxfId="154"/>
-    </tableStyle>
-    <tableStyle name="摘要表" pivot="0" count="6" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="wholeTable" dxfId="153"/>
-      <tableStyleElement type="headerRow" dxfId="152"/>
-      <tableStyleElement type="totalRow" dxfId="151"/>
-      <tableStyleElement type="firstColumn" dxfId="150"/>
-      <tableStyleElement type="lastColumn" dxfId="149"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="148"/>
+      <tableStyleElement type="totalRow" dxfId="153"/>
+      <tableStyleElement type="firstColumn" dxfId="152"/>
+      <tableStyleElement type="lastColumn" dxfId="151"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="150"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -5346,50 +5378,50 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="支出摘要" displayName="支出摘要" ref="A4:O17" totalsRowCount="1" headerRowDxfId="147" dataDxfId="146" totalsRowDxfId="145">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="支出摘要" displayName="支出摘要" ref="A4:O17" totalsRowCount="1" headerRowDxfId="149" dataDxfId="148" totalsRowDxfId="147">
   <autoFilter ref="A4:O16" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="学科" totalsRowLabel="汇总" dataDxfId="144" totalsRowDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="20201009考试" totalsRowFunction="sum" dataDxfId="143" totalsRowDxfId="14">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="学科" totalsRowLabel="汇总" dataDxfId="146" totalsRowDxfId="145"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="20201009考试" totalsRowFunction="sum" dataDxfId="144" totalsRowDxfId="143">
       <calculatedColumnFormula>SUMIFS(G20201009[成绩],G20201009[学科],支出摘要[学科])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="20201122考试" totalsRowFunction="sum" dataDxfId="142" totalsRowDxfId="13">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="20201122考试" totalsRowFunction="sum" dataDxfId="142" totalsRowDxfId="141">
       <calculatedColumnFormula>SUMIFS(G20201122[成绩],G20201122[学科],支出摘要[学科])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="20201226考试" totalsRowFunction="sum" dataDxfId="141" totalsRowDxfId="12">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="20201226考试" totalsRowFunction="sum" dataDxfId="140" totalsRowDxfId="139">
       <calculatedColumnFormula>SUMIFS(G20201226[成绩],G20201226[学科],支出摘要[学科])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="20210201考试" totalsRowFunction="sum" dataDxfId="140" totalsRowDxfId="11">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="20210201考试" totalsRowFunction="sum" dataDxfId="138" totalsRowDxfId="137">
       <calculatedColumnFormula>SUMIFS(G20210201[成绩],G20210201[学科],支出摘要[学科])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="20210407考试" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="10">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="20210407考试" totalsRowFunction="sum" dataDxfId="136" totalsRowDxfId="135">
       <calculatedColumnFormula>SUMIFS(G20210407[成绩],G20210407[学科],支出摘要[学科])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="20210709考试" totalsRowFunction="sum" dataDxfId="139" totalsRowDxfId="9">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="20210709考试" totalsRowFunction="sum" dataDxfId="134" totalsRowDxfId="133">
       <calculatedColumnFormula>SUMIFS(#REF!,#REF!,支出摘要[学科])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="20211016考试" totalsRowFunction="sum" dataDxfId="0" totalsRowDxfId="8">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="20211016考试" totalsRowFunction="sum" dataDxfId="132" totalsRowDxfId="131">
       <calculatedColumnFormula>SUMIFS(G20211016[成绩],G20211016[学科],支出摘要[学科])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="8 月" totalsRowFunction="sum" dataDxfId="138" totalsRowDxfId="7">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="8 月" totalsRowFunction="sum" dataDxfId="130" totalsRowDxfId="129">
       <calculatedColumnFormula>SUMIFS(ExpAug[金额],ExpAug[类别],支出摘要[学科])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="9 月" totalsRowFunction="sum" dataDxfId="137" totalsRowDxfId="6">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="9 月" totalsRowFunction="sum" dataDxfId="128" totalsRowDxfId="127">
       <calculatedColumnFormula>SUMIFS(ExpSep[金额],ExpSep[类别],支出摘要[学科])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="10 月" totalsRowFunction="sum" dataDxfId="136" totalsRowDxfId="5">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="10 月" totalsRowFunction="sum" dataDxfId="126" totalsRowDxfId="125">
       <calculatedColumnFormula>SUMIFS(ExpOct[金额],ExpOct[类别],支出摘要[学科])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="11 月" totalsRowFunction="sum" dataDxfId="135" totalsRowDxfId="4">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="11 月" totalsRowFunction="sum" dataDxfId="124" totalsRowDxfId="123">
       <calculatedColumnFormula>SUMIFS(ExpNov[金额],ExpNov[类别],支出摘要[学科])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="12 月" totalsRowFunction="sum" dataDxfId="134" totalsRowDxfId="3">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="12 月" totalsRowFunction="sum" dataDxfId="122" totalsRowDxfId="121">
       <calculatedColumnFormula>SUMIFS(exp,#REF!,支出摘要[学科])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="总计" totalsRowFunction="sum" dataDxfId="133" totalsRowDxfId="2">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="总计" totalsRowFunction="sum" dataDxfId="120" totalsRowDxfId="119">
       <calculatedColumnFormula>SUM(支出摘要[[#This Row],[20201009考试]:[12 月]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="趋势" dataDxfId="132" totalsRowDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="趋势" dataDxfId="118" totalsRowDxfId="117"/>
   </tableColumns>
   <tableStyleInfo name="摘要表" showFirstColumn="0" showLastColumn="1" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -5401,14 +5433,14 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="ExpSep" displayName="ExpSep" ref="A2:E9" totalsRowCount="1" headerRowDxfId="67" dataDxfId="66" totalsRowDxfId="65">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="ExpSep" displayName="ExpSep" ref="A2:E9" totalsRowCount="1" headerRowDxfId="40" dataDxfId="39" totalsRowDxfId="38">
   <autoFilter ref="A2:E8" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="日期" totalsRowLabel="汇总" dataDxfId="64" totalsRowDxfId="63"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="PO#" dataDxfId="62" totalsRowDxfId="61"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="金额" totalsRowFunction="sum" dataDxfId="60" totalsRowDxfId="59"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="类别" dataDxfId="58" totalsRowDxfId="57"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="描述" dataDxfId="56" totalsRowDxfId="55"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="日期" totalsRowLabel="汇总" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="PO#" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="金额" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="类别" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="描述" dataDxfId="29" totalsRowDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="摘要表" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -5420,14 +5452,14 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="ExpOct" displayName="ExpOct" ref="A2:E9" totalsRowCount="1" headerRowDxfId="54" dataDxfId="53" totalsRowDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="ExpOct" displayName="ExpOct" ref="A2:E9" totalsRowCount="1" headerRowDxfId="27" dataDxfId="26" totalsRowDxfId="25">
   <autoFilter ref="A2:E8" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="日期" totalsRowLabel="汇总" dataDxfId="51" totalsRowDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="PO#" dataDxfId="49" totalsRowDxfId="48"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="金额" totalsRowFunction="sum" dataDxfId="47" totalsRowDxfId="46"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="类别" dataDxfId="45" totalsRowDxfId="44"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="描述" dataDxfId="43" totalsRowDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="日期" totalsRowLabel="汇总" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="PO#" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="金额" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="类别" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="描述" dataDxfId="16" totalsRowDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="摘要表" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -5439,14 +5471,14 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="ExpNov" displayName="ExpNov" ref="A2:E9" totalsRowCount="1" headerRowDxfId="41" dataDxfId="40" totalsRowDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="ExpNov" displayName="ExpNov" ref="A2:E9" totalsRowCount="1" headerRowDxfId="14" dataDxfId="13" totalsRowDxfId="12">
   <autoFilter ref="A2:E8" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="日期" totalsRowLabel="汇总" dataDxfId="38" totalsRowDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="PO#" dataDxfId="36" totalsRowDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="金额" totalsRowFunction="sum" dataDxfId="34" totalsRowDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="类别" dataDxfId="32" totalsRowDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="描述" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="日期" totalsRowLabel="汇总" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="PO#" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="金额" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="类别" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="描述" dataDxfId="3" totalsRowDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="摘要表" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -5458,12 +5490,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{6D77D3BE-EE13-4138-AFED-C87E0A200D21}" name="G20201009" displayName="G20201009" ref="A2:C12" totalsRowCount="1" headerRowDxfId="131" dataDxfId="130" totalsRowDxfId="129">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{6D77D3BE-EE13-4138-AFED-C87E0A200D21}" name="G20201009" displayName="G20201009" ref="A2:C12" totalsRowCount="1" headerRowDxfId="116" dataDxfId="115" totalsRowDxfId="114">
   <autoFilter ref="A2:C11" xr:uid="{CEC36953-3146-4FFE-BF85-2D17AABEC3C8}"/>
   <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{511B64D7-9BF0-4351-9AB2-561631539142}" name="学科" totalsRowLabel="汇总" dataDxfId="128" totalsRowDxfId="127" dataCellStyle="表格详细信息"/>
-    <tableColumn id="3" xr3:uid="{3140EA8D-08D2-4F4F-A103-5B06A7DDB3AB}" name="成绩" totalsRowFunction="sum" dataDxfId="126" totalsRowDxfId="125"/>
-    <tableColumn id="5" xr3:uid="{FAE8C61F-0FF8-4188-AA7D-5F7A56DFA269}" name="名次" totalsRowLabel="383" dataDxfId="124" totalsRowDxfId="123"/>
+    <tableColumn id="2" xr3:uid="{511B64D7-9BF0-4351-9AB2-561631539142}" name="学科" totalsRowLabel="汇总" dataDxfId="113" totalsRowDxfId="112" dataCellStyle="表格详细信息"/>
+    <tableColumn id="3" xr3:uid="{3140EA8D-08D2-4F4F-A103-5B06A7DDB3AB}" name="成绩" totalsRowFunction="sum" dataDxfId="111" totalsRowDxfId="110"/>
+    <tableColumn id="5" xr3:uid="{FAE8C61F-0FF8-4188-AA7D-5F7A56DFA269}" name="名次" totalsRowLabel="383" dataDxfId="109" totalsRowDxfId="108"/>
   </tableColumns>
   <tableStyleInfo name="摘要表" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -5475,12 +5507,12 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29E0DEC8-35CD-49DD-9980-DE0CE93A62F2}" name="G20201122" displayName="G20201122" ref="A2:C12" totalsRowCount="1" headerRowDxfId="122" dataDxfId="121" totalsRowDxfId="120">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29E0DEC8-35CD-49DD-9980-DE0CE93A62F2}" name="G20201122" displayName="G20201122" ref="A2:C12" totalsRowCount="1" headerRowDxfId="107" dataDxfId="106" totalsRowDxfId="105">
   <autoFilter ref="A2:C11" xr:uid="{D23E8BE5-C1ED-4120-85E3-87CD5F873CAD}"/>
   <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{7036831C-7D94-449E-A874-1FF30C6F6559}" name="学科" totalsRowLabel="汇总" dataDxfId="119" totalsRowDxfId="118" dataCellStyle="表格详细信息"/>
-    <tableColumn id="3" xr3:uid="{1F09854C-4986-466D-BAF2-E15A93886BBF}" name="成绩" totalsRowFunction="sum" dataDxfId="117" totalsRowDxfId="116"/>
-    <tableColumn id="5" xr3:uid="{8FC5B33D-CDE6-46C0-9E45-A246909E922C}" name="名次" dataDxfId="115" totalsRowDxfId="114"/>
+    <tableColumn id="2" xr3:uid="{7036831C-7D94-449E-A874-1FF30C6F6559}" name="学科" totalsRowLabel="汇总" dataDxfId="104" totalsRowDxfId="103" dataCellStyle="表格详细信息"/>
+    <tableColumn id="3" xr3:uid="{1F09854C-4986-466D-BAF2-E15A93886BBF}" name="成绩" totalsRowFunction="sum" dataDxfId="102" totalsRowDxfId="101"/>
+    <tableColumn id="5" xr3:uid="{8FC5B33D-CDE6-46C0-9E45-A246909E922C}" name="名次" dataDxfId="100" totalsRowDxfId="99"/>
   </tableColumns>
   <tableStyleInfo name="摘要表" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -5492,12 +5524,12 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F4631236-6710-41B0-A691-59BB1C4D887C}" name="G20201226" displayName="G20201226" ref="A2:C12" totalsRowCount="1" headerRowDxfId="113" dataDxfId="112" totalsRowDxfId="111">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F4631236-6710-41B0-A691-59BB1C4D887C}" name="G20201226" displayName="G20201226" ref="A2:C12" totalsRowCount="1" headerRowDxfId="98" dataDxfId="97" totalsRowDxfId="96">
   <autoFilter ref="A2:C11" xr:uid="{1559AFAA-18D1-493F-8508-E1652BF9C371}"/>
   <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{DAC30ADF-E7C9-4912-81C9-A26775D46A9C}" name="学科" totalsRowLabel="汇总" dataDxfId="110" totalsRowDxfId="109" dataCellStyle="表格详细信息"/>
-    <tableColumn id="3" xr3:uid="{A8BC6C90-6FF2-4EDE-83F3-AA7135812534}" name="成绩" totalsRowFunction="sum" dataDxfId="108" totalsRowDxfId="107"/>
-    <tableColumn id="5" xr3:uid="{73B9B4B3-8FA7-4141-80A8-A7E739B8B97F}" name="名次" dataDxfId="106" totalsRowDxfId="105"/>
+    <tableColumn id="2" xr3:uid="{DAC30ADF-E7C9-4912-81C9-A26775D46A9C}" name="学科" totalsRowLabel="汇总" dataDxfId="95" totalsRowDxfId="94" dataCellStyle="表格详细信息"/>
+    <tableColumn id="3" xr3:uid="{A8BC6C90-6FF2-4EDE-83F3-AA7135812534}" name="成绩" totalsRowFunction="sum" dataDxfId="93" totalsRowDxfId="92"/>
+    <tableColumn id="5" xr3:uid="{73B9B4B3-8FA7-4141-80A8-A7E739B8B97F}" name="名次" dataDxfId="91" totalsRowDxfId="90"/>
   </tableColumns>
   <tableStyleInfo name="摘要表" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -5509,12 +5541,12 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8DDF2ED6-17B6-49E2-A9A2-FB12D117C043}" name="G20210201" displayName="G20210201" ref="A2:C12" totalsRowCount="1" headerRowDxfId="104" dataDxfId="103" totalsRowDxfId="102">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8DDF2ED6-17B6-49E2-A9A2-FB12D117C043}" name="G20210201" displayName="G20210201" ref="A2:C12" totalsRowCount="1" headerRowDxfId="89" dataDxfId="88" totalsRowDxfId="87">
   <autoFilter ref="A2:C11" xr:uid="{5F924DC2-E033-4279-8E3C-853821B4D77D}"/>
   <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{BCD79509-756D-4B62-82AC-453E8FAE0F0B}" name="学科" totalsRowLabel="汇总" dataDxfId="101" totalsRowDxfId="100" dataCellStyle="表格详细信息"/>
-    <tableColumn id="3" xr3:uid="{21978B54-EE56-42C2-9CF4-9A3878E92FC0}" name="成绩" totalsRowFunction="sum" dataDxfId="99" totalsRowDxfId="98"/>
-    <tableColumn id="5" xr3:uid="{D5BD6513-953E-4019-91AA-941478AA3B32}" name="名次" dataDxfId="97" totalsRowDxfId="96"/>
+    <tableColumn id="2" xr3:uid="{BCD79509-756D-4B62-82AC-453E8FAE0F0B}" name="学科" totalsRowLabel="汇总" dataDxfId="86" totalsRowDxfId="85" dataCellStyle="表格详细信息"/>
+    <tableColumn id="3" xr3:uid="{21978B54-EE56-42C2-9CF4-9A3878E92FC0}" name="成绩" totalsRowFunction="sum" dataDxfId="84" totalsRowDxfId="83"/>
+    <tableColumn id="5" xr3:uid="{D5BD6513-953E-4019-91AA-941478AA3B32}" name="名次" dataDxfId="82" totalsRowDxfId="81"/>
   </tableColumns>
   <tableStyleInfo name="摘要表" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -5526,12 +5558,12 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0CF312D2-B8D7-445C-83A1-191E392BE247}" name="G20210407" displayName="G20210407" ref="A2:C12" totalsRowCount="1" headerRowDxfId="95" dataDxfId="94" totalsRowDxfId="93">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0CF312D2-B8D7-445C-83A1-191E392BE247}" name="G20210407" displayName="G20210407" ref="A2:C12" totalsRowCount="1" headerRowDxfId="80" dataDxfId="79" totalsRowDxfId="78">
   <autoFilter ref="A2:C11" xr:uid="{EF79F026-E83F-45FF-B230-27F00A5DD00B}"/>
   <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{045FEDB9-118A-45A6-91C1-00C2C9970A90}" name="学科" totalsRowLabel="汇总" dataDxfId="92" totalsRowDxfId="91" dataCellStyle="表格详细信息"/>
-    <tableColumn id="3" xr3:uid="{BD096444-2BA2-442D-8BE1-A0579D5A4B06}" name="成绩" totalsRowFunction="sum" dataDxfId="90" totalsRowDxfId="89"/>
-    <tableColumn id="5" xr3:uid="{9D8FB202-83CF-42DE-880F-2EEC6FC96934}" name="名次" dataDxfId="88" totalsRowDxfId="87"/>
+    <tableColumn id="2" xr3:uid="{045FEDB9-118A-45A6-91C1-00C2C9970A90}" name="学科" totalsRowLabel="汇总" dataDxfId="77" totalsRowDxfId="76" dataCellStyle="表格详细信息"/>
+    <tableColumn id="3" xr3:uid="{BD096444-2BA2-442D-8BE1-A0579D5A4B06}" name="成绩" totalsRowFunction="sum" dataDxfId="75" totalsRowDxfId="74"/>
+    <tableColumn id="5" xr3:uid="{9D8FB202-83CF-42DE-880F-2EEC6FC96934}" name="名次" dataDxfId="73" totalsRowDxfId="72"/>
   </tableColumns>
   <tableStyleInfo name="摘要表" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -5543,12 +5575,12 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4D5492DB-CA33-4C89-BC6B-9EAC87DC3D15}" name="G20210709" displayName="G20210709" ref="A2:C12" totalsRowCount="1" headerRowDxfId="86" dataDxfId="85" totalsRowDxfId="84">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4D5492DB-CA33-4C89-BC6B-9EAC87DC3D15}" name="G20210709" displayName="G20210709" ref="A2:C12" totalsRowCount="1" headerRowDxfId="71" dataDxfId="70" totalsRowDxfId="69">
   <autoFilter ref="A2:C11" xr:uid="{4D5492DB-CA33-4C89-BC6B-9EAC87DC3D15}"/>
   <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{51BD3892-8F3F-47D0-A5CD-789DE11C604A}" name="学科" totalsRowLabel="汇总" dataDxfId="83" totalsRowDxfId="28" dataCellStyle="表格详细信息"/>
-    <tableColumn id="3" xr3:uid="{24A4E4CE-7EEC-4A7C-9ACB-B6378DDB536E}" name="成绩" totalsRowFunction="sum" dataDxfId="82" totalsRowDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{7C956BD7-7795-4582-8361-3A179AE1706D}" name="名次" dataDxfId="81" totalsRowDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{51BD3892-8F3F-47D0-A5CD-789DE11C604A}" name="学科" totalsRowLabel="汇总" dataDxfId="68" totalsRowDxfId="67" dataCellStyle="表格详细信息"/>
+    <tableColumn id="3" xr3:uid="{24A4E4CE-7EEC-4A7C-9ACB-B6378DDB536E}" name="成绩" totalsRowFunction="sum" dataDxfId="66" totalsRowDxfId="65"/>
+    <tableColumn id="5" xr3:uid="{7C956BD7-7795-4582-8361-3A179AE1706D}" name="名次" dataDxfId="64" totalsRowDxfId="63"/>
   </tableColumns>
   <tableStyleInfo name="摘要表" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -5560,12 +5592,13 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C35136D0-8697-43FB-AC94-30343255651C}" name="G20211016" displayName="G20211016" ref="A2:C12" totalsRowCount="1" headerRowDxfId="24" dataDxfId="23" totalsRowDxfId="22">
-  <autoFilter ref="A2:C11" xr:uid="{C35136D0-8697-43FB-AC94-30343255651C}"/>
-  <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{610FE478-12B0-45BF-83BC-377FB8D56EC1}" name="学科" totalsRowLabel="汇总" dataDxfId="21" totalsRowDxfId="18" dataCellStyle="表格详细信息"/>
-    <tableColumn id="3" xr3:uid="{3FAAF25F-9B86-49F8-B87C-16E60521313E}" name="成绩" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{56A9C20C-83C9-4224-89F8-B140C51D6A40}" name="名次" totalsRowLabel="316/14" dataDxfId="19" totalsRowDxfId="16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C35136D0-8697-43FB-AC94-30343255651C}" name="G20211016" displayName="G20211016" ref="A2:D12" totalsRowCount="1" headerRowDxfId="62" dataDxfId="61" totalsRowDxfId="60">
+  <autoFilter ref="A2:D11" xr:uid="{C35136D0-8697-43FB-AC94-30343255651C}"/>
+  <tableColumns count="4">
+    <tableColumn id="2" xr3:uid="{610FE478-12B0-45BF-83BC-377FB8D56EC1}" name="学科" totalsRowLabel="汇总" dataDxfId="59" totalsRowDxfId="58" dataCellStyle="表格详细信息"/>
+    <tableColumn id="3" xr3:uid="{3FAAF25F-9B86-49F8-B87C-16E60521313E}" name="成绩" totalsRowFunction="sum" dataDxfId="57" totalsRowDxfId="56"/>
+    <tableColumn id="5" xr3:uid="{56A9C20C-83C9-4224-89F8-B140C51D6A40}" name="名次" totalsRowLabel="316/14" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="1" xr3:uid="{3E4A401A-A550-4D5E-BEC2-DF8515530B36}" name="列1" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="摘要表" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -5577,14 +5610,14 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="ExpAug" displayName="ExpAug" ref="A2:E9" totalsRowCount="1" headerRowDxfId="80" dataDxfId="79" totalsRowDxfId="78">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="ExpAug" displayName="ExpAug" ref="A2:E9" totalsRowCount="1" headerRowDxfId="53" dataDxfId="52" totalsRowDxfId="51">
   <autoFilter ref="A2:E8" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="日期" totalsRowLabel="汇总" dataDxfId="77" totalsRowDxfId="76"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="PO#" dataDxfId="75" totalsRowDxfId="74"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="金额" totalsRowFunction="sum" dataDxfId="73" totalsRowDxfId="72"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="类别" dataDxfId="71" totalsRowDxfId="70"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="描述" dataDxfId="69" totalsRowDxfId="68"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="日期" totalsRowLabel="汇总" dataDxfId="50" totalsRowDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="PO#" dataDxfId="48" totalsRowDxfId="47"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="金额" totalsRowFunction="sum" dataDxfId="46" totalsRowDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="类别" dataDxfId="44" totalsRowDxfId="43"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="描述" dataDxfId="42" totalsRowDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="摘要表" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -5972,11 +6005,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="37"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="38"/>
       <c r="D1" s="12" t="s">
         <v>24</v>
       </c>
@@ -6140,11 +6173,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="37"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="38"/>
       <c r="D1" s="12" t="s">
         <v>24</v>
       </c>
@@ -6308,11 +6341,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="37"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="38"/>
       <c r="D1" s="12" t="s">
         <v>24</v>
       </c>
@@ -6477,11 +6510,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="37"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="38"/>
       <c r="D1" s="12" t="s">
         <v>37</v>
       </c>
@@ -6633,7 +6666,7 @@
   </sheetPr>
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -6658,10 +6691,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7553,22 +7586,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" last="1" negative="1" xr2:uid="{00000000-0003-0000-0100-000001000000}">
-          <x14:colorSeries theme="0" tint="-0.499984740745262"/>
-          <x14:colorNegative theme="6" tint="-0.499984740745262"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="7" tint="-0.249977111117893"/>
-          <x14:colorFirst theme="5" tint="-0.249977111117893"/>
-          <x14:colorLast theme="7" tint="-0.499984740745262"/>
-          <x14:colorHigh theme="5" tint="-0.249977111117893"/>
-          <x14:colorLow theme="5" tint="-0.249977111117893"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>摘要!B17:M17</xm:f>
-              <xm:sqref>O17</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
         <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" last="1" negative="1" xr2:uid="{00000000-0003-0000-0100-000000000000}">
           <x14:colorSeries theme="4" tint="-0.499984740745262"/>
           <x14:colorNegative theme="6" tint="-0.499984740745262"/>
@@ -7629,6 +7646,22 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" last="1" negative="1" xr2:uid="{00000000-0003-0000-0100-000001000000}">
+          <x14:colorSeries theme="0" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="6" tint="-0.499984740745262"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="7" tint="-0.249977111117893"/>
+          <x14:colorFirst theme="5" tint="-0.249977111117893"/>
+          <x14:colorLast theme="7" tint="-0.499984740745262"/>
+          <x14:colorHigh theme="5" tint="-0.249977111117893"/>
+          <x14:colorLow theme="5" tint="-0.249977111117893"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>摘要!B17:M17</xm:f>
+              <xm:sqref>O17</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>
@@ -7657,17 +7690,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="36"/>
       <c r="C1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="35"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:5" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
@@ -7847,17 +7880,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="37"/>
+      <c r="B1" s="38"/>
       <c r="C1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="37"/>
+      <c r="E1" s="38"/>
     </row>
     <row r="2" spans="1:5" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
@@ -8015,17 +8048,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="37"/>
+      <c r="B1" s="38"/>
       <c r="C1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="37"/>
+      <c r="E1" s="38"/>
     </row>
     <row r="2" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
@@ -8754,7 +8787,7 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -8789,7 +8822,9 @@
       <c r="C2" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="17"/>
+      <c r="D2" s="17" t="s">
+        <v>111</v>
+      </c>
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -8799,7 +8834,7 @@
       <c r="B3" s="19">
         <v>105</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="33" t="s">
         <v>102</v>
       </c>
       <c r="D3" s="17"/>
@@ -8812,7 +8847,7 @@
       <c r="B4" s="19">
         <v>111</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="33" t="s">
         <v>100</v>
       </c>
       <c r="D4" s="17"/>
@@ -8825,7 +8860,7 @@
       <c r="B5" s="19">
         <v>73</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="33" t="s">
         <v>103</v>
       </c>
       <c r="D5" s="17"/>
@@ -8838,7 +8873,7 @@
       <c r="B6" s="19">
         <v>42</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="33" t="s">
         <v>105</v>
       </c>
       <c r="D6" s="17"/>
@@ -8851,7 +8886,7 @@
       <c r="B7" s="19">
         <v>0</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="33" t="s">
         <v>101</v>
       </c>
       <c r="D7" s="17"/>
@@ -8864,7 +8899,7 @@
       <c r="B8" s="19">
         <v>0</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="33" t="s">
         <v>101</v>
       </c>
       <c r="D8" s="17"/>
@@ -8877,10 +8912,12 @@
       <c r="B9" s="19">
         <v>35.5</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="17"/>
+      <c r="D9" s="17" t="s">
+        <v>110</v>
+      </c>
       <c r="E9" s="17"/>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -8890,7 +8927,7 @@
       <c r="B10" s="19">
         <v>28</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="33" t="s">
         <v>107</v>
       </c>
       <c r="D10" s="17"/>
@@ -8903,7 +8940,7 @@
       <c r="B11" s="19">
         <v>86</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="33" t="s">
         <v>106</v>
       </c>
       <c r="D11" s="17"/>

--- a/胡宁黄岩中学成绩记录表.xlsx
+++ b/胡宁黄岩中学成绩记录表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\其它\Zhejiang-Huangyan-Middle-School\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C16EF6-68F7-42B3-ABE0-892A1B8B6693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370B2C87-39BA-4283-B4B6-8F430E00530A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="784" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="111">
   <si>
     <t>模板提示</t>
   </si>
@@ -721,10 +721,6 @@
   </si>
   <si>
     <t>20211016考试</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>t</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -1065,15 +1061,84 @@
   <dxfs count="158">
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1933,26 +1998,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1962,27 +2007,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1996,26 +2020,6 @@
       </font>
       <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -5433,14 +5437,14 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="ExpSep" displayName="ExpSep" ref="A2:E9" totalsRowCount="1" headerRowDxfId="40" dataDxfId="39" totalsRowDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="ExpSep" displayName="ExpSep" ref="A2:E9" totalsRowCount="1" headerRowDxfId="43" dataDxfId="42" totalsRowDxfId="41">
   <autoFilter ref="A2:E8" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="日期" totalsRowLabel="汇总" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="PO#" dataDxfId="35" totalsRowDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="金额" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="类别" dataDxfId="31" totalsRowDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="描述" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="日期" totalsRowLabel="汇总" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="PO#" dataDxfId="38" totalsRowDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="金额" totalsRowFunction="sum" dataDxfId="36" totalsRowDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="类别" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="描述" dataDxfId="32" totalsRowDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="摘要表" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -5452,14 +5456,14 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="ExpOct" displayName="ExpOct" ref="A2:E9" totalsRowCount="1" headerRowDxfId="27" dataDxfId="26" totalsRowDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="ExpOct" displayName="ExpOct" ref="A2:E9" totalsRowCount="1" headerRowDxfId="30" dataDxfId="29" totalsRowDxfId="28">
   <autoFilter ref="A2:E8" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="日期" totalsRowLabel="汇总" dataDxfId="24" totalsRowDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="PO#" dataDxfId="22" totalsRowDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="金额" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="类别" dataDxfId="18" totalsRowDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="描述" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="日期" totalsRowLabel="汇总" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="PO#" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="金额" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="类别" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="描述" dataDxfId="19" totalsRowDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="摘要表" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -5471,14 +5475,14 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="ExpNov" displayName="ExpNov" ref="A2:E9" totalsRowCount="1" headerRowDxfId="14" dataDxfId="13" totalsRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="ExpNov" displayName="ExpNov" ref="A2:E9" totalsRowCount="1" headerRowDxfId="17" dataDxfId="16" totalsRowDxfId="15">
   <autoFilter ref="A2:E8" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="日期" totalsRowLabel="汇总" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="PO#" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="金额" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="类别" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="描述" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="日期" totalsRowLabel="汇总" dataDxfId="14" totalsRowDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="PO#" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="金额" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="类别" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="描述" dataDxfId="6" totalsRowDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="摘要表" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -5595,10 +5599,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C35136D0-8697-43FB-AC94-30343255651C}" name="G20211016" displayName="G20211016" ref="A2:D12" totalsRowCount="1" headerRowDxfId="62" dataDxfId="61" totalsRowDxfId="60">
   <autoFilter ref="A2:D11" xr:uid="{C35136D0-8697-43FB-AC94-30343255651C}"/>
   <tableColumns count="4">
-    <tableColumn id="2" xr3:uid="{610FE478-12B0-45BF-83BC-377FB8D56EC1}" name="学科" totalsRowLabel="汇总" dataDxfId="59" totalsRowDxfId="58" dataCellStyle="表格详细信息"/>
-    <tableColumn id="3" xr3:uid="{3FAAF25F-9B86-49F8-B87C-16E60521313E}" name="成绩" totalsRowFunction="sum" dataDxfId="57" totalsRowDxfId="56"/>
-    <tableColumn id="5" xr3:uid="{56A9C20C-83C9-4224-89F8-B140C51D6A40}" name="名次" totalsRowLabel="316/14" dataDxfId="55" totalsRowDxfId="54"/>
-    <tableColumn id="1" xr3:uid="{3E4A401A-A550-4D5E-BEC2-DF8515530B36}" name="列1" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{610FE478-12B0-45BF-83BC-377FB8D56EC1}" name="学科" totalsRowLabel="汇总" dataDxfId="59" totalsRowDxfId="3" dataCellStyle="表格详细信息"/>
+    <tableColumn id="3" xr3:uid="{3FAAF25F-9B86-49F8-B87C-16E60521313E}" name="成绩" totalsRowFunction="sum" dataDxfId="58" totalsRowDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{56A9C20C-83C9-4224-89F8-B140C51D6A40}" name="名次" totalsRowLabel="316/14" dataDxfId="57" totalsRowDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{3E4A401A-A550-4D5E-BEC2-DF8515530B36}" name="列1" dataDxfId="4" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="摘要表" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -5610,14 +5614,14 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="ExpAug" displayName="ExpAug" ref="A2:E9" totalsRowCount="1" headerRowDxfId="53" dataDxfId="52" totalsRowDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="ExpAug" displayName="ExpAug" ref="A2:E9" totalsRowCount="1" headerRowDxfId="56" dataDxfId="55" totalsRowDxfId="54">
   <autoFilter ref="A2:E8" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="日期" totalsRowLabel="汇总" dataDxfId="50" totalsRowDxfId="49"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="PO#" dataDxfId="48" totalsRowDxfId="47"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="金额" totalsRowFunction="sum" dataDxfId="46" totalsRowDxfId="45"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="类别" dataDxfId="44" totalsRowDxfId="43"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="描述" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="日期" totalsRowLabel="汇总" dataDxfId="53" totalsRowDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="PO#" dataDxfId="51" totalsRowDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="金额" totalsRowFunction="sum" dataDxfId="49" totalsRowDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="类别" dataDxfId="47" totalsRowDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="描述" dataDxfId="45" totalsRowDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="摘要表" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -8823,7 +8827,7 @@
         <v>66</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E2" s="17"/>
     </row>
@@ -8915,9 +8919,7 @@
       <c r="C9" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>110</v>
-      </c>
+      <c r="D9" s="17"/>
       <c r="E9" s="17"/>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
